--- a/提出物/詳細設計書.xlsx
+++ b/提出物/詳細設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\GUYS\提出物\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD503648-EC1E-4689-A63F-C0EC029A76F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E0CAD1-366F-4F1D-93FF-3CFBBB43A78C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" firstSheet="1" activeTab="9" xr2:uid="{D1900441-24B9-4624-8A47-94F74F569874}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" firstSheet="2" activeTab="10" xr2:uid="{D1900441-24B9-4624-8A47-94F74F569874}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -23,71 +23,90 @@
     <sheet name="ログインページ" sheetId="10" r:id="rId8"/>
     <sheet name="運営会社ページ" sheetId="11" r:id="rId9"/>
     <sheet name="プライバシーポリシーページ" sheetId="12" r:id="rId10"/>
+    <sheet name="ランキングページ" sheetId="13" r:id="rId11"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId11"/>
-    <externalReference r:id="rId12"/>
-  </externalReferences>
   <definedNames>
     <definedName name="a" localSheetId="9">#REF!</definedName>
+    <definedName name="a" localSheetId="10">#REF!</definedName>
     <definedName name="a">#REF!</definedName>
     <definedName name="aaa" localSheetId="9">#REF!</definedName>
+    <definedName name="aaa" localSheetId="10">#REF!</definedName>
     <definedName name="aaa">#REF!</definedName>
     <definedName name="aaaa" localSheetId="9">#REF!</definedName>
+    <definedName name="aaaa" localSheetId="10">#REF!</definedName>
     <definedName name="aaaa">#REF!</definedName>
+    <definedName name="e" localSheetId="10">#REF!</definedName>
     <definedName name="e">#REF!</definedName>
+    <definedName name="eeee" localSheetId="10">#REF!</definedName>
     <definedName name="eeee">#REF!</definedName>
+    <definedName name="erer">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1" localSheetId="9">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_1_1" localSheetId="10">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1" localSheetId="8">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1_1" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1_1" localSheetId="9">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_1_1_1" localSheetId="10">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1_1" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1_1" localSheetId="8">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1_1">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1_1_1" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1_1_1" localSheetId="9">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_1_1_1_1" localSheetId="10">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1_1_1" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1_1_1" localSheetId="8">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_1_1_1_1">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_2" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_2" localSheetId="9">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_2" localSheetId="10">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_2" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_2" localSheetId="8">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_2">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_3" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_3" localSheetId="9">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_3" localSheetId="10">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_3" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_3" localSheetId="8">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_3">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_4" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_4" localSheetId="9">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_4" localSheetId="10">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_4" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_4" localSheetId="8">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_4">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_5" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_5" localSheetId="9">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_5" localSheetId="10">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_5" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_5" localSheetId="8">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_5">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_6" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_6" localSheetId="9">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_6" localSheetId="10">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_6" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_6" localSheetId="8">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_6">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_7" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_7" localSheetId="9">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_7" localSheetId="10">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_7" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_7" localSheetId="8">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_7">#REF!</definedName>
+    <definedName name="p" localSheetId="10">#REF!</definedName>
     <definedName name="p">#REF!</definedName>
+    <definedName name="qqqqqqqqq">#REF!</definedName>
+    <definedName name="あああ" localSheetId="10">#REF!</definedName>
     <definedName name="あああ">#REF!</definedName>
+    <definedName name="ああああ" localSheetId="10">#REF!</definedName>
     <definedName name="ああああ">#REF!</definedName>
+    <definedName name="プライバシーポリシー" localSheetId="10">#REF!</definedName>
     <definedName name="プライバシーポリシー">#REF!</definedName>
+    <definedName name="プライページ２" localSheetId="10">#REF!</definedName>
     <definedName name="プライページ２">#REF!</definedName>
     <definedName name="ログインページ漢" localSheetId="9">#REF!</definedName>
+    <definedName name="ログインページ漢" localSheetId="10">#REF!</definedName>
     <definedName name="ログインページ漢">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -100,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="158">
   <si>
     <t>関係者外秘</t>
     <rPh sb="0" eb="3">
@@ -1126,6 +1145,103 @@
     <t>privacy.php</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>ランキングページ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ranking.php</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>集計期間</t>
+    <rPh sb="0" eb="2">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キカン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>button</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザーの順位</t>
+    <rPh sb="5" eb="7">
+      <t>ジュンイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ランキング上位ユーザー</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>押下されたボタンに応じてDBからのデータの集計期間が変動する</t>
+    <rPh sb="0" eb="2">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヘンドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>データの集計期間に応じて、ログインしているユーザーの順位とマイレージを表示する</t>
+    <rPh sb="4" eb="8">
+      <t>シュウケイキカン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジュンイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>データの集計期間に応じて、上位10名のユーザーの名前とマイレージを表示する</t>
+    <rPh sb="4" eb="8">
+      <t>シュウケイキカン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -1602,7 +1718,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1844,47 +1960,14 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1919,15 +2002,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1952,6 +2026,51 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1970,8 +2089,23 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -11179,44 +11313,4296 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="表紙"/>
-      <sheetName val="トップページ"/>
-      <sheetName val="アカウント作成"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="表紙"/>
-      <sheetName val="トップページ"/>
-      <sheetName val="ログインページ"/>
-      <sheetName val="運営会社ページ"/>
-      <sheetName val="プライバシーポリシーページ"/>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A664A0E-A9CF-4138-A150-FAB83AFC75A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10306050" y="5276849"/>
+          <a:ext cx="2466975" cy="238126"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Copyright © 2021 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>チーム漢</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>. All rights reserved.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" u="none">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{898DAF85-54D6-48D8-BDA7-BC3A46D7CCBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914400" y="847725"/>
+          <a:ext cx="876300" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>R</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C12C902D-C810-40BB-9B07-E53D6BF55011}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1885950" y="809625"/>
+          <a:ext cx="4838700" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+            <a:t>ランキング</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2418FF3-8024-4625-9CE6-50FACA97026A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8181975" y="962025"/>
+          <a:ext cx="1209675" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050"/>
+            <a:t>アカウント作成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60E3927A-C707-450D-A175-6CCDFFBA4ACC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1028701" y="4810125"/>
+          <a:ext cx="942975" cy="219076"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TOP</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53B86D1B-F43A-4735-A347-5FB9019B051E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1038225" y="5010150"/>
+          <a:ext cx="1028700" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>漢委員会</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1114425</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{615B02C4-3ECF-42F2-98BE-FADA33F45DBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1019175" y="5257800"/>
+          <a:ext cx="1800225" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>プライバシーポリシー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>209551</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8806EE70-0E0F-47B2-B17D-1EF228FDB65E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3638550" y="5219700"/>
+          <a:ext cx="2571750" cy="257176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Copyright © 2021 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>チーム漢</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>. All rights reserved.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" u="none">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3158F6D-458A-4B30-B2D8-0DE01FF068E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10296525" y="904875"/>
+          <a:ext cx="333375" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>R</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F624C6A-E71F-4B25-A7CD-DF5288DDC61C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10658476" y="895350"/>
+          <a:ext cx="1343024" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>リサーチ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>GO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>！</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28573</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="吹き出し: 四角形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A946A958-7EC9-4D41-966F-F8D044A3DFA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13611225" y="771523"/>
+          <a:ext cx="2057400" cy="1876426"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -79018"/>
+            <a:gd name="adj2" fmla="val -35809"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ハンバーガーメニュー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TOP</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・マイページ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・ログイン</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ログアウト</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・アカウント作成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・漢委員会</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・プライバシーポリシー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="グラフィックス 12" descr="データベース">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F7F8B02-E11C-41C1-A22D-5FF60764BB2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12125325" y="762000"/>
+          <a:ext cx="914400" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="四角形: 角を丸くする 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{738F2FD0-F1DF-4AFA-92DB-5FB7D7DF6483}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1819275" y="1971676"/>
+          <a:ext cx="6229350" cy="2743200"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07B11574-22E9-4AF5-9B5D-85EAC74C7C01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2562225" y="1847850"/>
+          <a:ext cx="2409825" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>週間マイレージランキング</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>683172</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14A03DDB-5D3E-4A7E-8382-03760D8B2ABB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2453837" y="2313590"/>
+          <a:ext cx="1080266" cy="320565"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>週間</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC24144E-EF59-4C29-BA27-C7F12DD0500A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2981325" y="3271216"/>
+          <a:ext cx="563632" cy="356567"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>位</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9809421-66A4-4227-9CB8-8951E26EE9AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4019550" y="2752725"/>
+          <a:ext cx="676275" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>○位</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02E0E6E3-5FBE-4761-AB7D-7E2DE69229D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4002157" y="3271216"/>
+          <a:ext cx="1457739" cy="356567"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>○○○○さん</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>172691</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>172277</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>506066</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>229427</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="四角形: 角を丸くする 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6EA9FBD-00B5-4128-9C3F-370BADC02C56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10368582" y="1878494"/>
+          <a:ext cx="2395745" cy="3179694"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>183930</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{868C2F67-96F3-4040-9E08-31E1BC7D501D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10501476" y="1680341"/>
+          <a:ext cx="1881023" cy="291991"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>週間マイレージランキング</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="テキスト ボックス 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD93CBD-E0B0-4504-B51E-8BB7E8304713}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3657928" y="2313590"/>
+          <a:ext cx="1082894" cy="320565"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>月間</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="テキスト ボックス 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{619C1BBC-1B8A-4BA9-B154-7C2255D50519}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4855122" y="2313590"/>
+          <a:ext cx="1083223" cy="320565"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>年間</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="テキスト ボックス 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DAA38C4-07CB-4798-93B7-921A84F74110}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6050017" y="2313590"/>
+          <a:ext cx="1083223" cy="320565"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>累計</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直線コネクタ 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7228B031-A80B-4981-A1DA-5D5C48DD0CF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2381250" y="2686050"/>
+          <a:ext cx="4991100" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1009650</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="テキスト ボックス 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{982E4386-1D44-4BAB-89B1-E6657B60F612}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2714625" y="2752725"/>
+          <a:ext cx="1133475" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>あなたは</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46FF557D-467F-43FB-95F7-F55760753454}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4695825" y="2752725"/>
+          <a:ext cx="990600" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>○○</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>km</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="正方形/長方形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{617EEE27-DDB1-492E-99D0-6B7E33B7EE01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5383697" y="3271216"/>
+          <a:ext cx="858906" cy="356567"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>○○</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>km</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="テキスト ボックス 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A7DEFE6-44B8-4F23-8946-DC69C1510D6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2981325" y="3751608"/>
+          <a:ext cx="563632" cy="356566"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>位</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="正方形/長方形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A26C176F-D863-45AE-B3AA-66C4596FE704}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4002157" y="3751608"/>
+          <a:ext cx="1457739" cy="356566"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>○○○○さん</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="正方形/長方形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30B9CCFC-665D-4060-9F98-03CBC99B2131}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5381626" y="3724275"/>
+          <a:ext cx="857250" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>○○</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>km</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="テキスト ボックス 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAF2376-F8E1-4833-A297-4DC90AFAB080}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2981325" y="4314825"/>
+          <a:ext cx="561975" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>位</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="正方形/長方形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03A2855D-75CE-42A1-8FF2-B7F234390EED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4000500" y="4314825"/>
+          <a:ext cx="1457325" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>○○○○さん</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="正方形/長方形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52A735AE-8A29-4EEF-AA66-FD3A0EFF2445}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5381626" y="4314825"/>
+          <a:ext cx="857250" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>○○</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>km</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>245023</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>32845</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>489717</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>177363</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="テキスト ボックス 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E427A09-B2DA-42A3-9F17-DDF4650E7834}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3095954" y="4085897"/>
+          <a:ext cx="244694" cy="144518"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>387241</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>33831</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>631935</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>178349</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="テキスト ボックス 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C025A242-67AB-40C4-BFDB-A326038197C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5070913" y="4086883"/>
+          <a:ext cx="244694" cy="144518"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>341586</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>105104</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>170793</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>131379</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="テキスト ボックス 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BC4D8B3-9A5D-4927-8522-5494619BBDDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10490638" y="2029811"/>
+          <a:ext cx="512379" cy="262758"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>週間</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>169547</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>105104</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>131379</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="テキスト ボックス 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{269A0638-3857-4E83-95D2-49BA54298131}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11001771" y="2029811"/>
+          <a:ext cx="513626" cy="262758"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>月間</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>105104</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>513782</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>131379</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="テキスト ボックス 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26E82148-9783-4A6A-84B9-D033AF057AD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11515397" y="2029811"/>
+          <a:ext cx="513782" cy="262758"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>年間</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>510546</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>105104</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>341156</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>131379</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="テキスト ボックス 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1393F282-3B6F-4091-894F-32225AFB0694}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12025943" y="2029811"/>
+          <a:ext cx="513782" cy="262758"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>累計</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>328448</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>182217</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>314739</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>183931</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="直線コネクタ 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C702F326-6DCB-40D4-9A48-72022C6E49F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10524339" y="2368826"/>
+          <a:ext cx="2048661" cy="1714"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>379342</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>111815</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>264931</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>149087</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="正方形/長方形 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BBA981A-9780-44E6-81D8-80705F006529}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11262690" y="2538619"/>
+          <a:ext cx="573045" cy="277468"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>○位</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266698</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>103532</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>323021</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>135175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="テキスト ボックス 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3790C96-3CD1-4CC0-95EB-EFBDE709C455}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10462589" y="2530336"/>
+          <a:ext cx="743780" cy="271839"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>あなたは</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>292374</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>111815</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>298172</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>157370</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="正方形/長方形 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C12F96B6-B60C-45B0-B17D-88982BF7348E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11863178" y="2538619"/>
+          <a:ext cx="693255" cy="285751"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>○○</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>km</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>314741</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>8283</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>149087</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="テキスト ボックス 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A1428A3-31E9-441B-86F1-B81BB0FCAD0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10510632" y="3031018"/>
+          <a:ext cx="380999" cy="265460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>位</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76441</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>140391</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>374375</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>140805</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="正方形/長方形 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC4EC579-9BD4-4476-AD5A-0CEB45C2724F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10959789" y="3047587"/>
+          <a:ext cx="985390" cy="240609"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>○○○○さん</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>369422</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>140391</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>262560</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>140805</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="正方形/長方形 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{785D0E3F-A139-4A46-A846-E203A67CDD33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11940226" y="3047587"/>
+          <a:ext cx="580595" cy="240609"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>○○</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>km</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>314741</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>181803</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>8283</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>207066</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="テキスト ボックス 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D258B2CA-EFD3-47F8-8CEB-336BEB9530F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10510632" y="3329194"/>
+          <a:ext cx="380999" cy="265459"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>位</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>73299</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>188842</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>371233</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>189255</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="正方形/長方形 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63FA6D5F-D2A6-4A9F-A479-B98C320BC2B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10956647" y="3336233"/>
+          <a:ext cx="985390" cy="240609"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>○○○○さん</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>366280</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>188842</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>259418</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>189255</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="正方形/長方形 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{548CB816-983B-4A8A-8D35-80C0AB7C1A24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11937084" y="3336233"/>
+          <a:ext cx="580595" cy="240609"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>○○</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>km</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>371473</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>14907</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>616167</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>41414</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="テキスト ボックス 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D10ADDB-3154-401D-93BF-19B15C704D26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10567364" y="3642690"/>
+          <a:ext cx="244694" cy="747094"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>321778</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>172276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>74543</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>197539</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="テキスト ボックス 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF812519-71E8-4731-996E-1002AAF50CE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10517669" y="4280450"/>
+          <a:ext cx="440222" cy="265459"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>位</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>80336</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>179315</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>378270</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>179728</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="正方形/長方形 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43A60BA7-E67F-418D-82CB-0D6D6AF2E847}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10963684" y="4287489"/>
+          <a:ext cx="985390" cy="240609"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>○○○○さん</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>373317</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>179315</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>266455</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>179728</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="正方形/長方形 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D9EBAE9-AC34-4880-9D9D-7A38F7BF99AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11944121" y="4287489"/>
+          <a:ext cx="580595" cy="240609"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>○○</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>km</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>244694</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>124239</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="テキスト ボックス 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A621651-0D74-4903-B284-45B6252D9B6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11570804" y="3627783"/>
+          <a:ext cx="244694" cy="604630"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11806,11 +16192,11 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B18" s="87" t="s">
+      <c r="B18" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11826,7 +16212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC35CED3-52FC-4A5F-A303-8234651674E4}">
   <dimension ref="A2:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -11916,40 +16302,40 @@
       <c r="Q6" s="46"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B7" s="104"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="117" t="s">
+      <c r="B7" s="93"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="117" t="s">
+      <c r="I7" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="117"/>
-      <c r="K7" s="118" t="s">
+      <c r="J7" s="103"/>
+      <c r="K7" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="106"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="105"/>
-      <c r="P7" s="105"/>
-      <c r="Q7" s="106"/>
+      <c r="L7" s="95"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="95"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B8" s="104"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="106"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="95"/>
       <c r="N8" s="7"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
@@ -12143,17 +16529,17 @@
       <c r="Q19" s="9"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B20" s="119"/>
-      <c r="C20" s="120"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="120"/>
-      <c r="I20" s="120"/>
-      <c r="J20" s="120"/>
-      <c r="K20" s="120"/>
-      <c r="L20" s="121"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="106"/>
+      <c r="K20" s="106"/>
+      <c r="L20" s="107"/>
       <c r="N20" s="7"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
@@ -12239,57 +16625,57 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="91" t="s">
+      <c r="G27" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="92"/>
-      <c r="I27" s="92"/>
-      <c r="J27" s="92"/>
-      <c r="K27" s="92"/>
-      <c r="L27" s="93"/>
+      <c r="H27" s="115"/>
+      <c r="I27" s="115"/>
+      <c r="J27" s="115"/>
+      <c r="K27" s="115"/>
+      <c r="L27" s="116"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="94" t="s">
+      <c r="B28" s="87" t="s">
         <v>115</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
-      <c r="G28" s="126" t="s">
+      <c r="G28" s="127" t="s">
         <v>143</v>
       </c>
-      <c r="H28" s="127"/>
-      <c r="I28" s="127"/>
-      <c r="J28" s="127"/>
-      <c r="K28" s="127"/>
-      <c r="L28" s="128"/>
+      <c r="H28" s="128"/>
+      <c r="I28" s="128"/>
+      <c r="J28" s="128"/>
+      <c r="K28" s="128"/>
+      <c r="L28" s="129"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="10"/>
-      <c r="C29" s="94"/>
-      <c r="D29" s="94"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="87"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="89"/>
-      <c r="I29" s="89"/>
-      <c r="J29" s="89"/>
-      <c r="K29" s="89"/>
-      <c r="L29" s="90"/>
+      <c r="G29" s="111"/>
+      <c r="H29" s="112"/>
+      <c r="I29" s="112"/>
+      <c r="J29" s="112"/>
+      <c r="K29" s="112"/>
+      <c r="L29" s="113"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="10"/>
-      <c r="C30" s="94"/>
-      <c r="D30" s="94"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="87"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="100"/>
-      <c r="H30" s="96"/>
-      <c r="I30" s="96"/>
-      <c r="J30" s="96"/>
-      <c r="K30" s="96"/>
-      <c r="L30" s="97"/>
+      <c r="G30" s="120"/>
+      <c r="H30" s="118"/>
+      <c r="I30" s="118"/>
+      <c r="J30" s="118"/>
+      <c r="K30" s="118"/>
+      <c r="L30" s="119"/>
     </row>
     <row r="31" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="10"/>
@@ -12297,12 +16683,12 @@
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
-      <c r="G31" s="95"/>
-      <c r="H31" s="96"/>
-      <c r="I31" s="96"/>
-      <c r="J31" s="96"/>
-      <c r="K31" s="96"/>
-      <c r="L31" s="97"/>
+      <c r="G31" s="117"/>
+      <c r="H31" s="118"/>
+      <c r="I31" s="118"/>
+      <c r="J31" s="118"/>
+      <c r="K31" s="118"/>
+      <c r="L31" s="119"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10"/>
@@ -12310,25 +16696,25 @@
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="95"/>
-      <c r="H32" s="96"/>
-      <c r="I32" s="96"/>
-      <c r="J32" s="96"/>
-      <c r="K32" s="96"/>
-      <c r="L32" s="97"/>
+      <c r="G32" s="117"/>
+      <c r="H32" s="118"/>
+      <c r="I32" s="118"/>
+      <c r="J32" s="118"/>
+      <c r="K32" s="118"/>
+      <c r="L32" s="119"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="129"/>
+      <c r="B33" s="109"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="95"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="96"/>
-      <c r="J33" s="96"/>
-      <c r="K33" s="96"/>
-      <c r="L33" s="97"/>
+      <c r="G33" s="117"/>
+      <c r="H33" s="118"/>
+      <c r="I33" s="118"/>
+      <c r="J33" s="118"/>
+      <c r="K33" s="118"/>
+      <c r="L33" s="119"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="10"/>
@@ -12336,12 +16722,12 @@
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="88"/>
-      <c r="H34" s="89"/>
-      <c r="I34" s="89"/>
-      <c r="J34" s="89"/>
-      <c r="K34" s="89"/>
-      <c r="L34" s="90"/>
+      <c r="G34" s="111"/>
+      <c r="H34" s="112"/>
+      <c r="I34" s="112"/>
+      <c r="J34" s="112"/>
+      <c r="K34" s="112"/>
+      <c r="L34" s="113"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="10"/>
@@ -12349,12 +16735,583 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="88"/>
-      <c r="H35" s="89"/>
-      <c r="I35" s="89"/>
-      <c r="J35" s="89"/>
-      <c r="K35" s="89"/>
-      <c r="L35" s="90"/>
+      <c r="G35" s="111"/>
+      <c r="H35" s="112"/>
+      <c r="I35" s="112"/>
+      <c r="J35" s="112"/>
+      <c r="K35" s="112"/>
+      <c r="L35" s="113"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="G33:L33"/>
+    <mergeCell ref="G34:L34"/>
+    <mergeCell ref="G35:L35"/>
+    <mergeCell ref="G27:L27"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="G32:L32"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A551D5C-A43C-448A-A146-DF81CB099841}">
+  <dimension ref="A2:T35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+    </row>
+    <row r="3" spans="1:20" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="20"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="44"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="23"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="45"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B6" s="24"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="26"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="46"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B7" s="93"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="103" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="103" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="103"/>
+      <c r="K7" s="104" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="95"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="95"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B8" s="93"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="95"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="9"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="9"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="9"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="9"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="9"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="9"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="9"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="9"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="9"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="9"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="9"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="9"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="9"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="9"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="9"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="9"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="9"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="9"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="9"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="9"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="9"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="9"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="9"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B20" s="105"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="106"/>
+      <c r="K20" s="106"/>
+      <c r="L20" s="107"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="9"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="29"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="9"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="14"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="9"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="17"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="49"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="N24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B27" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="114" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="115"/>
+      <c r="I27" s="115"/>
+      <c r="J27" s="115"/>
+      <c r="K27" s="115"/>
+      <c r="L27" s="116"/>
+    </row>
+    <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28" s="87" t="s">
+        <v>151</v>
+      </c>
+      <c r="D28" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="108"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="131" t="s">
+        <v>155</v>
+      </c>
+      <c r="H28" s="132"/>
+      <c r="I28" s="132"/>
+      <c r="J28" s="132"/>
+      <c r="K28" s="132"/>
+      <c r="L28" s="133"/>
+    </row>
+    <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C29" s="87"/>
+      <c r="D29" s="87" t="s">
+        <v>154</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="120" t="s">
+        <v>156</v>
+      </c>
+      <c r="H29" s="134"/>
+      <c r="I29" s="134"/>
+      <c r="J29" s="134"/>
+      <c r="K29" s="134"/>
+      <c r="L29" s="135"/>
+    </row>
+    <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="130" t="s">
+        <v>153</v>
+      </c>
+      <c r="C30" s="87"/>
+      <c r="D30" s="87" t="s">
+        <v>154</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="120" t="s">
+        <v>157</v>
+      </c>
+      <c r="H30" s="134"/>
+      <c r="I30" s="134"/>
+      <c r="J30" s="134"/>
+      <c r="K30" s="134"/>
+      <c r="L30" s="135"/>
+    </row>
+    <row r="31" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="87" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="127"/>
+      <c r="H31" s="128"/>
+      <c r="I31" s="128"/>
+      <c r="J31" s="128"/>
+      <c r="K31" s="128"/>
+      <c r="L31" s="129"/>
+    </row>
+    <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="117"/>
+      <c r="H32" s="118"/>
+      <c r="I32" s="118"/>
+      <c r="J32" s="118"/>
+      <c r="K32" s="118"/>
+      <c r="L32" s="119"/>
+    </row>
+    <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="109"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="117"/>
+      <c r="H33" s="118"/>
+      <c r="I33" s="118"/>
+      <c r="J33" s="118"/>
+      <c r="K33" s="118"/>
+      <c r="L33" s="119"/>
+    </row>
+    <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="111"/>
+      <c r="H34" s="112"/>
+      <c r="I34" s="112"/>
+      <c r="J34" s="112"/>
+      <c r="K34" s="112"/>
+      <c r="L34" s="113"/>
+    </row>
+    <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="111"/>
+      <c r="H35" s="112"/>
+      <c r="I35" s="112"/>
+      <c r="J35" s="112"/>
+      <c r="K35" s="112"/>
+      <c r="L35" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -15407,14 +20364,14 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="91" t="s">
+      <c r="G27" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="92"/>
-      <c r="I27" s="92"/>
-      <c r="J27" s="92"/>
-      <c r="K27" s="92"/>
-      <c r="L27" s="93"/>
+      <c r="H27" s="115"/>
+      <c r="I27" s="115"/>
+      <c r="J27" s="115"/>
+      <c r="K27" s="115"/>
+      <c r="L27" s="116"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="10"/>
@@ -15422,12 +20379,12 @@
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
-      <c r="G28" s="88"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="89"/>
-      <c r="J28" s="89"/>
-      <c r="K28" s="89"/>
-      <c r="L28" s="90"/>
+      <c r="G28" s="111"/>
+      <c r="H28" s="112"/>
+      <c r="I28" s="112"/>
+      <c r="J28" s="112"/>
+      <c r="K28" s="112"/>
+      <c r="L28" s="113"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="10"/>
@@ -15435,12 +20392,12 @@
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="89"/>
-      <c r="I29" s="89"/>
-      <c r="J29" s="89"/>
-      <c r="K29" s="89"/>
-      <c r="L29" s="90"/>
+      <c r="G29" s="111"/>
+      <c r="H29" s="112"/>
+      <c r="I29" s="112"/>
+      <c r="J29" s="112"/>
+      <c r="K29" s="112"/>
+      <c r="L29" s="113"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="10"/>
@@ -15448,12 +20405,12 @@
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="88"/>
-      <c r="H30" s="89"/>
-      <c r="I30" s="89"/>
-      <c r="J30" s="89"/>
-      <c r="K30" s="89"/>
-      <c r="L30" s="90"/>
+      <c r="G30" s="111"/>
+      <c r="H30" s="112"/>
+      <c r="I30" s="112"/>
+      <c r="J30" s="112"/>
+      <c r="K30" s="112"/>
+      <c r="L30" s="113"/>
     </row>
     <row r="31" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="10"/>
@@ -15461,12 +20418,12 @@
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
-      <c r="G31" s="88"/>
-      <c r="H31" s="89"/>
-      <c r="I31" s="89"/>
-      <c r="J31" s="89"/>
-      <c r="K31" s="89"/>
-      <c r="L31" s="90"/>
+      <c r="G31" s="111"/>
+      <c r="H31" s="112"/>
+      <c r="I31" s="112"/>
+      <c r="J31" s="112"/>
+      <c r="K31" s="112"/>
+      <c r="L31" s="113"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10"/>
@@ -15474,12 +20431,12 @@
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="88"/>
-      <c r="H32" s="89"/>
-      <c r="I32" s="89"/>
-      <c r="J32" s="89"/>
-      <c r="K32" s="89"/>
-      <c r="L32" s="90"/>
+      <c r="G32" s="111"/>
+      <c r="H32" s="112"/>
+      <c r="I32" s="112"/>
+      <c r="J32" s="112"/>
+      <c r="K32" s="112"/>
+      <c r="L32" s="113"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10"/>
@@ -15487,12 +20444,12 @@
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="88"/>
-      <c r="H33" s="89"/>
-      <c r="I33" s="89"/>
-      <c r="J33" s="89"/>
-      <c r="K33" s="89"/>
-      <c r="L33" s="90"/>
+      <c r="G33" s="111"/>
+      <c r="H33" s="112"/>
+      <c r="I33" s="112"/>
+      <c r="J33" s="112"/>
+      <c r="K33" s="112"/>
+      <c r="L33" s="113"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="10"/>
@@ -15500,12 +20457,12 @@
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="88"/>
-      <c r="H34" s="89"/>
-      <c r="I34" s="89"/>
-      <c r="J34" s="89"/>
-      <c r="K34" s="89"/>
-      <c r="L34" s="90"/>
+      <c r="G34" s="111"/>
+      <c r="H34" s="112"/>
+      <c r="I34" s="112"/>
+      <c r="J34" s="112"/>
+      <c r="K34" s="112"/>
+      <c r="L34" s="113"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="10"/>
@@ -15513,12 +20470,12 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="88"/>
-      <c r="H35" s="89"/>
-      <c r="I35" s="89"/>
-      <c r="J35" s="89"/>
-      <c r="K35" s="89"/>
-      <c r="L35" s="90"/>
+      <c r="G35" s="111"/>
+      <c r="H35" s="112"/>
+      <c r="I35" s="112"/>
+      <c r="J35" s="112"/>
+      <c r="K35" s="112"/>
+      <c r="L35" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -15542,7 +20499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83983B36-E9E5-461B-AC72-E51EAB1DA6DF}">
   <dimension ref="A2:T35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -15959,206 +20916,206 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="91" t="s">
+      <c r="G27" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="92"/>
-      <c r="I27" s="92"/>
-      <c r="J27" s="92"/>
-      <c r="K27" s="92"/>
-      <c r="L27" s="93"/>
+      <c r="H27" s="115"/>
+      <c r="I27" s="115"/>
+      <c r="J27" s="115"/>
+      <c r="K27" s="115"/>
+      <c r="L27" s="116"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="94" t="s">
+      <c r="B28" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="C28" s="94" t="s">
+      <c r="C28" s="87" t="s">
         <v>103</v>
       </c>
-      <c r="D28" s="94" t="s">
+      <c r="D28" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="E28" s="94" t="s">
+      <c r="E28" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="F28" s="94" t="s">
+      <c r="F28" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="G28" s="95" t="s">
+      <c r="G28" s="117" t="s">
         <v>106</v>
       </c>
-      <c r="H28" s="96"/>
-      <c r="I28" s="96"/>
-      <c r="J28" s="96"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="97"/>
+      <c r="H28" s="118"/>
+      <c r="I28" s="118"/>
+      <c r="J28" s="118"/>
+      <c r="K28" s="118"/>
+      <c r="L28" s="119"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="98" t="s">
+      <c r="B29" s="88" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="94" t="s">
+      <c r="C29" s="87" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="94" t="s">
+      <c r="D29" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="E29" s="94" t="s">
+      <c r="E29" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="F29" s="94" t="s">
+      <c r="F29" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="G29" s="95" t="s">
+      <c r="G29" s="117" t="s">
         <v>108</v>
       </c>
-      <c r="H29" s="96"/>
-      <c r="I29" s="96"/>
-      <c r="J29" s="96"/>
-      <c r="K29" s="96"/>
-      <c r="L29" s="97"/>
+      <c r="H29" s="118"/>
+      <c r="I29" s="118"/>
+      <c r="J29" s="118"/>
+      <c r="K29" s="118"/>
+      <c r="L29" s="119"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="99" t="s">
+      <c r="B30" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="94" t="s">
+      <c r="C30" s="87" t="s">
         <v>103</v>
       </c>
-      <c r="D30" s="94" t="s">
+      <c r="D30" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="E30" s="94" t="s">
+      <c r="E30" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="F30" s="94" t="s">
+      <c r="F30" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="G30" s="95" t="s">
+      <c r="G30" s="117" t="s">
         <v>106</v>
       </c>
-      <c r="H30" s="96"/>
-      <c r="I30" s="96"/>
-      <c r="J30" s="96"/>
-      <c r="K30" s="96"/>
-      <c r="L30" s="97"/>
+      <c r="H30" s="118"/>
+      <c r="I30" s="118"/>
+      <c r="J30" s="118"/>
+      <c r="K30" s="118"/>
+      <c r="L30" s="119"/>
     </row>
     <row r="31" spans="2:17" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="99" t="s">
+      <c r="B31" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="94" t="s">
+      <c r="C31" s="87" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="94" t="s">
+      <c r="D31" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="E31" s="94" t="s">
+      <c r="E31" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="F31" s="94" t="s">
+      <c r="F31" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="G31" s="100" t="s">
+      <c r="G31" s="120" t="s">
         <v>109</v>
       </c>
-      <c r="H31" s="96"/>
-      <c r="I31" s="96"/>
-      <c r="J31" s="96"/>
-      <c r="K31" s="96"/>
-      <c r="L31" s="97"/>
+      <c r="H31" s="118"/>
+      <c r="I31" s="118"/>
+      <c r="J31" s="118"/>
+      <c r="K31" s="118"/>
+      <c r="L31" s="119"/>
     </row>
     <row r="32" spans="2:17" ht="66" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="101" t="s">
+      <c r="B32" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="94" t="s">
+      <c r="C32" s="87" t="s">
         <v>103</v>
       </c>
-      <c r="D32" s="94" t="s">
+      <c r="D32" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="E32" s="94" t="s">
+      <c r="E32" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="F32" s="94" t="s">
+      <c r="F32" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="G32" s="100" t="s">
+      <c r="G32" s="120" t="s">
         <v>110</v>
       </c>
-      <c r="H32" s="96"/>
-      <c r="I32" s="96"/>
-      <c r="J32" s="96"/>
-      <c r="K32" s="96"/>
-      <c r="L32" s="97"/>
+      <c r="H32" s="118"/>
+      <c r="I32" s="118"/>
+      <c r="J32" s="118"/>
+      <c r="K32" s="118"/>
+      <c r="L32" s="119"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="102" t="s">
+      <c r="B33" s="91" t="s">
         <v>111</v>
       </c>
-      <c r="C33" s="94" t="s">
+      <c r="C33" s="87" t="s">
         <v>103</v>
       </c>
-      <c r="D33" s="94" t="s">
+      <c r="D33" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="E33" s="94" t="s">
+      <c r="E33" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="F33" s="94" t="s">
+      <c r="F33" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="G33" s="95" t="s">
+      <c r="G33" s="117" t="s">
         <v>112</v>
       </c>
-      <c r="H33" s="96"/>
-      <c r="I33" s="96"/>
-      <c r="J33" s="96"/>
-      <c r="K33" s="96"/>
-      <c r="L33" s="97"/>
+      <c r="H33" s="118"/>
+      <c r="I33" s="118"/>
+      <c r="J33" s="118"/>
+      <c r="K33" s="118"/>
+      <c r="L33" s="119"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="101" t="s">
+      <c r="B34" s="90" t="s">
         <v>113</v>
       </c>
-      <c r="C34" s="94" t="s">
+      <c r="C34" s="87" t="s">
         <v>103</v>
       </c>
-      <c r="D34" s="94" t="s">
+      <c r="D34" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="E34" s="94" t="s">
+      <c r="E34" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="F34" s="94" t="s">
+      <c r="F34" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="G34" s="95" t="s">
+      <c r="G34" s="117" t="s">
         <v>114</v>
       </c>
-      <c r="H34" s="96"/>
-      <c r="I34" s="96"/>
-      <c r="J34" s="96"/>
-      <c r="K34" s="96"/>
-      <c r="L34" s="97"/>
+      <c r="H34" s="118"/>
+      <c r="I34" s="118"/>
+      <c r="J34" s="118"/>
+      <c r="K34" s="118"/>
+      <c r="L34" s="119"/>
     </row>
     <row r="35" spans="2:12" ht="84" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="103" t="s">
+      <c r="B35" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="C35" s="94"/>
-      <c r="D35" s="94"/>
-      <c r="E35" s="94"/>
-      <c r="F35" s="94"/>
-      <c r="G35" s="100" t="s">
+      <c r="C35" s="87"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="120" t="s">
         <v>116</v>
       </c>
-      <c r="H35" s="96"/>
-      <c r="I35" s="96"/>
-      <c r="J35" s="96"/>
-      <c r="K35" s="96"/>
-      <c r="L35" s="97"/>
+      <c r="H35" s="118"/>
+      <c r="I35" s="118"/>
+      <c r="J35" s="118"/>
+      <c r="K35" s="118"/>
+      <c r="L35" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -16183,7 +21140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F3F749-E1C6-41BF-8F86-ADD8FDC495C6}">
   <dimension ref="A2:T35"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -16291,23 +21248,23 @@
         <v>18</v>
       </c>
       <c r="L7" s="32"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="105"/>
-      <c r="P7" s="105"/>
-      <c r="Q7" s="106"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="95"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B8" s="107"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="108"/>
-      <c r="J8" s="108"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="109"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="98"/>
       <c r="N8" s="7"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
@@ -16597,182 +21554,182 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="91" t="s">
+      <c r="G27" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="92"/>
-      <c r="I27" s="92"/>
-      <c r="J27" s="92"/>
-      <c r="K27" s="92"/>
-      <c r="L27" s="93"/>
+      <c r="H27" s="115"/>
+      <c r="I27" s="115"/>
+      <c r="J27" s="115"/>
+      <c r="K27" s="115"/>
+      <c r="L27" s="116"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="110" t="s">
+      <c r="B28" s="99" t="s">
         <v>119</v>
       </c>
-      <c r="C28" s="94" t="s">
+      <c r="C28" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="D28" s="94" t="s">
+      <c r="D28" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="E28" s="111" t="s">
+      <c r="E28" s="100" t="s">
         <v>121</v>
       </c>
-      <c r="F28" s="94">
+      <c r="F28" s="87">
         <v>256</v>
       </c>
-      <c r="G28" s="112" t="s">
+      <c r="G28" s="121" t="s">
         <v>122</v>
       </c>
-      <c r="H28" s="113"/>
-      <c r="I28" s="113"/>
-      <c r="J28" s="113"/>
-      <c r="K28" s="113"/>
-      <c r="L28" s="114"/>
+      <c r="H28" s="122"/>
+      <c r="I28" s="122"/>
+      <c r="J28" s="122"/>
+      <c r="K28" s="122"/>
+      <c r="L28" s="123"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="115" t="s">
+      <c r="B29" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="94" t="s">
+      <c r="C29" s="87" t="s">
         <v>124</v>
       </c>
-      <c r="D29" s="94" t="s">
+      <c r="D29" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="E29" s="94" t="s">
+      <c r="E29" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="F29" s="94">
+      <c r="F29" s="87">
         <v>16</v>
       </c>
-      <c r="G29" s="112" t="s">
+      <c r="G29" s="121" t="s">
         <v>126</v>
       </c>
-      <c r="H29" s="113"/>
-      <c r="I29" s="113"/>
-      <c r="J29" s="113"/>
-      <c r="K29" s="113"/>
-      <c r="L29" s="114"/>
+      <c r="H29" s="122"/>
+      <c r="I29" s="122"/>
+      <c r="J29" s="122"/>
+      <c r="K29" s="122"/>
+      <c r="L29" s="123"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="94" t="s">
+      <c r="B30" s="87" t="s">
         <v>127</v>
       </c>
-      <c r="C30" s="94" t="s">
+      <c r="C30" s="87" t="s">
         <v>128</v>
       </c>
-      <c r="D30" s="94" t="s">
+      <c r="D30" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="E30" s="94" t="s">
+      <c r="E30" s="87" t="s">
         <v>129</v>
       </c>
-      <c r="F30" s="94" t="s">
+      <c r="F30" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="G30" s="112" t="s">
+      <c r="G30" s="121" t="s">
         <v>126</v>
       </c>
-      <c r="H30" s="113"/>
-      <c r="I30" s="113"/>
-      <c r="J30" s="113"/>
-      <c r="K30" s="113"/>
-      <c r="L30" s="114"/>
+      <c r="H30" s="122"/>
+      <c r="I30" s="122"/>
+      <c r="J30" s="122"/>
+      <c r="K30" s="122"/>
+      <c r="L30" s="123"/>
     </row>
     <row r="31" spans="2:17" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="87" t="s">
         <v>130</v>
       </c>
-      <c r="C31" s="94" t="s">
+      <c r="C31" s="87" t="s">
         <v>131</v>
       </c>
-      <c r="D31" s="94" t="s">
+      <c r="D31" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="E31" s="94" t="s">
+      <c r="E31" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="F31" s="94" t="s">
+      <c r="F31" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="G31" s="100" t="s">
+      <c r="G31" s="120" t="s">
         <v>132</v>
       </c>
-      <c r="H31" s="96"/>
-      <c r="I31" s="96"/>
-      <c r="J31" s="96"/>
-      <c r="K31" s="96"/>
-      <c r="L31" s="97"/>
+      <c r="H31" s="118"/>
+      <c r="I31" s="118"/>
+      <c r="J31" s="118"/>
+      <c r="K31" s="118"/>
+      <c r="L31" s="119"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="116" t="s">
+      <c r="B32" s="102" t="s">
         <v>133</v>
       </c>
-      <c r="C32" s="94" t="s">
+      <c r="C32" s="87" t="s">
         <v>134</v>
       </c>
-      <c r="D32" s="94" t="s">
+      <c r="D32" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="E32" s="94" t="s">
+      <c r="E32" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="F32" s="94" t="s">
+      <c r="F32" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="G32" s="95" t="s">
+      <c r="G32" s="117" t="s">
         <v>135</v>
       </c>
-      <c r="H32" s="96"/>
-      <c r="I32" s="96"/>
-      <c r="J32" s="96"/>
-      <c r="K32" s="96"/>
-      <c r="L32" s="97"/>
+      <c r="H32" s="118"/>
+      <c r="I32" s="118"/>
+      <c r="J32" s="118"/>
+      <c r="K32" s="118"/>
+      <c r="L32" s="119"/>
     </row>
     <row r="33" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="116" t="s">
+      <c r="B33" s="102" t="s">
         <v>115</v>
       </c>
-      <c r="C33" s="94"/>
-      <c r="D33" s="94"/>
-      <c r="E33" s="94"/>
-      <c r="F33" s="94"/>
-      <c r="G33" s="100" t="s">
+      <c r="C33" s="87"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="120" t="s">
         <v>136</v>
       </c>
-      <c r="H33" s="96"/>
-      <c r="I33" s="96"/>
-      <c r="J33" s="96"/>
-      <c r="K33" s="96"/>
-      <c r="L33" s="97"/>
+      <c r="H33" s="118"/>
+      <c r="I33" s="118"/>
+      <c r="J33" s="118"/>
+      <c r="K33" s="118"/>
+      <c r="L33" s="119"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="101"/>
-      <c r="C34" s="94"/>
-      <c r="D34" s="94"/>
-      <c r="E34" s="94"/>
-      <c r="F34" s="94"/>
-      <c r="G34" s="95"/>
-      <c r="H34" s="96"/>
-      <c r="I34" s="96"/>
-      <c r="J34" s="96"/>
-      <c r="K34" s="96"/>
-      <c r="L34" s="97"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="117"/>
+      <c r="H34" s="118"/>
+      <c r="I34" s="118"/>
+      <c r="J34" s="118"/>
+      <c r="K34" s="118"/>
+      <c r="L34" s="119"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="103"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="94"/>
-      <c r="E35" s="94"/>
-      <c r="F35" s="94"/>
-      <c r="G35" s="95"/>
-      <c r="H35" s="96"/>
-      <c r="I35" s="96"/>
-      <c r="J35" s="96"/>
-      <c r="K35" s="96"/>
-      <c r="L35" s="97"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="117"/>
+      <c r="H35" s="118"/>
+      <c r="I35" s="118"/>
+      <c r="J35" s="118"/>
+      <c r="K35" s="118"/>
+      <c r="L35" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -16797,7 +21754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8296C91-7C64-45B0-B633-C4FF8B984C1F}">
   <dimension ref="A2:T35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
@@ -16887,40 +21844,40 @@
       <c r="Q6" s="46"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B7" s="104"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="117" t="s">
+      <c r="B7" s="93"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="117" t="s">
+      <c r="I7" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="117"/>
-      <c r="K7" s="118" t="s">
+      <c r="J7" s="103"/>
+      <c r="K7" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="106"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="105"/>
-      <c r="P7" s="105"/>
-      <c r="Q7" s="106"/>
+      <c r="L7" s="95"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="95"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B8" s="104"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="106"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="95"/>
       <c r="N8" s="7"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
@@ -17114,17 +22071,17 @@
       <c r="Q19" s="9"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B20" s="119"/>
-      <c r="C20" s="120"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="120"/>
-      <c r="I20" s="120"/>
-      <c r="J20" s="120"/>
-      <c r="K20" s="120"/>
-      <c r="L20" s="121"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="106"/>
+      <c r="K20" s="106"/>
+      <c r="L20" s="107"/>
       <c r="N20" s="7"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
@@ -17210,48 +22167,48 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="91" t="s">
+      <c r="G27" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="92"/>
-      <c r="I27" s="92"/>
-      <c r="J27" s="92"/>
-      <c r="K27" s="92"/>
-      <c r="L27" s="93"/>
+      <c r="H27" s="115"/>
+      <c r="I27" s="115"/>
+      <c r="J27" s="115"/>
+      <c r="K27" s="115"/>
+      <c r="L27" s="116"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="C28" s="94" t="s">
+      <c r="C28" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="D28" s="94" t="s">
+      <c r="D28" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="E28" s="122" t="s">
+      <c r="E28" s="108" t="s">
         <v>121</v>
       </c>
       <c r="F28" s="10">
         <v>256</v>
       </c>
-      <c r="G28" s="123" t="s">
+      <c r="G28" s="124" t="s">
         <v>122</v>
       </c>
-      <c r="H28" s="124"/>
-      <c r="I28" s="124"/>
-      <c r="J28" s="124"/>
-      <c r="K28" s="124"/>
-      <c r="L28" s="125"/>
+      <c r="H28" s="125"/>
+      <c r="I28" s="125"/>
+      <c r="J28" s="125"/>
+      <c r="K28" s="125"/>
+      <c r="L28" s="126"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="94" t="s">
+      <c r="C29" s="87" t="s">
         <v>124</v>
       </c>
-      <c r="D29" s="94" t="s">
+      <c r="D29" s="87" t="s">
         <v>104</v>
       </c>
       <c r="E29" s="10" t="s">
@@ -17260,52 +22217,52 @@
       <c r="F29" s="10">
         <v>16</v>
       </c>
-      <c r="G29" s="95" t="s">
+      <c r="G29" s="117" t="s">
         <v>140</v>
       </c>
-      <c r="H29" s="96"/>
-      <c r="I29" s="96"/>
-      <c r="J29" s="96"/>
-      <c r="K29" s="96"/>
-      <c r="L29" s="97"/>
+      <c r="H29" s="118"/>
+      <c r="I29" s="118"/>
+      <c r="J29" s="118"/>
+      <c r="K29" s="118"/>
+      <c r="L29" s="119"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="C30" s="94" t="s">
+      <c r="C30" s="87" t="s">
         <v>134</v>
       </c>
-      <c r="D30" s="94" t="s">
+      <c r="D30" s="87" t="s">
         <v>104</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="100" t="s">
+      <c r="G30" s="120" t="s">
         <v>142</v>
       </c>
-      <c r="H30" s="96"/>
-      <c r="I30" s="96"/>
-      <c r="J30" s="96"/>
-      <c r="K30" s="96"/>
-      <c r="L30" s="97"/>
+      <c r="H30" s="118"/>
+      <c r="I30" s="118"/>
+      <c r="J30" s="118"/>
+      <c r="K30" s="118"/>
+      <c r="L30" s="119"/>
     </row>
     <row r="31" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="87" t="s">
         <v>115</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
-      <c r="G31" s="126" t="s">
+      <c r="G31" s="127" t="s">
         <v>143</v>
       </c>
-      <c r="H31" s="127"/>
-      <c r="I31" s="127"/>
-      <c r="J31" s="127"/>
-      <c r="K31" s="127"/>
-      <c r="L31" s="128"/>
+      <c r="H31" s="128"/>
+      <c r="I31" s="128"/>
+      <c r="J31" s="128"/>
+      <c r="K31" s="128"/>
+      <c r="L31" s="129"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10"/>
@@ -17313,25 +22270,25 @@
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="95"/>
-      <c r="H32" s="96"/>
-      <c r="I32" s="96"/>
-      <c r="J32" s="96"/>
-      <c r="K32" s="96"/>
-      <c r="L32" s="97"/>
+      <c r="G32" s="117"/>
+      <c r="H32" s="118"/>
+      <c r="I32" s="118"/>
+      <c r="J32" s="118"/>
+      <c r="K32" s="118"/>
+      <c r="L32" s="119"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="129"/>
+      <c r="B33" s="109"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="95"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="96"/>
-      <c r="J33" s="96"/>
-      <c r="K33" s="96"/>
-      <c r="L33" s="97"/>
+      <c r="G33" s="117"/>
+      <c r="H33" s="118"/>
+      <c r="I33" s="118"/>
+      <c r="J33" s="118"/>
+      <c r="K33" s="118"/>
+      <c r="L33" s="119"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="10"/>
@@ -17339,12 +22296,12 @@
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="88"/>
-      <c r="H34" s="89"/>
-      <c r="I34" s="89"/>
-      <c r="J34" s="89"/>
-      <c r="K34" s="89"/>
-      <c r="L34" s="90"/>
+      <c r="G34" s="111"/>
+      <c r="H34" s="112"/>
+      <c r="I34" s="112"/>
+      <c r="J34" s="112"/>
+      <c r="K34" s="112"/>
+      <c r="L34" s="113"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="10"/>
@@ -17352,12 +22309,12 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="88"/>
-      <c r="H35" s="89"/>
-      <c r="I35" s="89"/>
-      <c r="J35" s="89"/>
-      <c r="K35" s="89"/>
-      <c r="L35" s="90"/>
+      <c r="G35" s="111"/>
+      <c r="H35" s="112"/>
+      <c r="I35" s="112"/>
+      <c r="J35" s="112"/>
+      <c r="K35" s="112"/>
+      <c r="L35" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -17382,7 +22339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27844C8A-CFF6-4EAF-BE84-43371C3F2C3A}">
   <dimension ref="A2:T35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -17472,40 +22429,40 @@
       <c r="Q6" s="46"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B7" s="104"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="117" t="s">
+      <c r="B7" s="93"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="117" t="s">
+      <c r="I7" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="117"/>
-      <c r="K7" s="118" t="s">
+      <c r="J7" s="103"/>
+      <c r="K7" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="106"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="105"/>
-      <c r="P7" s="105"/>
-      <c r="Q7" s="106"/>
+      <c r="L7" s="95"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="95"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B8" s="104"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="106"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="95"/>
       <c r="N8" s="7"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
@@ -17699,17 +22656,17 @@
       <c r="Q19" s="9"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B20" s="119"/>
-      <c r="C20" s="120"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="120"/>
-      <c r="I20" s="120"/>
-      <c r="J20" s="120"/>
-      <c r="K20" s="120"/>
-      <c r="L20" s="121"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="106"/>
+      <c r="K20" s="106"/>
+      <c r="L20" s="107"/>
       <c r="N20" s="7"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
@@ -17795,57 +22752,57 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="91" t="s">
+      <c r="G27" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="92"/>
-      <c r="I27" s="92"/>
-      <c r="J27" s="92"/>
-      <c r="K27" s="92"/>
-      <c r="L27" s="93"/>
+      <c r="H27" s="115"/>
+      <c r="I27" s="115"/>
+      <c r="J27" s="115"/>
+      <c r="K27" s="115"/>
+      <c r="L27" s="116"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="94" t="s">
+      <c r="B28" s="87" t="s">
         <v>115</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
-      <c r="G28" s="126" t="s">
+      <c r="G28" s="127" t="s">
         <v>143</v>
       </c>
-      <c r="H28" s="127"/>
-      <c r="I28" s="127"/>
-      <c r="J28" s="127"/>
-      <c r="K28" s="127"/>
-      <c r="L28" s="128"/>
+      <c r="H28" s="128"/>
+      <c r="I28" s="128"/>
+      <c r="J28" s="128"/>
+      <c r="K28" s="128"/>
+      <c r="L28" s="129"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="10"/>
-      <c r="C29" s="94"/>
-      <c r="D29" s="94"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="87"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="89"/>
-      <c r="I29" s="89"/>
-      <c r="J29" s="89"/>
-      <c r="K29" s="89"/>
-      <c r="L29" s="90"/>
+      <c r="G29" s="111"/>
+      <c r="H29" s="112"/>
+      <c r="I29" s="112"/>
+      <c r="J29" s="112"/>
+      <c r="K29" s="112"/>
+      <c r="L29" s="113"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="10"/>
-      <c r="C30" s="94"/>
-      <c r="D30" s="94"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="87"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="100"/>
-      <c r="H30" s="96"/>
-      <c r="I30" s="96"/>
-      <c r="J30" s="96"/>
-      <c r="K30" s="96"/>
-      <c r="L30" s="97"/>
+      <c r="G30" s="120"/>
+      <c r="H30" s="118"/>
+      <c r="I30" s="118"/>
+      <c r="J30" s="118"/>
+      <c r="K30" s="118"/>
+      <c r="L30" s="119"/>
     </row>
     <row r="31" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="10"/>
@@ -17853,12 +22810,12 @@
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
-      <c r="G31" s="95"/>
-      <c r="H31" s="96"/>
-      <c r="I31" s="96"/>
-      <c r="J31" s="96"/>
-      <c r="K31" s="96"/>
-      <c r="L31" s="97"/>
+      <c r="G31" s="117"/>
+      <c r="H31" s="118"/>
+      <c r="I31" s="118"/>
+      <c r="J31" s="118"/>
+      <c r="K31" s="118"/>
+      <c r="L31" s="119"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10"/>
@@ -17866,25 +22823,25 @@
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="95"/>
-      <c r="H32" s="96"/>
-      <c r="I32" s="96"/>
-      <c r="J32" s="96"/>
-      <c r="K32" s="96"/>
-      <c r="L32" s="97"/>
+      <c r="G32" s="117"/>
+      <c r="H32" s="118"/>
+      <c r="I32" s="118"/>
+      <c r="J32" s="118"/>
+      <c r="K32" s="118"/>
+      <c r="L32" s="119"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="129"/>
+      <c r="B33" s="109"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="95"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="96"/>
-      <c r="J33" s="96"/>
-      <c r="K33" s="96"/>
-      <c r="L33" s="97"/>
+      <c r="G33" s="117"/>
+      <c r="H33" s="118"/>
+      <c r="I33" s="118"/>
+      <c r="J33" s="118"/>
+      <c r="K33" s="118"/>
+      <c r="L33" s="119"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="10"/>
@@ -17892,12 +22849,12 @@
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="88"/>
-      <c r="H34" s="89"/>
-      <c r="I34" s="89"/>
-      <c r="J34" s="89"/>
-      <c r="K34" s="89"/>
-      <c r="L34" s="90"/>
+      <c r="G34" s="111"/>
+      <c r="H34" s="112"/>
+      <c r="I34" s="112"/>
+      <c r="J34" s="112"/>
+      <c r="K34" s="112"/>
+      <c r="L34" s="113"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="10"/>
@@ -17905,12 +22862,12 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="88"/>
-      <c r="H35" s="89"/>
-      <c r="I35" s="89"/>
-      <c r="J35" s="89"/>
-      <c r="K35" s="89"/>
-      <c r="L35" s="90"/>
+      <c r="G35" s="111"/>
+      <c r="H35" s="112"/>
+      <c r="I35" s="112"/>
+      <c r="J35" s="112"/>
+      <c r="K35" s="112"/>
+      <c r="L35" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/提出物/詳細設計書.xlsx
+++ b/提出物/詳細設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\GUYS\提出物\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FC25FE-9936-4790-9378-65F9D089B7D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A86DDC-2E09-4599-B119-D50EC22C6074}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" tabRatio="820" firstSheet="1" activeTab="6" xr2:uid="{D1900441-24B9-4624-8A47-94F74F569874}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" tabRatio="820" firstSheet="11" activeTab="18" xr2:uid="{D1900441-24B9-4624-8A47-94F74F569874}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -36,10 +36,6 @@
     <sheet name="Sheet1" sheetId="29" r:id="rId21"/>
     <sheet name="テンプレ" sheetId="1" r:id="rId22"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId23"/>
-    <externalReference r:id="rId24"/>
-  </externalReferences>
   <definedNames>
     <definedName name="a" localSheetId="12">#REF!</definedName>
     <definedName name="a" localSheetId="19">#REF!</definedName>
@@ -270,7 +266,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="295">
   <si>
     <t>関係者外秘</t>
     <rPh sb="0" eb="3">
@@ -2569,6 +2565,22 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>ショップページ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>shop.php</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カスタムページ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>custom.php</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -3422,92 +3434,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -3536,28 +3467,7 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3577,15 +3487,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3629,6 +3530,33 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3639,10 +3567,94 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -20618,13 +20630,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>848968</xdr:colOff>
+      <xdr:colOff>847063</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -20641,8 +20653,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2555185" y="1810992"/>
-          <a:ext cx="2141054" cy="375617"/>
+          <a:off x="2559322" y="1783080"/>
+          <a:ext cx="2290584" cy="359485"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -41927,62 +41939,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="表紙"/>
-      <sheetName val="トップページ"/>
-      <sheetName val="ログインページ"/>
-      <sheetName val="運営会社ページ"/>
-      <sheetName val="プライバシーポリシーページ"/>
-      <sheetName val="アカウント設定ページ"/>
-      <sheetName val="管理者ページ"/>
-      <sheetName val="ランク"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="表紙"/>
-      <sheetName val="トップページ"/>
-      <sheetName val="アカウント作成"/>
-      <sheetName val="メールアドレス変更"/>
-      <sheetName val="パスワード変更"/>
-      <sheetName val="プロフィール情報変更"/>
-      <sheetName val="アカウント削除"/>
-      <sheetName val="マイページ"/>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -42572,11 +42528,11 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B18" s="104" t="s">
+      <c r="B18" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="104"/>
-      <c r="D18" s="104"/>
+      <c r="C18" s="137"/>
+      <c r="D18" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -42753,14 +42709,14 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B11" s="7"/>
-      <c r="C11" s="134"/>
-      <c r="D11" s="134"/>
-      <c r="E11" s="134"/>
-      <c r="F11" s="135"/>
-      <c r="G11" s="135"/>
-      <c r="H11" s="136"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="109"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="134"/>
+      <c r="J11" s="107"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9"/>
       <c r="N11" s="7"/>
@@ -42770,25 +42726,25 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B12" s="7"/>
-      <c r="C12" s="137" t="s">
+      <c r="C12" s="110" t="s">
         <v>166</v>
       </c>
-      <c r="D12" s="138" t="s">
+      <c r="D12" s="111" t="s">
         <v>167</v>
       </c>
-      <c r="E12" s="137" t="s">
+      <c r="E12" s="110" t="s">
         <v>168</v>
       </c>
-      <c r="F12" s="139" t="s">
+      <c r="F12" s="112" t="s">
         <v>169</v>
       </c>
-      <c r="G12" s="140" t="s">
+      <c r="G12" s="113" t="s">
         <v>170</v>
       </c>
-      <c r="H12" s="140" t="s">
+      <c r="H12" s="113" t="s">
         <v>171</v>
       </c>
-      <c r="I12" s="141" t="s">
+      <c r="I12" s="114" t="s">
         <v>172</v>
       </c>
       <c r="J12" s="8"/>
@@ -42801,25 +42757,25 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B13" s="7"/>
-      <c r="C13" s="142">
+      <c r="C13" s="164">
         <v>1</v>
       </c>
-      <c r="D13" s="142" t="s">
+      <c r="D13" s="164" t="s">
         <v>173</v>
       </c>
-      <c r="E13" s="143" t="s">
+      <c r="E13" s="157" t="s">
         <v>174</v>
       </c>
-      <c r="F13" s="144" t="s">
+      <c r="F13" s="167" t="s">
         <v>175</v>
       </c>
-      <c r="G13" s="143" t="s">
+      <c r="G13" s="157" t="s">
         <v>101</v>
       </c>
-      <c r="H13" s="143" t="s">
+      <c r="H13" s="157" t="s">
         <v>101</v>
       </c>
-      <c r="I13" s="143" t="s">
+      <c r="I13" s="157" t="s">
         <v>101</v>
       </c>
       <c r="J13" s="8"/>
@@ -42832,16 +42788,16 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B14" s="7"/>
-      <c r="C14" s="142"/>
-      <c r="D14" s="142"/>
-      <c r="E14" s="145"/>
-      <c r="F14" s="146"/>
-      <c r="G14" s="145"/>
-      <c r="H14" s="145"/>
-      <c r="I14" s="145"/>
+      <c r="C14" s="164"/>
+      <c r="D14" s="164"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="168"/>
+      <c r="G14" s="158"/>
+      <c r="H14" s="158"/>
+      <c r="I14" s="158"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
-      <c r="L14" s="147"/>
+      <c r="L14" s="115"/>
       <c r="N14" s="7"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
@@ -42849,25 +42805,25 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B15" s="7"/>
-      <c r="C15" s="142">
+      <c r="C15" s="164">
         <v>2</v>
       </c>
-      <c r="D15" s="143" t="s">
+      <c r="D15" s="157" t="s">
         <v>176</v>
       </c>
-      <c r="E15" s="143" t="s">
+      <c r="E15" s="157" t="s">
         <v>174</v>
       </c>
-      <c r="F15" s="148" t="s">
+      <c r="F15" s="165" t="s">
         <v>177</v>
       </c>
-      <c r="G15" s="143" t="s">
+      <c r="G15" s="157" t="s">
         <v>101</v>
       </c>
-      <c r="H15" s="143" t="s">
+      <c r="H15" s="157" t="s">
         <v>101</v>
       </c>
-      <c r="I15" s="143" t="s">
+      <c r="I15" s="157" t="s">
         <v>101</v>
       </c>
       <c r="J15" s="8"/>
@@ -42880,13 +42836,13 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B16" s="7"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="145"/>
-      <c r="E16" s="145"/>
-      <c r="F16" s="149"/>
-      <c r="G16" s="145"/>
-      <c r="H16" s="145"/>
-      <c r="I16" s="145"/>
+      <c r="C16" s="164"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="166"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9"/>
@@ -42897,25 +42853,25 @@
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B17" s="7"/>
-      <c r="C17" s="142">
+      <c r="C17" s="164">
         <v>3</v>
       </c>
-      <c r="D17" s="143" t="s">
+      <c r="D17" s="157" t="s">
         <v>178</v>
       </c>
-      <c r="E17" s="143" t="s">
+      <c r="E17" s="157" t="s">
         <v>174</v>
       </c>
-      <c r="F17" s="148" t="s">
+      <c r="F17" s="165" t="s">
         <v>179</v>
       </c>
-      <c r="G17" s="143" t="s">
+      <c r="G17" s="157" t="s">
         <v>101</v>
       </c>
-      <c r="H17" s="143" t="s">
+      <c r="H17" s="157" t="s">
         <v>101</v>
       </c>
-      <c r="I17" s="143" t="s">
+      <c r="I17" s="157" t="s">
         <v>101</v>
       </c>
       <c r="J17" s="8"/>
@@ -42928,26 +42884,26 @@
     </row>
     <row r="18" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="7"/>
-      <c r="C18" s="142"/>
-      <c r="D18" s="145"/>
-      <c r="E18" s="145"/>
-      <c r="F18" s="149"/>
-      <c r="G18" s="145"/>
-      <c r="H18" s="145"/>
-      <c r="I18" s="145"/>
-      <c r="J18" s="134"/>
+      <c r="C18" s="164"/>
+      <c r="D18" s="158"/>
+      <c r="E18" s="158"/>
+      <c r="F18" s="166"/>
+      <c r="G18" s="158"/>
+      <c r="H18" s="158"/>
+      <c r="I18" s="158"/>
+      <c r="J18" s="107"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9"/>
       <c r="N18" s="7"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
       <c r="Q18" s="9"/>
-      <c r="T18" s="134"/>
-      <c r="U18" s="134"/>
-      <c r="V18" s="134"/>
-      <c r="W18" s="135"/>
-      <c r="X18" s="135"/>
-      <c r="Y18" s="136"/>
+      <c r="T18" s="107"/>
+      <c r="U18" s="107"/>
+      <c r="V18" s="107"/>
+      <c r="W18" s="108"/>
+      <c r="X18" s="108"/>
+      <c r="Y18" s="109"/>
     </row>
     <row r="19" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="7"/>
@@ -42965,11 +42921,11 @@
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
       <c r="Q19" s="9"/>
-      <c r="T19" s="150"/>
-      <c r="U19" s="134"/>
-      <c r="V19" s="151"/>
-      <c r="W19" s="135"/>
-      <c r="X19" s="135"/>
+      <c r="T19" s="116"/>
+      <c r="U19" s="107"/>
+      <c r="V19" s="117"/>
+      <c r="W19" s="108"/>
+      <c r="X19" s="108"/>
       <c r="Y19" s="8"/>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.4">
@@ -42989,8 +42945,8 @@
       <c r="P20" s="8"/>
       <c r="Q20" s="9"/>
       <c r="T20" s="8"/>
-      <c r="U20" s="134"/>
-      <c r="V20" s="152"/>
+      <c r="U20" s="107"/>
+      <c r="V20" s="118"/>
       <c r="W20" s="8"/>
       <c r="X20" s="8"/>
       <c r="Y20" s="8"/>
@@ -43012,8 +42968,8 @@
       <c r="P21" s="8"/>
       <c r="Q21" s="9"/>
       <c r="T21" s="8"/>
-      <c r="U21" s="134"/>
-      <c r="V21" s="152"/>
+      <c r="U21" s="107"/>
+      <c r="V21" s="118"/>
       <c r="W21" s="8"/>
       <c r="X21" s="8"/>
       <c r="Y21" s="8"/>
@@ -43058,8 +43014,8 @@
       <c r="P23" s="48"/>
       <c r="Q23" s="49"/>
       <c r="T23" s="8"/>
-      <c r="U23" s="134"/>
-      <c r="V23" s="152"/>
+      <c r="U23" s="107"/>
+      <c r="V23" s="118"/>
       <c r="W23" s="8"/>
       <c r="X23" s="8"/>
       <c r="Y23" s="8"/>
@@ -43075,7 +43031,7 @@
       <c r="U24" s="8"/>
       <c r="V24" s="8"/>
       <c r="W24" s="8"/>
-      <c r="X24" s="153"/>
+      <c r="X24" s="119"/>
       <c r="Y24" s="8"/>
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.4">
@@ -43107,17 +43063,17 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="108" t="s">
+      <c r="G27" s="142" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="109"/>
-      <c r="I27" s="109"/>
-      <c r="J27" s="109"/>
-      <c r="K27" s="109"/>
-      <c r="L27" s="110"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="143"/>
+      <c r="K27" s="143"/>
+      <c r="L27" s="144"/>
     </row>
     <row r="28" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="154" t="s">
+      <c r="B28" s="120" t="s">
         <v>180</v>
       </c>
       <c r="C28" s="87" t="s">
@@ -43132,17 +43088,17 @@
       <c r="F28" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G28" s="114" t="s">
+      <c r="G28" s="159" t="s">
         <v>181</v>
       </c>
-      <c r="H28" s="121"/>
-      <c r="I28" s="121"/>
-      <c r="J28" s="121"/>
-      <c r="K28" s="121"/>
-      <c r="L28" s="122"/>
+      <c r="H28" s="155"/>
+      <c r="I28" s="155"/>
+      <c r="J28" s="155"/>
+      <c r="K28" s="155"/>
+      <c r="L28" s="156"/>
     </row>
     <row r="29" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="155" t="s">
+      <c r="B29" s="121" t="s">
         <v>182</v>
       </c>
       <c r="C29" s="87" t="s">
@@ -43157,14 +43113,14 @@
       <c r="F29" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G29" s="132" t="s">
+      <c r="G29" s="160" t="s">
         <v>183</v>
       </c>
-      <c r="H29" s="121"/>
-      <c r="I29" s="121"/>
-      <c r="J29" s="121"/>
-      <c r="K29" s="121"/>
-      <c r="L29" s="122"/>
+      <c r="H29" s="155"/>
+      <c r="I29" s="155"/>
+      <c r="J29" s="155"/>
+      <c r="K29" s="155"/>
+      <c r="L29" s="156"/>
     </row>
     <row r="30" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="91" t="s">
@@ -43182,14 +43138,14 @@
       <c r="F30" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G30" s="156" t="s">
+      <c r="G30" s="161" t="s">
         <v>184</v>
       </c>
-      <c r="H30" s="157"/>
-      <c r="I30" s="157"/>
-      <c r="J30" s="157"/>
-      <c r="K30" s="157"/>
-      <c r="L30" s="158"/>
+      <c r="H30" s="162"/>
+      <c r="I30" s="162"/>
+      <c r="J30" s="162"/>
+      <c r="K30" s="162"/>
+      <c r="L30" s="163"/>
     </row>
     <row r="31" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="87" t="s">
@@ -43207,14 +43163,14 @@
       <c r="F31" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G31" s="120" t="s">
+      <c r="G31" s="154" t="s">
         <v>149</v>
       </c>
-      <c r="H31" s="121"/>
-      <c r="I31" s="121"/>
-      <c r="J31" s="121"/>
-      <c r="K31" s="121"/>
-      <c r="L31" s="122"/>
+      <c r="H31" s="155"/>
+      <c r="I31" s="155"/>
+      <c r="J31" s="155"/>
+      <c r="K31" s="155"/>
+      <c r="L31" s="156"/>
     </row>
     <row r="32" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="87"/>
@@ -43222,12 +43178,12 @@
       <c r="D32" s="87"/>
       <c r="E32" s="87"/>
       <c r="F32" s="87"/>
-      <c r="G32" s="120"/>
-      <c r="H32" s="121"/>
-      <c r="I32" s="121"/>
-      <c r="J32" s="121"/>
-      <c r="K32" s="121"/>
-      <c r="L32" s="122"/>
+      <c r="G32" s="154"/>
+      <c r="H32" s="155"/>
+      <c r="I32" s="155"/>
+      <c r="J32" s="155"/>
+      <c r="K32" s="155"/>
+      <c r="L32" s="156"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="98"/>
@@ -43235,12 +43191,12 @@
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="111"/>
-      <c r="H33" s="112"/>
-      <c r="I33" s="112"/>
-      <c r="J33" s="112"/>
-      <c r="K33" s="112"/>
-      <c r="L33" s="113"/>
+      <c r="G33" s="138"/>
+      <c r="H33" s="139"/>
+      <c r="I33" s="139"/>
+      <c r="J33" s="139"/>
+      <c r="K33" s="139"/>
+      <c r="L33" s="140"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="10"/>
@@ -43248,12 +43204,12 @@
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="106"/>
-      <c r="I34" s="106"/>
-      <c r="J34" s="106"/>
-      <c r="K34" s="106"/>
-      <c r="L34" s="107"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="150"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="10"/>
@@ -43261,31 +43217,15 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="106"/>
-      <c r="I35" s="106"/>
-      <c r="J35" s="106"/>
-      <c r="K35" s="106"/>
-      <c r="L35" s="107"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="150"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="G32:L32"/>
-    <mergeCell ref="G33:L33"/>
-    <mergeCell ref="G34:L34"/>
-    <mergeCell ref="G35:L35"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="G27:L27"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="G29:L29"/>
-    <mergeCell ref="G30:L30"/>
-    <mergeCell ref="G31:L31"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:D16"/>
@@ -43300,6 +43240,22 @@
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H13:H14"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G32:L32"/>
+    <mergeCell ref="G33:L33"/>
+    <mergeCell ref="G34:L34"/>
+    <mergeCell ref="G35:L35"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="G27:L27"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="H17:H18"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43426,17 +43382,17 @@
       <c r="Q7" s="90"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B8" s="168"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="169"/>
-      <c r="H8" s="169"/>
-      <c r="I8" s="169"/>
-      <c r="J8" s="169"/>
-      <c r="K8" s="169"/>
-      <c r="L8" s="170"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="132"/>
+      <c r="K8" s="132"/>
+      <c r="L8" s="133"/>
       <c r="N8" s="7"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
@@ -43726,17 +43682,17 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="108" t="s">
+      <c r="G27" s="142" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="109"/>
-      <c r="I27" s="109"/>
-      <c r="J27" s="109"/>
-      <c r="K27" s="109"/>
-      <c r="L27" s="110"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="143"/>
+      <c r="K27" s="143"/>
+      <c r="L27" s="144"/>
     </row>
     <row r="28" spans="2:17" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="171" t="s">
+      <c r="B28" s="134" t="s">
         <v>265</v>
       </c>
       <c r="C28" s="87" t="s">
@@ -43745,20 +43701,20 @@
       <c r="D28" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="E28" s="172" t="s">
+      <c r="E28" s="135" t="s">
         <v>101</v>
       </c>
       <c r="F28" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G28" s="173" t="s">
+      <c r="G28" s="145" t="s">
         <v>236</v>
       </c>
-      <c r="H28" s="174"/>
-      <c r="I28" s="174"/>
-      <c r="J28" s="174"/>
-      <c r="K28" s="174"/>
-      <c r="L28" s="175"/>
+      <c r="H28" s="146"/>
+      <c r="I28" s="146"/>
+      <c r="J28" s="146"/>
+      <c r="K28" s="146"/>
+      <c r="L28" s="147"/>
     </row>
     <row r="29" spans="2:17" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="91" t="s">
@@ -43776,14 +43732,14 @@
       <c r="F29" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G29" s="173" t="s">
+      <c r="G29" s="145" t="s">
         <v>267</v>
       </c>
-      <c r="H29" s="174"/>
-      <c r="I29" s="174"/>
-      <c r="J29" s="174"/>
-      <c r="K29" s="174"/>
-      <c r="L29" s="175"/>
+      <c r="H29" s="146"/>
+      <c r="I29" s="146"/>
+      <c r="J29" s="146"/>
+      <c r="K29" s="146"/>
+      <c r="L29" s="147"/>
     </row>
     <row r="30" spans="2:17" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="87" t="s">
@@ -43801,14 +43757,14 @@
       <c r="F30" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G30" s="173" t="s">
+      <c r="G30" s="145" t="s">
         <v>269</v>
       </c>
-      <c r="H30" s="174"/>
-      <c r="I30" s="174"/>
-      <c r="J30" s="174"/>
-      <c r="K30" s="174"/>
-      <c r="L30" s="175"/>
+      <c r="H30" s="146"/>
+      <c r="I30" s="146"/>
+      <c r="J30" s="146"/>
+      <c r="K30" s="146"/>
+      <c r="L30" s="147"/>
     </row>
     <row r="31" spans="2:17" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="87" t="s">
@@ -43826,17 +43782,17 @@
       <c r="F31" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G31" s="117" t="s">
+      <c r="G31" s="141" t="s">
         <v>271</v>
       </c>
-      <c r="H31" s="112"/>
-      <c r="I31" s="112"/>
-      <c r="J31" s="112"/>
-      <c r="K31" s="112"/>
-      <c r="L31" s="113"/>
+      <c r="H31" s="139"/>
+      <c r="I31" s="139"/>
+      <c r="J31" s="139"/>
+      <c r="K31" s="139"/>
+      <c r="L31" s="140"/>
     </row>
     <row r="32" spans="2:17" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="177" t="s">
+      <c r="B32" s="136" t="s">
         <v>272</v>
       </c>
       <c r="C32" s="87" t="s">
@@ -43851,14 +43807,14 @@
       <c r="F32" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G32" s="111" t="s">
+      <c r="G32" s="138" t="s">
         <v>273</v>
       </c>
-      <c r="H32" s="112"/>
-      <c r="I32" s="112"/>
-      <c r="J32" s="112"/>
-      <c r="K32" s="112"/>
-      <c r="L32" s="113"/>
+      <c r="H32" s="139"/>
+      <c r="I32" s="139"/>
+      <c r="J32" s="139"/>
+      <c r="K32" s="139"/>
+      <c r="L32" s="140"/>
     </row>
     <row r="33" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="92" t="s">
@@ -43876,14 +43832,14 @@
       <c r="F33" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G33" s="117" t="s">
+      <c r="G33" s="141" t="s">
         <v>275</v>
       </c>
-      <c r="H33" s="112"/>
-      <c r="I33" s="112"/>
-      <c r="J33" s="112"/>
-      <c r="K33" s="112"/>
-      <c r="L33" s="113"/>
+      <c r="H33" s="139"/>
+      <c r="I33" s="139"/>
+      <c r="J33" s="139"/>
+      <c r="K33" s="139"/>
+      <c r="L33" s="140"/>
     </row>
     <row r="34" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="92" t="s">
@@ -43897,14 +43853,14 @@
       </c>
       <c r="E34" s="87"/>
       <c r="F34" s="87"/>
-      <c r="G34" s="117" t="s">
+      <c r="G34" s="141" t="s">
         <v>278</v>
       </c>
-      <c r="H34" s="112"/>
-      <c r="I34" s="112"/>
-      <c r="J34" s="112"/>
-      <c r="K34" s="112"/>
-      <c r="L34" s="113"/>
+      <c r="H34" s="139"/>
+      <c r="I34" s="139"/>
+      <c r="J34" s="139"/>
+      <c r="K34" s="139"/>
+      <c r="L34" s="140"/>
     </row>
     <row r="35" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="91" t="s">
@@ -43922,14 +43878,14 @@
       <c r="F35" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G35" s="173" t="s">
+      <c r="G35" s="145" t="s">
         <v>280</v>
       </c>
-      <c r="H35" s="174"/>
-      <c r="I35" s="174"/>
-      <c r="J35" s="174"/>
-      <c r="K35" s="174"/>
-      <c r="L35" s="175"/>
+      <c r="H35" s="146"/>
+      <c r="I35" s="146"/>
+      <c r="J35" s="146"/>
+      <c r="K35" s="146"/>
+      <c r="L35" s="147"/>
     </row>
     <row r="36" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="92" t="s">
@@ -43947,14 +43903,14 @@
       <c r="F36" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G36" s="111" t="s">
+      <c r="G36" s="138" t="s">
         <v>281</v>
       </c>
-      <c r="H36" s="112"/>
-      <c r="I36" s="112"/>
-      <c r="J36" s="112"/>
-      <c r="K36" s="112"/>
-      <c r="L36" s="113"/>
+      <c r="H36" s="139"/>
+      <c r="I36" s="139"/>
+      <c r="J36" s="139"/>
+      <c r="K36" s="139"/>
+      <c r="L36" s="140"/>
     </row>
     <row r="37" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="92" t="s">
@@ -43972,14 +43928,14 @@
       <c r="F37" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G37" s="111" t="s">
+      <c r="G37" s="138" t="s">
         <v>283</v>
       </c>
-      <c r="H37" s="112"/>
-      <c r="I37" s="112"/>
-      <c r="J37" s="112"/>
-      <c r="K37" s="112"/>
-      <c r="L37" s="113"/>
+      <c r="H37" s="139"/>
+      <c r="I37" s="139"/>
+      <c r="J37" s="139"/>
+      <c r="K37" s="139"/>
+      <c r="L37" s="140"/>
     </row>
     <row r="38" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="91" t="s">
@@ -43997,14 +43953,14 @@
       <c r="F38" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G38" s="111" t="s">
+      <c r="G38" s="138" t="s">
         <v>285</v>
       </c>
-      <c r="H38" s="112"/>
-      <c r="I38" s="112"/>
-      <c r="J38" s="112"/>
-      <c r="K38" s="112"/>
-      <c r="L38" s="113"/>
+      <c r="H38" s="139"/>
+      <c r="I38" s="139"/>
+      <c r="J38" s="139"/>
+      <c r="K38" s="139"/>
+      <c r="L38" s="140"/>
     </row>
     <row r="39" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="91" t="s">
@@ -44022,14 +43978,14 @@
       <c r="F39" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G39" s="111" t="s">
+      <c r="G39" s="138" t="s">
         <v>286</v>
       </c>
-      <c r="H39" s="112"/>
-      <c r="I39" s="112"/>
-      <c r="J39" s="112"/>
-      <c r="K39" s="112"/>
-      <c r="L39" s="113"/>
+      <c r="H39" s="139"/>
+      <c r="I39" s="139"/>
+      <c r="J39" s="139"/>
+      <c r="K39" s="139"/>
+      <c r="L39" s="140"/>
     </row>
     <row r="40" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="91" t="s">
@@ -44047,14 +44003,14 @@
       <c r="F40" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G40" s="111" t="s">
+      <c r="G40" s="138" t="s">
         <v>287</v>
       </c>
-      <c r="H40" s="112"/>
-      <c r="I40" s="112"/>
-      <c r="J40" s="112"/>
-      <c r="K40" s="112"/>
-      <c r="L40" s="113"/>
+      <c r="H40" s="139"/>
+      <c r="I40" s="139"/>
+      <c r="J40" s="139"/>
+      <c r="K40" s="139"/>
+      <c r="L40" s="140"/>
     </row>
     <row r="41" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="91" t="s">
@@ -44072,14 +44028,14 @@
       <c r="F41" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G41" s="111" t="s">
+      <c r="G41" s="138" t="s">
         <v>290</v>
       </c>
-      <c r="H41" s="112"/>
-      <c r="I41" s="112"/>
-      <c r="J41" s="112"/>
-      <c r="K41" s="112"/>
-      <c r="L41" s="113"/>
+      <c r="H41" s="139"/>
+      <c r="I41" s="139"/>
+      <c r="J41" s="139"/>
+      <c r="K41" s="139"/>
+      <c r="L41" s="140"/>
     </row>
     <row r="42" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="91" t="s">
@@ -44089,14 +44045,14 @@
       <c r="D42" s="87"/>
       <c r="E42" s="87"/>
       <c r="F42" s="87"/>
-      <c r="G42" s="173" t="s">
+      <c r="G42" s="145" t="s">
         <v>248</v>
       </c>
-      <c r="H42" s="174"/>
-      <c r="I42" s="174"/>
-      <c r="J42" s="174"/>
-      <c r="K42" s="174"/>
-      <c r="L42" s="175"/>
+      <c r="H42" s="146"/>
+      <c r="I42" s="146"/>
+      <c r="J42" s="146"/>
+      <c r="K42" s="146"/>
+      <c r="L42" s="147"/>
     </row>
     <row r="43" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="91"/>
@@ -44104,12 +44060,12 @@
       <c r="D43" s="87"/>
       <c r="E43" s="87"/>
       <c r="F43" s="87"/>
-      <c r="G43" s="111"/>
-      <c r="H43" s="112"/>
-      <c r="I43" s="112"/>
-      <c r="J43" s="112"/>
-      <c r="K43" s="112"/>
-      <c r="L43" s="113"/>
+      <c r="G43" s="138"/>
+      <c r="H43" s="139"/>
+      <c r="I43" s="139"/>
+      <c r="J43" s="139"/>
+      <c r="K43" s="139"/>
+      <c r="L43" s="140"/>
     </row>
     <row r="44" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="92"/>
@@ -44117,20 +44073,21 @@
       <c r="D44" s="87"/>
       <c r="E44" s="87"/>
       <c r="F44" s="87"/>
-      <c r="G44" s="117"/>
-      <c r="H44" s="112"/>
-      <c r="I44" s="112"/>
-      <c r="J44" s="112"/>
-      <c r="K44" s="112"/>
-      <c r="L44" s="113"/>
+      <c r="G44" s="141"/>
+      <c r="H44" s="139"/>
+      <c r="I44" s="139"/>
+      <c r="J44" s="139"/>
+      <c r="K44" s="139"/>
+      <c r="L44" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="G39:L39"/>
-    <mergeCell ref="G40:L40"/>
-    <mergeCell ref="G41:L41"/>
-    <mergeCell ref="G42:L42"/>
-    <mergeCell ref="G43:L43"/>
+    <mergeCell ref="G32:L32"/>
+    <mergeCell ref="G27:L27"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="G31:L31"/>
     <mergeCell ref="G44:L44"/>
     <mergeCell ref="G33:L33"/>
     <mergeCell ref="G34:L34"/>
@@ -44138,12 +44095,11 @@
     <mergeCell ref="G36:L36"/>
     <mergeCell ref="G37:L37"/>
     <mergeCell ref="G38:L38"/>
-    <mergeCell ref="G27:L27"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="G29:L29"/>
-    <mergeCell ref="G30:L30"/>
-    <mergeCell ref="G31:L31"/>
-    <mergeCell ref="G32:L32"/>
+    <mergeCell ref="G39:L39"/>
+    <mergeCell ref="G40:L40"/>
+    <mergeCell ref="G41:L41"/>
+    <mergeCell ref="G42:L42"/>
+    <mergeCell ref="G43:L43"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -44167,11 +44123,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B3" s="159"/>
-      <c r="C3" s="160" t="s">
+      <c r="B3" s="122"/>
+      <c r="C3" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="D3" s="160" t="s">
+      <c r="D3" s="123" t="s">
         <v>186</v>
       </c>
     </row>
@@ -44245,10 +44201,10 @@
       <c r="B10" s="87">
         <v>7</v>
       </c>
-      <c r="C10" s="161" t="s">
+      <c r="C10" s="124" t="s">
         <v>199</v>
       </c>
-      <c r="D10" s="162" t="s">
+      <c r="D10" s="125" t="s">
         <v>200</v>
       </c>
     </row>
@@ -44256,7 +44212,7 @@
       <c r="B11" s="87">
         <v>8</v>
       </c>
-      <c r="C11" s="161" t="s">
+      <c r="C11" s="124" t="s">
         <v>201</v>
       </c>
       <c r="D11" s="10" t="s">
@@ -44720,17 +44676,17 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="108" t="s">
+      <c r="G27" s="142" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="109"/>
-      <c r="I27" s="109"/>
-      <c r="J27" s="109"/>
-      <c r="K27" s="109"/>
-      <c r="L27" s="110"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="143"/>
+      <c r="K27" s="143"/>
+      <c r="L27" s="144"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="131" t="s">
+      <c r="B28" s="105" t="s">
         <v>156</v>
       </c>
       <c r="C28" s="87" t="s">
@@ -44745,17 +44701,17 @@
       <c r="F28" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G28" s="132" t="s">
+      <c r="G28" s="160" t="s">
         <v>157</v>
       </c>
-      <c r="H28" s="121"/>
-      <c r="I28" s="121"/>
-      <c r="J28" s="121"/>
-      <c r="K28" s="121"/>
-      <c r="L28" s="122"/>
+      <c r="H28" s="155"/>
+      <c r="I28" s="155"/>
+      <c r="J28" s="155"/>
+      <c r="K28" s="155"/>
+      <c r="L28" s="156"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="133" t="s">
+      <c r="B29" s="106" t="s">
         <v>158</v>
       </c>
       <c r="C29" s="87" t="s">
@@ -44770,17 +44726,17 @@
       <c r="F29" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G29" s="132" t="s">
+      <c r="G29" s="160" t="s">
         <v>159</v>
       </c>
-      <c r="H29" s="121"/>
-      <c r="I29" s="121"/>
-      <c r="J29" s="121"/>
-      <c r="K29" s="121"/>
-      <c r="L29" s="122"/>
+      <c r="H29" s="155"/>
+      <c r="I29" s="155"/>
+      <c r="J29" s="155"/>
+      <c r="K29" s="155"/>
+      <c r="L29" s="156"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="133" t="s">
+      <c r="B30" s="106" t="s">
         <v>160</v>
       </c>
       <c r="C30" s="87" t="s">
@@ -44795,17 +44751,17 @@
       <c r="F30" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G30" s="132" t="s">
+      <c r="G30" s="160" t="s">
         <v>161</v>
       </c>
-      <c r="H30" s="121"/>
-      <c r="I30" s="121"/>
-      <c r="J30" s="121"/>
-      <c r="K30" s="121"/>
-      <c r="L30" s="122"/>
+      <c r="H30" s="155"/>
+      <c r="I30" s="155"/>
+      <c r="J30" s="155"/>
+      <c r="K30" s="155"/>
+      <c r="L30" s="156"/>
     </row>
     <row r="31" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="133" t="s">
+      <c r="B31" s="106" t="s">
         <v>162</v>
       </c>
       <c r="C31" s="87" t="s">
@@ -44820,14 +44776,14 @@
       <c r="F31" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G31" s="132" t="s">
+      <c r="G31" s="160" t="s">
         <v>163</v>
       </c>
-      <c r="H31" s="121"/>
-      <c r="I31" s="121"/>
-      <c r="J31" s="121"/>
-      <c r="K31" s="121"/>
-      <c r="L31" s="122"/>
+      <c r="H31" s="155"/>
+      <c r="I31" s="155"/>
+      <c r="J31" s="155"/>
+      <c r="K31" s="155"/>
+      <c r="L31" s="156"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="87" t="s">
@@ -44845,14 +44801,14 @@
       <c r="F32" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G32" s="120" t="s">
+      <c r="G32" s="154" t="s">
         <v>149</v>
       </c>
-      <c r="H32" s="121"/>
-      <c r="I32" s="121"/>
-      <c r="J32" s="121"/>
-      <c r="K32" s="121"/>
-      <c r="L32" s="122"/>
+      <c r="H32" s="155"/>
+      <c r="I32" s="155"/>
+      <c r="J32" s="155"/>
+      <c r="K32" s="155"/>
+      <c r="L32" s="156"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="98"/>
@@ -44860,12 +44816,12 @@
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="111"/>
-      <c r="H33" s="112"/>
-      <c r="I33" s="112"/>
-      <c r="J33" s="112"/>
-      <c r="K33" s="112"/>
-      <c r="L33" s="113"/>
+      <c r="G33" s="138"/>
+      <c r="H33" s="139"/>
+      <c r="I33" s="139"/>
+      <c r="J33" s="139"/>
+      <c r="K33" s="139"/>
+      <c r="L33" s="140"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="10"/>
@@ -44873,12 +44829,12 @@
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="106"/>
-      <c r="I34" s="106"/>
-      <c r="J34" s="106"/>
-      <c r="K34" s="106"/>
-      <c r="L34" s="107"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="150"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="10"/>
@@ -44886,12 +44842,12 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="106"/>
-      <c r="I35" s="106"/>
-      <c r="J35" s="106"/>
-      <c r="K35" s="106"/>
-      <c r="L35" s="107"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="150"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -45030,17 +44986,17 @@
       <c r="Q7" s="90"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B8" s="168"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="169"/>
-      <c r="H8" s="169"/>
-      <c r="I8" s="169"/>
-      <c r="J8" s="169"/>
-      <c r="K8" s="169"/>
-      <c r="L8" s="170"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="132"/>
+      <c r="K8" s="132"/>
+      <c r="L8" s="133"/>
       <c r="N8" s="7"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
@@ -45330,14 +45286,14 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="108" t="s">
+      <c r="G27" s="142" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="109"/>
-      <c r="I27" s="109"/>
-      <c r="J27" s="109"/>
-      <c r="K27" s="109"/>
-      <c r="L27" s="110"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="143"/>
+      <c r="K27" s="143"/>
+      <c r="L27" s="144"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="87" t="s">
@@ -45355,14 +45311,14 @@
       <c r="F28" s="87">
         <v>16</v>
       </c>
-      <c r="G28" s="173" t="s">
+      <c r="G28" s="145" t="s">
         <v>241</v>
       </c>
-      <c r="H28" s="174"/>
-      <c r="I28" s="174"/>
-      <c r="J28" s="174"/>
-      <c r="K28" s="174"/>
-      <c r="L28" s="175"/>
+      <c r="H28" s="146"/>
+      <c r="I28" s="146"/>
+      <c r="J28" s="146"/>
+      <c r="K28" s="146"/>
+      <c r="L28" s="147"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -45380,14 +45336,14 @@
       <c r="F29" s="87">
         <v>16</v>
       </c>
-      <c r="G29" s="173" t="s">
+      <c r="G29" s="145" t="s">
         <v>241</v>
       </c>
-      <c r="H29" s="174"/>
-      <c r="I29" s="174"/>
-      <c r="J29" s="174"/>
-      <c r="K29" s="174"/>
-      <c r="L29" s="175"/>
+      <c r="H29" s="146"/>
+      <c r="I29" s="146"/>
+      <c r="J29" s="146"/>
+      <c r="K29" s="146"/>
+      <c r="L29" s="147"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="100" t="s">
@@ -45405,14 +45361,14 @@
       <c r="F30" s="87">
         <v>16</v>
       </c>
-      <c r="G30" s="173" t="s">
+      <c r="G30" s="145" t="s">
         <v>241</v>
       </c>
-      <c r="H30" s="174"/>
-      <c r="I30" s="174"/>
-      <c r="J30" s="174"/>
-      <c r="K30" s="174"/>
-      <c r="L30" s="175"/>
+      <c r="H30" s="146"/>
+      <c r="I30" s="146"/>
+      <c r="J30" s="146"/>
+      <c r="K30" s="146"/>
+      <c r="L30" s="147"/>
     </row>
     <row r="31" spans="2:17" ht="70.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="92" t="s">
@@ -45430,14 +45386,14 @@
       <c r="F31" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G31" s="117" t="s">
+      <c r="G31" s="141" t="s">
         <v>257</v>
       </c>
-      <c r="H31" s="112"/>
-      <c r="I31" s="112"/>
-      <c r="J31" s="112"/>
-      <c r="K31" s="112"/>
-      <c r="L31" s="113"/>
+      <c r="H31" s="139"/>
+      <c r="I31" s="139"/>
+      <c r="J31" s="139"/>
+      <c r="K31" s="139"/>
+      <c r="L31" s="140"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="92" t="s">
@@ -45455,14 +45411,14 @@
       <c r="F32" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G32" s="117" t="s">
+      <c r="G32" s="141" t="s">
         <v>244</v>
       </c>
-      <c r="H32" s="112"/>
-      <c r="I32" s="112"/>
-      <c r="J32" s="112"/>
-      <c r="K32" s="112"/>
-      <c r="L32" s="113"/>
+      <c r="H32" s="139"/>
+      <c r="I32" s="139"/>
+      <c r="J32" s="139"/>
+      <c r="K32" s="139"/>
+      <c r="L32" s="140"/>
     </row>
     <row r="33" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="92" t="s">
@@ -45480,14 +45436,14 @@
       <c r="F33" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G33" s="117" t="s">
+      <c r="G33" s="141" t="s">
         <v>245</v>
       </c>
-      <c r="H33" s="112"/>
-      <c r="I33" s="112"/>
-      <c r="J33" s="112"/>
-      <c r="K33" s="112"/>
-      <c r="L33" s="113"/>
+      <c r="H33" s="139"/>
+      <c r="I33" s="139"/>
+      <c r="J33" s="139"/>
+      <c r="K33" s="139"/>
+      <c r="L33" s="140"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="91" t="s">
@@ -45505,14 +45461,14 @@
       <c r="F34" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G34" s="173" t="s">
+      <c r="G34" s="145" t="s">
         <v>247</v>
       </c>
-      <c r="H34" s="174"/>
-      <c r="I34" s="174"/>
-      <c r="J34" s="174"/>
-      <c r="K34" s="174"/>
-      <c r="L34" s="175"/>
+      <c r="H34" s="146"/>
+      <c r="I34" s="146"/>
+      <c r="J34" s="146"/>
+      <c r="K34" s="146"/>
+      <c r="L34" s="147"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="91" t="s">
@@ -45522,14 +45478,14 @@
       <c r="D35" s="87"/>
       <c r="E35" s="87"/>
       <c r="F35" s="87"/>
-      <c r="G35" s="173" t="s">
+      <c r="G35" s="145" t="s">
         <v>248</v>
       </c>
-      <c r="H35" s="174"/>
-      <c r="I35" s="174"/>
-      <c r="J35" s="174"/>
-      <c r="K35" s="174"/>
-      <c r="L35" s="175"/>
+      <c r="H35" s="146"/>
+      <c r="I35" s="146"/>
+      <c r="J35" s="146"/>
+      <c r="K35" s="146"/>
+      <c r="L35" s="147"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -45668,17 +45624,17 @@
       <c r="Q7" s="90"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B8" s="168"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="169"/>
-      <c r="H8" s="169"/>
-      <c r="I8" s="169"/>
-      <c r="J8" s="169"/>
-      <c r="K8" s="169"/>
-      <c r="L8" s="170"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="132"/>
+      <c r="K8" s="132"/>
+      <c r="L8" s="133"/>
       <c r="N8" s="7"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
@@ -45968,17 +45924,17 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="108" t="s">
+      <c r="G27" s="142" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="109"/>
-      <c r="I27" s="109"/>
-      <c r="J27" s="109"/>
-      <c r="K27" s="109"/>
-      <c r="L27" s="110"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="143"/>
+      <c r="K27" s="143"/>
+      <c r="L27" s="144"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="171" t="s">
+      <c r="B28" s="134" t="s">
         <v>138</v>
       </c>
       <c r="C28" s="87" t="s">
@@ -45987,23 +45943,23 @@
       <c r="D28" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="E28" s="172" t="s">
+      <c r="E28" s="135" t="s">
         <v>140</v>
       </c>
       <c r="F28" s="87">
         <v>256</v>
       </c>
-      <c r="G28" s="173" t="s">
+      <c r="G28" s="145" t="s">
         <v>141</v>
       </c>
-      <c r="H28" s="174"/>
-      <c r="I28" s="174"/>
-      <c r="J28" s="174"/>
-      <c r="K28" s="174"/>
-      <c r="L28" s="175"/>
+      <c r="H28" s="146"/>
+      <c r="I28" s="146"/>
+      <c r="J28" s="146"/>
+      <c r="K28" s="146"/>
+      <c r="L28" s="147"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="166" t="s">
+      <c r="B29" s="129" t="s">
         <v>240</v>
       </c>
       <c r="C29" s="87" t="s">
@@ -46012,20 +45968,20 @@
       <c r="D29" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="E29" s="172" t="s">
+      <c r="E29" s="135" t="s">
         <v>140</v>
       </c>
       <c r="F29" s="87">
         <v>256</v>
       </c>
-      <c r="G29" s="173" t="s">
+      <c r="G29" s="145" t="s">
         <v>141</v>
       </c>
-      <c r="H29" s="174"/>
-      <c r="I29" s="174"/>
-      <c r="J29" s="174"/>
-      <c r="K29" s="174"/>
-      <c r="L29" s="175"/>
+      <c r="H29" s="146"/>
+      <c r="I29" s="146"/>
+      <c r="J29" s="146"/>
+      <c r="K29" s="146"/>
+      <c r="L29" s="147"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="87" t="s">
@@ -46043,14 +45999,14 @@
       <c r="F30" s="87">
         <v>16</v>
       </c>
-      <c r="G30" s="173" t="s">
+      <c r="G30" s="145" t="s">
         <v>241</v>
       </c>
-      <c r="H30" s="174"/>
-      <c r="I30" s="174"/>
-      <c r="J30" s="174"/>
-      <c r="K30" s="174"/>
-      <c r="L30" s="175"/>
+      <c r="H30" s="146"/>
+      <c r="I30" s="146"/>
+      <c r="J30" s="146"/>
+      <c r="K30" s="146"/>
+      <c r="L30" s="147"/>
     </row>
     <row r="31" spans="2:17" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="92" t="s">
@@ -46068,14 +46024,14 @@
       <c r="F31" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G31" s="117" t="s">
+      <c r="G31" s="141" t="s">
         <v>243</v>
       </c>
-      <c r="H31" s="112"/>
-      <c r="I31" s="112"/>
-      <c r="J31" s="112"/>
-      <c r="K31" s="112"/>
-      <c r="L31" s="113"/>
+      <c r="H31" s="139"/>
+      <c r="I31" s="139"/>
+      <c r="J31" s="139"/>
+      <c r="K31" s="139"/>
+      <c r="L31" s="140"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="92" t="s">
@@ -46093,14 +46049,14 @@
       <c r="F32" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G32" s="117" t="s">
+      <c r="G32" s="141" t="s">
         <v>244</v>
       </c>
-      <c r="H32" s="112"/>
-      <c r="I32" s="112"/>
-      <c r="J32" s="112"/>
-      <c r="K32" s="112"/>
-      <c r="L32" s="113"/>
+      <c r="H32" s="139"/>
+      <c r="I32" s="139"/>
+      <c r="J32" s="139"/>
+      <c r="K32" s="139"/>
+      <c r="L32" s="140"/>
     </row>
     <row r="33" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="92" t="s">
@@ -46118,14 +46074,14 @@
       <c r="F33" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G33" s="117" t="s">
+      <c r="G33" s="141" t="s">
         <v>245</v>
       </c>
-      <c r="H33" s="112"/>
-      <c r="I33" s="112"/>
-      <c r="J33" s="112"/>
-      <c r="K33" s="112"/>
-      <c r="L33" s="113"/>
+      <c r="H33" s="139"/>
+      <c r="I33" s="139"/>
+      <c r="J33" s="139"/>
+      <c r="K33" s="139"/>
+      <c r="L33" s="140"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="91" t="s">
@@ -46143,14 +46099,14 @@
       <c r="F34" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G34" s="173" t="s">
+      <c r="G34" s="145" t="s">
         <v>247</v>
       </c>
-      <c r="H34" s="174"/>
-      <c r="I34" s="174"/>
-      <c r="J34" s="174"/>
-      <c r="K34" s="174"/>
-      <c r="L34" s="175"/>
+      <c r="H34" s="146"/>
+      <c r="I34" s="146"/>
+      <c r="J34" s="146"/>
+      <c r="K34" s="146"/>
+      <c r="L34" s="147"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="91" t="s">
@@ -46160,14 +46116,14 @@
       <c r="D35" s="87"/>
       <c r="E35" s="87"/>
       <c r="F35" s="87"/>
-      <c r="G35" s="173" t="s">
+      <c r="G35" s="145" t="s">
         <v>248</v>
       </c>
-      <c r="H35" s="174"/>
-      <c r="I35" s="174"/>
-      <c r="J35" s="174"/>
-      <c r="K35" s="174"/>
-      <c r="L35" s="175"/>
+      <c r="H35" s="146"/>
+      <c r="I35" s="146"/>
+      <c r="J35" s="146"/>
+      <c r="K35" s="146"/>
+      <c r="L35" s="147"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -46306,17 +46262,17 @@
       <c r="Q7" s="90"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B8" s="168"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="169"/>
-      <c r="H8" s="169"/>
-      <c r="I8" s="169"/>
-      <c r="J8" s="169"/>
-      <c r="K8" s="169"/>
-      <c r="L8" s="170"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="132"/>
+      <c r="K8" s="132"/>
+      <c r="L8" s="133"/>
       <c r="N8" s="7"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
@@ -46606,14 +46562,14 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="108" t="s">
+      <c r="G27" s="142" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="109"/>
-      <c r="I27" s="109"/>
-      <c r="J27" s="109"/>
-      <c r="K27" s="109"/>
-      <c r="L27" s="110"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="143"/>
+      <c r="K27" s="143"/>
+      <c r="L27" s="144"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="87" t="s">
@@ -46631,14 +46587,14 @@
       <c r="F28" s="87">
         <v>16</v>
       </c>
-      <c r="G28" s="173" t="s">
+      <c r="G28" s="145" t="s">
         <v>241</v>
       </c>
-      <c r="H28" s="174"/>
-      <c r="I28" s="174"/>
-      <c r="J28" s="174"/>
-      <c r="K28" s="174"/>
-      <c r="L28" s="175"/>
+      <c r="H28" s="146"/>
+      <c r="I28" s="146"/>
+      <c r="J28" s="146"/>
+      <c r="K28" s="146"/>
+      <c r="L28" s="147"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -46656,14 +46612,14 @@
       <c r="F29" s="87">
         <v>16</v>
       </c>
-      <c r="G29" s="173" t="s">
+      <c r="G29" s="145" t="s">
         <v>241</v>
       </c>
-      <c r="H29" s="174"/>
-      <c r="I29" s="174"/>
-      <c r="J29" s="174"/>
-      <c r="K29" s="174"/>
-      <c r="L29" s="175"/>
+      <c r="H29" s="146"/>
+      <c r="I29" s="146"/>
+      <c r="J29" s="146"/>
+      <c r="K29" s="146"/>
+      <c r="L29" s="147"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="100" t="s">
@@ -46681,14 +46637,14 @@
       <c r="F30" s="87">
         <v>16</v>
       </c>
-      <c r="G30" s="173" t="s">
+      <c r="G30" s="145" t="s">
         <v>241</v>
       </c>
-      <c r="H30" s="174"/>
-      <c r="I30" s="174"/>
-      <c r="J30" s="174"/>
-      <c r="K30" s="174"/>
-      <c r="L30" s="175"/>
+      <c r="H30" s="146"/>
+      <c r="I30" s="146"/>
+      <c r="J30" s="146"/>
+      <c r="K30" s="146"/>
+      <c r="L30" s="147"/>
     </row>
     <row r="31" spans="2:17" ht="86.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="92" t="s">
@@ -46706,14 +46662,14 @@
       <c r="F31" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G31" s="117" t="s">
+      <c r="G31" s="141" t="s">
         <v>254</v>
       </c>
-      <c r="H31" s="112"/>
-      <c r="I31" s="112"/>
-      <c r="J31" s="112"/>
-      <c r="K31" s="112"/>
-      <c r="L31" s="113"/>
+      <c r="H31" s="139"/>
+      <c r="I31" s="139"/>
+      <c r="J31" s="139"/>
+      <c r="K31" s="139"/>
+      <c r="L31" s="140"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="92" t="s">
@@ -46731,14 +46687,14 @@
       <c r="F32" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G32" s="117" t="s">
+      <c r="G32" s="141" t="s">
         <v>244</v>
       </c>
-      <c r="H32" s="112"/>
-      <c r="I32" s="112"/>
-      <c r="J32" s="112"/>
-      <c r="K32" s="112"/>
-      <c r="L32" s="113"/>
+      <c r="H32" s="139"/>
+      <c r="I32" s="139"/>
+      <c r="J32" s="139"/>
+      <c r="K32" s="139"/>
+      <c r="L32" s="140"/>
     </row>
     <row r="33" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="92" t="s">
@@ -46756,14 +46712,14 @@
       <c r="F33" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G33" s="117" t="s">
+      <c r="G33" s="141" t="s">
         <v>245</v>
       </c>
-      <c r="H33" s="112"/>
-      <c r="I33" s="112"/>
-      <c r="J33" s="112"/>
-      <c r="K33" s="112"/>
-      <c r="L33" s="113"/>
+      <c r="H33" s="139"/>
+      <c r="I33" s="139"/>
+      <c r="J33" s="139"/>
+      <c r="K33" s="139"/>
+      <c r="L33" s="140"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="91" t="s">
@@ -46781,14 +46737,14 @@
       <c r="F34" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G34" s="173" t="s">
+      <c r="G34" s="145" t="s">
         <v>247</v>
       </c>
-      <c r="H34" s="174"/>
-      <c r="I34" s="174"/>
-      <c r="J34" s="174"/>
-      <c r="K34" s="174"/>
-      <c r="L34" s="175"/>
+      <c r="H34" s="146"/>
+      <c r="I34" s="146"/>
+      <c r="J34" s="146"/>
+      <c r="K34" s="146"/>
+      <c r="L34" s="147"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="91" t="s">
@@ -46798,14 +46754,14 @@
       <c r="D35" s="87"/>
       <c r="E35" s="87"/>
       <c r="F35" s="87"/>
-      <c r="G35" s="173" t="s">
+      <c r="G35" s="145" t="s">
         <v>248</v>
       </c>
-      <c r="H35" s="174"/>
-      <c r="I35" s="174"/>
-      <c r="J35" s="174"/>
-      <c r="K35" s="174"/>
-      <c r="L35" s="175"/>
+      <c r="H35" s="146"/>
+      <c r="I35" s="146"/>
+      <c r="J35" s="146"/>
+      <c r="K35" s="146"/>
+      <c r="L35" s="147"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -46830,7 +46786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D361B5C7-8D85-4360-85B4-14BC63A2C654}">
   <dimension ref="A2:T32"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
@@ -46944,17 +46900,17 @@
       <c r="Q7" s="90"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B8" s="168"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="169"/>
-      <c r="H8" s="169"/>
-      <c r="I8" s="169"/>
-      <c r="J8" s="169"/>
-      <c r="K8" s="169"/>
-      <c r="L8" s="170"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="132"/>
+      <c r="K8" s="132"/>
+      <c r="L8" s="133"/>
       <c r="N8" s="7"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
@@ -47244,17 +47200,17 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="108" t="s">
+      <c r="G27" s="142" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="109"/>
-      <c r="I27" s="109"/>
-      <c r="J27" s="109"/>
-      <c r="K27" s="109"/>
-      <c r="L27" s="110"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="143"/>
+      <c r="K27" s="143"/>
+      <c r="L27" s="144"/>
     </row>
     <row r="28" spans="2:17" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="154" t="s">
+      <c r="B28" s="120" t="s">
         <v>260</v>
       </c>
       <c r="C28" s="87" t="s">
@@ -47263,20 +47219,20 @@
       <c r="D28" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="E28" s="172" t="s">
+      <c r="E28" s="135" t="s">
         <v>101</v>
       </c>
       <c r="F28" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G28" s="176" t="s">
+      <c r="G28" s="169" t="s">
         <v>261</v>
       </c>
-      <c r="H28" s="174"/>
-      <c r="I28" s="174"/>
-      <c r="J28" s="174"/>
-      <c r="K28" s="174"/>
-      <c r="L28" s="175"/>
+      <c r="H28" s="146"/>
+      <c r="I28" s="146"/>
+      <c r="J28" s="146"/>
+      <c r="K28" s="146"/>
+      <c r="L28" s="147"/>
     </row>
     <row r="29" spans="2:17" ht="84.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="91" t="s">
@@ -47294,14 +47250,14 @@
       <c r="F29" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G29" s="176" t="s">
+      <c r="G29" s="169" t="s">
         <v>262</v>
       </c>
-      <c r="H29" s="174"/>
-      <c r="I29" s="174"/>
-      <c r="J29" s="174"/>
-      <c r="K29" s="174"/>
-      <c r="L29" s="175"/>
+      <c r="H29" s="146"/>
+      <c r="I29" s="146"/>
+      <c r="J29" s="146"/>
+      <c r="K29" s="146"/>
+      <c r="L29" s="147"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="91" t="s">
@@ -47311,14 +47267,14 @@
       <c r="D30" s="87"/>
       <c r="E30" s="87"/>
       <c r="F30" s="87"/>
-      <c r="G30" s="173" t="s">
+      <c r="G30" s="145" t="s">
         <v>248</v>
       </c>
-      <c r="H30" s="174"/>
-      <c r="I30" s="174"/>
-      <c r="J30" s="174"/>
-      <c r="K30" s="174"/>
-      <c r="L30" s="175"/>
+      <c r="H30" s="146"/>
+      <c r="I30" s="146"/>
+      <c r="J30" s="146"/>
+      <c r="K30" s="146"/>
+      <c r="L30" s="147"/>
     </row>
     <row r="31" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="91"/>
@@ -47326,34 +47282,34 @@
       <c r="D31" s="87"/>
       <c r="E31" s="87"/>
       <c r="F31" s="87"/>
-      <c r="G31" s="173"/>
-      <c r="H31" s="174"/>
-      <c r="I31" s="174"/>
-      <c r="J31" s="174"/>
-      <c r="K31" s="174"/>
-      <c r="L31" s="175"/>
+      <c r="G31" s="145"/>
+      <c r="H31" s="146"/>
+      <c r="I31" s="146"/>
+      <c r="J31" s="146"/>
+      <c r="K31" s="146"/>
+      <c r="L31" s="147"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="167"/>
+      <c r="B32" s="130"/>
       <c r="C32" s="87"/>
       <c r="D32" s="87"/>
       <c r="E32" s="87"/>
       <c r="F32" s="87"/>
-      <c r="G32" s="111"/>
-      <c r="H32" s="112"/>
-      <c r="I32" s="112"/>
-      <c r="J32" s="112"/>
-      <c r="K32" s="112"/>
-      <c r="L32" s="113"/>
+      <c r="G32" s="138"/>
+      <c r="H32" s="139"/>
+      <c r="I32" s="139"/>
+      <c r="J32" s="139"/>
+      <c r="K32" s="139"/>
+      <c r="L32" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G32:L32"/>
     <mergeCell ref="G27:L27"/>
     <mergeCell ref="G28:L28"/>
     <mergeCell ref="G29:L29"/>
     <mergeCell ref="G30:L30"/>
     <mergeCell ref="G31:L31"/>
-    <mergeCell ref="G32:L32"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -47366,7 +47322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A551D5C-A43C-448A-A146-DF81CB099841}">
   <dimension ref="A2:T35"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -47779,14 +47735,14 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="108" t="s">
+      <c r="G27" s="142" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="109"/>
-      <c r="I27" s="109"/>
-      <c r="J27" s="109"/>
-      <c r="K27" s="109"/>
-      <c r="L27" s="110"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="143"/>
+      <c r="K27" s="143"/>
+      <c r="L27" s="144"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="10" t="s">
@@ -47804,14 +47760,14 @@
       <c r="F28" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="G28" s="114" t="s">
+      <c r="G28" s="159" t="s">
         <v>114</v>
       </c>
-      <c r="H28" s="115"/>
-      <c r="I28" s="115"/>
-      <c r="J28" s="115"/>
-      <c r="K28" s="115"/>
-      <c r="L28" s="116"/>
+      <c r="H28" s="170"/>
+      <c r="I28" s="170"/>
+      <c r="J28" s="170"/>
+      <c r="K28" s="170"/>
+      <c r="L28" s="171"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="10" t="s">
@@ -47829,14 +47785,14 @@
       <c r="F29" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="G29" s="117" t="s">
+      <c r="G29" s="141" t="s">
         <v>110</v>
       </c>
-      <c r="H29" s="118"/>
-      <c r="I29" s="118"/>
-      <c r="J29" s="118"/>
-      <c r="K29" s="118"/>
-      <c r="L29" s="119"/>
+      <c r="H29" s="172"/>
+      <c r="I29" s="172"/>
+      <c r="J29" s="172"/>
+      <c r="K29" s="172"/>
+      <c r="L29" s="173"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
@@ -47854,14 +47810,14 @@
       <c r="F30" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="G30" s="117" t="s">
+      <c r="G30" s="141" t="s">
         <v>111</v>
       </c>
-      <c r="H30" s="118"/>
-      <c r="I30" s="118"/>
-      <c r="J30" s="118"/>
-      <c r="K30" s="118"/>
-      <c r="L30" s="119"/>
+      <c r="H30" s="172"/>
+      <c r="I30" s="172"/>
+      <c r="J30" s="172"/>
+      <c r="K30" s="172"/>
+      <c r="L30" s="173"/>
     </row>
     <row r="31" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="87" t="s">
@@ -47879,14 +47835,14 @@
       <c r="F31" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="G31" s="120" t="s">
+      <c r="G31" s="154" t="s">
         <v>112</v>
       </c>
-      <c r="H31" s="121"/>
-      <c r="I31" s="121"/>
-      <c r="J31" s="121"/>
-      <c r="K31" s="121"/>
-      <c r="L31" s="122"/>
+      <c r="H31" s="155"/>
+      <c r="I31" s="155"/>
+      <c r="J31" s="155"/>
+      <c r="K31" s="155"/>
+      <c r="L31" s="156"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10"/>
@@ -47894,12 +47850,12 @@
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="111"/>
-      <c r="H32" s="112"/>
-      <c r="I32" s="112"/>
-      <c r="J32" s="112"/>
-      <c r="K32" s="112"/>
-      <c r="L32" s="113"/>
+      <c r="G32" s="138"/>
+      <c r="H32" s="139"/>
+      <c r="I32" s="139"/>
+      <c r="J32" s="139"/>
+      <c r="K32" s="139"/>
+      <c r="L32" s="140"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="98"/>
@@ -47907,12 +47863,12 @@
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="111"/>
-      <c r="H33" s="112"/>
-      <c r="I33" s="112"/>
-      <c r="J33" s="112"/>
-      <c r="K33" s="112"/>
-      <c r="L33" s="113"/>
+      <c r="G33" s="138"/>
+      <c r="H33" s="139"/>
+      <c r="I33" s="139"/>
+      <c r="J33" s="139"/>
+      <c r="K33" s="139"/>
+      <c r="L33" s="140"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="10"/>
@@ -47920,12 +47876,12 @@
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="106"/>
-      <c r="I34" s="106"/>
-      <c r="J34" s="106"/>
-      <c r="K34" s="106"/>
-      <c r="L34" s="107"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="150"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="10"/>
@@ -47933,12 +47889,12 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="106"/>
-      <c r="I35" s="106"/>
-      <c r="J35" s="106"/>
-      <c r="K35" s="106"/>
-      <c r="L35" s="107"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="150"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -47963,8 +47919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30C12C97-A67D-40BA-9055-4560A3094D8E}">
   <dimension ref="A2:T36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28:L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -47977,11 +47933,11 @@
     <row r="2" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>103</v>
+        <v>291</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>104</v>
+        <v>292</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -48376,14 +48332,14 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="108" t="s">
+      <c r="G27" s="142" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="109"/>
-      <c r="I27" s="109"/>
-      <c r="J27" s="109"/>
-      <c r="K27" s="109"/>
-      <c r="L27" s="110"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="143"/>
+      <c r="K27" s="143"/>
+      <c r="L27" s="144"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="99" t="s">
@@ -48401,14 +48357,14 @@
       <c r="F28" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G28" s="126" t="s">
+      <c r="G28" s="177" t="s">
         <v>118</v>
       </c>
-      <c r="H28" s="115"/>
-      <c r="I28" s="115"/>
-      <c r="J28" s="115"/>
-      <c r="K28" s="115"/>
-      <c r="L28" s="116"/>
+      <c r="H28" s="170"/>
+      <c r="I28" s="170"/>
+      <c r="J28" s="170"/>
+      <c r="K28" s="170"/>
+      <c r="L28" s="171"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="99" t="s">
@@ -48426,14 +48382,14 @@
       <c r="F29" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G29" s="117" t="s">
+      <c r="G29" s="141" t="s">
         <v>119</v>
       </c>
-      <c r="H29" s="118"/>
-      <c r="I29" s="118"/>
-      <c r="J29" s="118"/>
-      <c r="K29" s="118"/>
-      <c r="L29" s="119"/>
+      <c r="H29" s="172"/>
+      <c r="I29" s="172"/>
+      <c r="J29" s="172"/>
+      <c r="K29" s="172"/>
+      <c r="L29" s="173"/>
     </row>
     <row r="30" spans="2:17" ht="96" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="91" t="s">
@@ -48451,14 +48407,14 @@
       <c r="F30" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G30" s="117" t="s">
+      <c r="G30" s="141" t="s">
         <v>120</v>
       </c>
-      <c r="H30" s="112"/>
-      <c r="I30" s="112"/>
-      <c r="J30" s="112"/>
-      <c r="K30" s="112"/>
-      <c r="L30" s="113"/>
+      <c r="H30" s="139"/>
+      <c r="I30" s="139"/>
+      <c r="J30" s="139"/>
+      <c r="K30" s="139"/>
+      <c r="L30" s="140"/>
     </row>
     <row r="31" spans="2:17" ht="96" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="92" t="s">
@@ -48476,14 +48432,14 @@
       <c r="F31" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G31" s="117" t="s">
+      <c r="G31" s="141" t="s">
         <v>131</v>
       </c>
-      <c r="H31" s="118"/>
-      <c r="I31" s="118"/>
-      <c r="J31" s="118"/>
-      <c r="K31" s="118"/>
-      <c r="L31" s="119"/>
+      <c r="H31" s="172"/>
+      <c r="I31" s="172"/>
+      <c r="J31" s="172"/>
+      <c r="K31" s="172"/>
+      <c r="L31" s="173"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="100" t="s">
@@ -48501,14 +48457,14 @@
       <c r="F32" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="G32" s="120" t="s">
+      <c r="G32" s="154" t="s">
         <v>112</v>
       </c>
-      <c r="H32" s="121"/>
-      <c r="I32" s="121"/>
-      <c r="J32" s="121"/>
-      <c r="K32" s="121"/>
-      <c r="L32" s="122"/>
+      <c r="H32" s="155"/>
+      <c r="I32" s="155"/>
+      <c r="J32" s="155"/>
+      <c r="K32" s="155"/>
+      <c r="L32" s="156"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="99"/>
@@ -48516,12 +48472,12 @@
       <c r="D33" s="99"/>
       <c r="E33" s="99"/>
       <c r="F33" s="99"/>
-      <c r="G33" s="117"/>
-      <c r="H33" s="118"/>
-      <c r="I33" s="118"/>
-      <c r="J33" s="118"/>
-      <c r="K33" s="118"/>
-      <c r="L33" s="119"/>
+      <c r="G33" s="141"/>
+      <c r="H33" s="172"/>
+      <c r="I33" s="172"/>
+      <c r="J33" s="172"/>
+      <c r="K33" s="172"/>
+      <c r="L33" s="173"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="101"/>
@@ -48529,12 +48485,12 @@
       <c r="D34" s="99"/>
       <c r="E34" s="99"/>
       <c r="F34" s="99"/>
-      <c r="G34" s="117"/>
-      <c r="H34" s="118"/>
-      <c r="I34" s="118"/>
-      <c r="J34" s="118"/>
-      <c r="K34" s="118"/>
-      <c r="L34" s="119"/>
+      <c r="G34" s="141"/>
+      <c r="H34" s="172"/>
+      <c r="I34" s="172"/>
+      <c r="J34" s="172"/>
+      <c r="K34" s="172"/>
+      <c r="L34" s="173"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="99"/>
@@ -48542,12 +48498,12 @@
       <c r="D35" s="99"/>
       <c r="E35" s="99"/>
       <c r="F35" s="99"/>
-      <c r="G35" s="123"/>
-      <c r="H35" s="124"/>
-      <c r="I35" s="124"/>
-      <c r="J35" s="124"/>
-      <c r="K35" s="124"/>
-      <c r="L35" s="125"/>
+      <c r="G35" s="174"/>
+      <c r="H35" s="175"/>
+      <c r="I35" s="175"/>
+      <c r="J35" s="175"/>
+      <c r="K35" s="175"/>
+      <c r="L35" s="176"/>
     </row>
     <row r="36" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="10"/>
@@ -48555,12 +48511,12 @@
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
-      <c r="G36" s="105"/>
-      <c r="H36" s="106"/>
-      <c r="I36" s="106"/>
-      <c r="J36" s="106"/>
-      <c r="K36" s="106"/>
-      <c r="L36" s="107"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="150"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -49765,8 +49721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62CA94BE-2560-4552-AD81-586516C811EB}">
   <dimension ref="A2:T37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29:L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -49779,11 +49735,11 @@
     <row r="2" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>103</v>
+        <v>293</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>104</v>
+        <v>294</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -50178,14 +50134,14 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="108" t="s">
+      <c r="G27" s="142" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="109"/>
-      <c r="I27" s="109"/>
-      <c r="J27" s="109"/>
-      <c r="K27" s="109"/>
-      <c r="L27" s="110"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="143"/>
+      <c r="K27" s="143"/>
+      <c r="L27" s="144"/>
     </row>
     <row r="28" spans="2:17" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B28" s="99" t="s">
@@ -50203,14 +50159,14 @@
       <c r="F28" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G28" s="126" t="s">
+      <c r="G28" s="177" t="s">
         <v>127</v>
       </c>
-      <c r="H28" s="115"/>
-      <c r="I28" s="115"/>
-      <c r="J28" s="115"/>
-      <c r="K28" s="115"/>
-      <c r="L28" s="116"/>
+      <c r="H28" s="170"/>
+      <c r="I28" s="170"/>
+      <c r="J28" s="170"/>
+      <c r="K28" s="170"/>
+      <c r="L28" s="171"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="99" t="s">
@@ -50228,14 +50184,14 @@
       <c r="F29" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G29" s="126" t="s">
+      <c r="G29" s="177" t="s">
         <v>123</v>
       </c>
-      <c r="H29" s="115"/>
-      <c r="I29" s="115"/>
-      <c r="J29" s="115"/>
-      <c r="K29" s="115"/>
-      <c r="L29" s="116"/>
+      <c r="H29" s="170"/>
+      <c r="I29" s="170"/>
+      <c r="J29" s="170"/>
+      <c r="K29" s="170"/>
+      <c r="L29" s="171"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
@@ -50253,14 +50209,14 @@
       <c r="F30" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G30" s="117" t="s">
+      <c r="G30" s="141" t="s">
         <v>119</v>
       </c>
-      <c r="H30" s="118"/>
-      <c r="I30" s="118"/>
-      <c r="J30" s="118"/>
-      <c r="K30" s="118"/>
-      <c r="L30" s="119"/>
+      <c r="H30" s="172"/>
+      <c r="I30" s="172"/>
+      <c r="J30" s="172"/>
+      <c r="K30" s="172"/>
+      <c r="L30" s="173"/>
     </row>
     <row r="31" spans="2:17" ht="96" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="91" t="s">
@@ -50278,14 +50234,14 @@
       <c r="F31" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G31" s="117" t="s">
+      <c r="G31" s="141" t="s">
         <v>125</v>
       </c>
-      <c r="H31" s="112"/>
-      <c r="I31" s="112"/>
-      <c r="J31" s="112"/>
-      <c r="K31" s="112"/>
-      <c r="L31" s="113"/>
+      <c r="H31" s="139"/>
+      <c r="I31" s="139"/>
+      <c r="J31" s="139"/>
+      <c r="K31" s="139"/>
+      <c r="L31" s="140"/>
     </row>
     <row r="32" spans="2:17" ht="96" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="92" t="s">
@@ -50303,14 +50259,14 @@
       <c r="F32" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G32" s="117" t="s">
+      <c r="G32" s="141" t="s">
         <v>130</v>
       </c>
-      <c r="H32" s="118"/>
-      <c r="I32" s="118"/>
-      <c r="J32" s="118"/>
-      <c r="K32" s="118"/>
-      <c r="L32" s="119"/>
+      <c r="H32" s="172"/>
+      <c r="I32" s="172"/>
+      <c r="J32" s="172"/>
+      <c r="K32" s="172"/>
+      <c r="L32" s="173"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="100" t="s">
@@ -50328,14 +50284,14 @@
       <c r="F33" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="G33" s="120" t="s">
+      <c r="G33" s="154" t="s">
         <v>112</v>
       </c>
-      <c r="H33" s="121"/>
-      <c r="I33" s="121"/>
-      <c r="J33" s="121"/>
-      <c r="K33" s="121"/>
-      <c r="L33" s="122"/>
+      <c r="H33" s="155"/>
+      <c r="I33" s="155"/>
+      <c r="J33" s="155"/>
+      <c r="K33" s="155"/>
+      <c r="L33" s="156"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="99"/>
@@ -50343,12 +50299,12 @@
       <c r="D34" s="99"/>
       <c r="E34" s="99"/>
       <c r="F34" s="99"/>
-      <c r="G34" s="117"/>
-      <c r="H34" s="118"/>
-      <c r="I34" s="118"/>
-      <c r="J34" s="118"/>
-      <c r="K34" s="118"/>
-      <c r="L34" s="119"/>
+      <c r="G34" s="141"/>
+      <c r="H34" s="172"/>
+      <c r="I34" s="172"/>
+      <c r="J34" s="172"/>
+      <c r="K34" s="172"/>
+      <c r="L34" s="173"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="101"/>
@@ -50356,12 +50312,12 @@
       <c r="D35" s="99"/>
       <c r="E35" s="99"/>
       <c r="F35" s="99"/>
-      <c r="G35" s="117"/>
-      <c r="H35" s="118"/>
-      <c r="I35" s="118"/>
-      <c r="J35" s="118"/>
-      <c r="K35" s="118"/>
-      <c r="L35" s="119"/>
+      <c r="G35" s="141"/>
+      <c r="H35" s="172"/>
+      <c r="I35" s="172"/>
+      <c r="J35" s="172"/>
+      <c r="K35" s="172"/>
+      <c r="L35" s="173"/>
     </row>
     <row r="36" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="99"/>
@@ -50369,12 +50325,12 @@
       <c r="D36" s="99"/>
       <c r="E36" s="99"/>
       <c r="F36" s="99"/>
-      <c r="G36" s="123"/>
-      <c r="H36" s="124"/>
-      <c r="I36" s="124"/>
-      <c r="J36" s="124"/>
-      <c r="K36" s="124"/>
-      <c r="L36" s="125"/>
+      <c r="G36" s="174"/>
+      <c r="H36" s="175"/>
+      <c r="I36" s="175"/>
+      <c r="J36" s="175"/>
+      <c r="K36" s="175"/>
+      <c r="L36" s="176"/>
     </row>
     <row r="37" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="10"/>
@@ -50382,26 +50338,26 @@
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
-      <c r="G37" s="105"/>
-      <c r="H37" s="106"/>
-      <c r="I37" s="106"/>
-      <c r="J37" s="106"/>
-      <c r="K37" s="106"/>
-      <c r="L37" s="107"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="150"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="G27:L27"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="G33:L33"/>
     <mergeCell ref="G35:L35"/>
     <mergeCell ref="G36:L36"/>
     <mergeCell ref="G37:L37"/>
     <mergeCell ref="G28:L28"/>
     <mergeCell ref="G32:L32"/>
     <mergeCell ref="G34:L34"/>
-    <mergeCell ref="G27:L27"/>
-    <mergeCell ref="G29:L29"/>
-    <mergeCell ref="G30:L30"/>
-    <mergeCell ref="G31:L31"/>
-    <mergeCell ref="G33:L33"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -50429,7 +50385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BCB9BE1-7D35-47F1-BBB7-B629E54AF212}">
   <dimension ref="A2:T35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -50845,14 +50801,14 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="108" t="s">
+      <c r="G27" s="142" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="109"/>
-      <c r="I27" s="109"/>
-      <c r="J27" s="109"/>
-      <c r="K27" s="109"/>
-      <c r="L27" s="110"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="143"/>
+      <c r="K27" s="143"/>
+      <c r="L27" s="144"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="10"/>
@@ -50860,12 +50816,12 @@
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
-      <c r="G28" s="105"/>
-      <c r="H28" s="106"/>
-      <c r="I28" s="106"/>
-      <c r="J28" s="106"/>
-      <c r="K28" s="106"/>
-      <c r="L28" s="107"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="149"/>
+      <c r="K28" s="149"/>
+      <c r="L28" s="150"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="10"/>
@@ -50873,12 +50829,12 @@
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="105"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="106"/>
-      <c r="J29" s="106"/>
-      <c r="K29" s="106"/>
-      <c r="L29" s="107"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="149"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="150"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="10"/>
@@ -50886,12 +50842,12 @@
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="105"/>
-      <c r="H30" s="106"/>
-      <c r="I30" s="106"/>
-      <c r="J30" s="106"/>
-      <c r="K30" s="106"/>
-      <c r="L30" s="107"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="150"/>
     </row>
     <row r="31" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="10"/>
@@ -50899,12 +50855,12 @@
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
-      <c r="G31" s="105"/>
-      <c r="H31" s="106"/>
-      <c r="I31" s="106"/>
-      <c r="J31" s="106"/>
-      <c r="K31" s="106"/>
-      <c r="L31" s="107"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="149"/>
+      <c r="K31" s="149"/>
+      <c r="L31" s="150"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10"/>
@@ -50912,12 +50868,12 @@
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="106"/>
-      <c r="I32" s="106"/>
-      <c r="J32" s="106"/>
-      <c r="K32" s="106"/>
-      <c r="L32" s="107"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="149"/>
+      <c r="K32" s="149"/>
+      <c r="L32" s="150"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10"/>
@@ -50925,12 +50881,12 @@
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="105"/>
-      <c r="H33" s="106"/>
-      <c r="I33" s="106"/>
-      <c r="J33" s="106"/>
-      <c r="K33" s="106"/>
-      <c r="L33" s="107"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="150"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="10"/>
@@ -50938,12 +50894,12 @@
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="106"/>
-      <c r="I34" s="106"/>
-      <c r="J34" s="106"/>
-      <c r="K34" s="106"/>
-      <c r="L34" s="107"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="150"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="10"/>
@@ -50951,12 +50907,12 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="106"/>
-      <c r="I35" s="106"/>
-      <c r="J35" s="106"/>
-      <c r="K35" s="106"/>
-      <c r="L35" s="107"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="150"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -52830,14 +52786,14 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="108" t="s">
+      <c r="G27" s="142" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="109"/>
-      <c r="I27" s="109"/>
-      <c r="J27" s="109"/>
-      <c r="K27" s="109"/>
-      <c r="L27" s="110"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="143"/>
+      <c r="K27" s="143"/>
+      <c r="L27" s="144"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="87" t="s">
@@ -52855,17 +52811,17 @@
       <c r="F28" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G28" s="111" t="s">
+      <c r="G28" s="138" t="s">
         <v>210</v>
       </c>
-      <c r="H28" s="112"/>
-      <c r="I28" s="112"/>
-      <c r="J28" s="112"/>
-      <c r="K28" s="112"/>
-      <c r="L28" s="113"/>
+      <c r="H28" s="139"/>
+      <c r="I28" s="139"/>
+      <c r="J28" s="139"/>
+      <c r="K28" s="139"/>
+      <c r="L28" s="140"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="163" t="s">
+      <c r="B29" s="126" t="s">
         <v>211</v>
       </c>
       <c r="C29" s="87" t="s">
@@ -52880,17 +52836,17 @@
       <c r="F29" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G29" s="111" t="s">
+      <c r="G29" s="138" t="s">
         <v>212</v>
       </c>
-      <c r="H29" s="112"/>
-      <c r="I29" s="112"/>
-      <c r="J29" s="112"/>
-      <c r="K29" s="112"/>
-      <c r="L29" s="113"/>
+      <c r="H29" s="139"/>
+      <c r="I29" s="139"/>
+      <c r="J29" s="139"/>
+      <c r="K29" s="139"/>
+      <c r="L29" s="140"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="164" t="s">
+      <c r="B30" s="127" t="s">
         <v>16</v>
       </c>
       <c r="C30" s="87" t="s">
@@ -52905,17 +52861,17 @@
       <c r="F30" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G30" s="111" t="s">
+      <c r="G30" s="138" t="s">
         <v>210</v>
       </c>
-      <c r="H30" s="112"/>
-      <c r="I30" s="112"/>
-      <c r="J30" s="112"/>
-      <c r="K30" s="112"/>
-      <c r="L30" s="113"/>
+      <c r="H30" s="139"/>
+      <c r="I30" s="139"/>
+      <c r="J30" s="139"/>
+      <c r="K30" s="139"/>
+      <c r="L30" s="140"/>
     </row>
     <row r="31" spans="2:17" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="164" t="s">
+      <c r="B31" s="127" t="s">
         <v>17</v>
       </c>
       <c r="C31" s="87" t="s">
@@ -52930,17 +52886,17 @@
       <c r="F31" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G31" s="117" t="s">
+      <c r="G31" s="141" t="s">
         <v>213</v>
       </c>
-      <c r="H31" s="112"/>
-      <c r="I31" s="112"/>
-      <c r="J31" s="112"/>
-      <c r="K31" s="112"/>
-      <c r="L31" s="113"/>
+      <c r="H31" s="139"/>
+      <c r="I31" s="139"/>
+      <c r="J31" s="139"/>
+      <c r="K31" s="139"/>
+      <c r="L31" s="140"/>
     </row>
     <row r="32" spans="2:17" ht="66" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="165" t="s">
+      <c r="B32" s="128" t="s">
         <v>18</v>
       </c>
       <c r="C32" s="87" t="s">
@@ -52955,17 +52911,17 @@
       <c r="F32" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G32" s="117" t="s">
+      <c r="G32" s="141" t="s">
         <v>214</v>
       </c>
-      <c r="H32" s="112"/>
-      <c r="I32" s="112"/>
-      <c r="J32" s="112"/>
-      <c r="K32" s="112"/>
-      <c r="L32" s="113"/>
+      <c r="H32" s="139"/>
+      <c r="I32" s="139"/>
+      <c r="J32" s="139"/>
+      <c r="K32" s="139"/>
+      <c r="L32" s="140"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="166" t="s">
+      <c r="B33" s="129" t="s">
         <v>215</v>
       </c>
       <c r="C33" s="87" t="s">
@@ -52980,17 +52936,17 @@
       <c r="F33" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G33" s="111" t="s">
+      <c r="G33" s="138" t="s">
         <v>216</v>
       </c>
-      <c r="H33" s="112"/>
-      <c r="I33" s="112"/>
-      <c r="J33" s="112"/>
-      <c r="K33" s="112"/>
-      <c r="L33" s="113"/>
+      <c r="H33" s="139"/>
+      <c r="I33" s="139"/>
+      <c r="J33" s="139"/>
+      <c r="K33" s="139"/>
+      <c r="L33" s="140"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="165" t="s">
+      <c r="B34" s="128" t="s">
         <v>217</v>
       </c>
       <c r="C34" s="87" t="s">
@@ -53005,31 +52961,31 @@
       <c r="F34" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G34" s="111" t="s">
+      <c r="G34" s="138" t="s">
         <v>218</v>
       </c>
-      <c r="H34" s="112"/>
-      <c r="I34" s="112"/>
-      <c r="J34" s="112"/>
-      <c r="K34" s="112"/>
-      <c r="L34" s="113"/>
+      <c r="H34" s="139"/>
+      <c r="I34" s="139"/>
+      <c r="J34" s="139"/>
+      <c r="K34" s="139"/>
+      <c r="L34" s="140"/>
     </row>
     <row r="35" spans="2:12" ht="84" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="167" t="s">
+      <c r="B35" s="130" t="s">
         <v>102</v>
       </c>
       <c r="C35" s="87"/>
       <c r="D35" s="87"/>
       <c r="E35" s="87"/>
       <c r="F35" s="87"/>
-      <c r="G35" s="117" t="s">
+      <c r="G35" s="141" t="s">
         <v>219</v>
       </c>
-      <c r="H35" s="112"/>
-      <c r="I35" s="112"/>
-      <c r="J35" s="112"/>
-      <c r="K35" s="112"/>
-      <c r="L35" s="113"/>
+      <c r="H35" s="139"/>
+      <c r="I35" s="139"/>
+      <c r="J35" s="139"/>
+      <c r="K35" s="139"/>
+      <c r="L35" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -53168,17 +53124,17 @@
       <c r="Q7" s="90"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B8" s="168"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="169"/>
-      <c r="H8" s="169"/>
-      <c r="I8" s="169"/>
-      <c r="J8" s="169"/>
-      <c r="K8" s="169"/>
-      <c r="L8" s="170"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="132"/>
+      <c r="K8" s="132"/>
+      <c r="L8" s="133"/>
       <c r="N8" s="7"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
@@ -53468,17 +53424,17 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="108" t="s">
+      <c r="G27" s="142" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="109"/>
-      <c r="I27" s="109"/>
-      <c r="J27" s="109"/>
-      <c r="K27" s="109"/>
-      <c r="L27" s="110"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="143"/>
+      <c r="K27" s="143"/>
+      <c r="L27" s="144"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="171" t="s">
+      <c r="B28" s="134" t="s">
         <v>138</v>
       </c>
       <c r="C28" s="87" t="s">
@@ -53487,20 +53443,20 @@
       <c r="D28" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="E28" s="172" t="s">
+      <c r="E28" s="135" t="s">
         <v>140</v>
       </c>
       <c r="F28" s="87">
         <v>256</v>
       </c>
-      <c r="G28" s="173" t="s">
+      <c r="G28" s="145" t="s">
         <v>141</v>
       </c>
-      <c r="H28" s="174"/>
-      <c r="I28" s="174"/>
-      <c r="J28" s="174"/>
-      <c r="K28" s="174"/>
-      <c r="L28" s="175"/>
+      <c r="H28" s="146"/>
+      <c r="I28" s="146"/>
+      <c r="J28" s="146"/>
+      <c r="K28" s="146"/>
+      <c r="L28" s="147"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="91" t="s">
@@ -53518,14 +53474,14 @@
       <c r="F29" s="87">
         <v>16</v>
       </c>
-      <c r="G29" s="173" t="s">
+      <c r="G29" s="145" t="s">
         <v>223</v>
       </c>
-      <c r="H29" s="174"/>
-      <c r="I29" s="174"/>
-      <c r="J29" s="174"/>
-      <c r="K29" s="174"/>
-      <c r="L29" s="175"/>
+      <c r="H29" s="146"/>
+      <c r="I29" s="146"/>
+      <c r="J29" s="146"/>
+      <c r="K29" s="146"/>
+      <c r="L29" s="147"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="87" t="s">
@@ -53543,14 +53499,14 @@
       <c r="F30" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G30" s="173" t="s">
+      <c r="G30" s="145" t="s">
         <v>223</v>
       </c>
-      <c r="H30" s="174"/>
-      <c r="I30" s="174"/>
-      <c r="J30" s="174"/>
-      <c r="K30" s="174"/>
-      <c r="L30" s="175"/>
+      <c r="H30" s="146"/>
+      <c r="I30" s="146"/>
+      <c r="J30" s="146"/>
+      <c r="K30" s="146"/>
+      <c r="L30" s="147"/>
     </row>
     <row r="31" spans="2:17" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="87" t="s">
@@ -53568,14 +53524,14 @@
       <c r="F31" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G31" s="117" t="s">
+      <c r="G31" s="141" t="s">
         <v>229</v>
       </c>
-      <c r="H31" s="112"/>
-      <c r="I31" s="112"/>
-      <c r="J31" s="112"/>
-      <c r="K31" s="112"/>
-      <c r="L31" s="113"/>
+      <c r="H31" s="139"/>
+      <c r="I31" s="139"/>
+      <c r="J31" s="139"/>
+      <c r="K31" s="139"/>
+      <c r="L31" s="140"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="92" t="s">
@@ -53593,14 +53549,14 @@
       <c r="F32" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G32" s="111" t="s">
+      <c r="G32" s="138" t="s">
         <v>231</v>
       </c>
-      <c r="H32" s="112"/>
-      <c r="I32" s="112"/>
-      <c r="J32" s="112"/>
-      <c r="K32" s="112"/>
-      <c r="L32" s="113"/>
+      <c r="H32" s="139"/>
+      <c r="I32" s="139"/>
+      <c r="J32" s="139"/>
+      <c r="K32" s="139"/>
+      <c r="L32" s="140"/>
     </row>
     <row r="33" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="92" t="s">
@@ -53618,14 +53574,14 @@
       <c r="F33" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G33" s="117" t="s">
+      <c r="G33" s="141" t="s">
         <v>233</v>
       </c>
-      <c r="H33" s="112"/>
-      <c r="I33" s="112"/>
-      <c r="J33" s="112"/>
-      <c r="K33" s="112"/>
-      <c r="L33" s="113"/>
+      <c r="H33" s="139"/>
+      <c r="I33" s="139"/>
+      <c r="J33" s="139"/>
+      <c r="K33" s="139"/>
+      <c r="L33" s="140"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="92" t="s">
@@ -53643,14 +53599,14 @@
       <c r="F34" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G34" s="117" t="s">
+      <c r="G34" s="141" t="s">
         <v>234</v>
       </c>
-      <c r="H34" s="112"/>
-      <c r="I34" s="112"/>
-      <c r="J34" s="112"/>
-      <c r="K34" s="112"/>
-      <c r="L34" s="113"/>
+      <c r="H34" s="139"/>
+      <c r="I34" s="139"/>
+      <c r="J34" s="139"/>
+      <c r="K34" s="139"/>
+      <c r="L34" s="140"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="91" t="s">
@@ -53668,14 +53624,14 @@
       <c r="F35" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G35" s="173" t="s">
+      <c r="G35" s="145" t="s">
         <v>236</v>
       </c>
-      <c r="H35" s="174"/>
-      <c r="I35" s="174"/>
-      <c r="J35" s="174"/>
-      <c r="K35" s="174"/>
-      <c r="L35" s="175"/>
+      <c r="H35" s="146"/>
+      <c r="I35" s="146"/>
+      <c r="J35" s="146"/>
+      <c r="K35" s="146"/>
+      <c r="L35" s="147"/>
     </row>
     <row r="36" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="92" t="s">
@@ -53685,14 +53641,14 @@
       <c r="D36" s="87"/>
       <c r="E36" s="87"/>
       <c r="F36" s="87"/>
-      <c r="G36" s="117" t="s">
+      <c r="G36" s="141" t="s">
         <v>237</v>
       </c>
-      <c r="H36" s="112"/>
-      <c r="I36" s="112"/>
-      <c r="J36" s="112"/>
-      <c r="K36" s="112"/>
-      <c r="L36" s="113"/>
+      <c r="H36" s="139"/>
+      <c r="I36" s="139"/>
+      <c r="J36" s="139"/>
+      <c r="K36" s="139"/>
+      <c r="L36" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -53718,7 +53674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A193EA-3B3A-4E17-A063-CF815AE52B6C}">
   <dimension ref="A2:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -54131,14 +54087,14 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="108" t="s">
+      <c r="G27" s="142" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="109"/>
-      <c r="I27" s="109"/>
-      <c r="J27" s="109"/>
-      <c r="K27" s="109"/>
-      <c r="L27" s="110"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="143"/>
+      <c r="K27" s="143"/>
+      <c r="L27" s="144"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="10" t="s">
@@ -54150,20 +54106,20 @@
       <c r="D28" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="E28" s="127" t="s">
+      <c r="E28" s="104" t="s">
         <v>140</v>
       </c>
       <c r="F28" s="10">
         <v>256</v>
       </c>
-      <c r="G28" s="128" t="s">
+      <c r="G28" s="151" t="s">
         <v>141</v>
       </c>
-      <c r="H28" s="129"/>
-      <c r="I28" s="129"/>
-      <c r="J28" s="129"/>
-      <c r="K28" s="129"/>
-      <c r="L28" s="130"/>
+      <c r="H28" s="152"/>
+      <c r="I28" s="152"/>
+      <c r="J28" s="152"/>
+      <c r="K28" s="152"/>
+      <c r="L28" s="153"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="10" t="s">
@@ -54181,14 +54137,14 @@
       <c r="F29" s="10">
         <v>16</v>
       </c>
-      <c r="G29" s="111" t="s">
+      <c r="G29" s="138" t="s">
         <v>145</v>
       </c>
-      <c r="H29" s="112"/>
-      <c r="I29" s="112"/>
-      <c r="J29" s="112"/>
-      <c r="K29" s="112"/>
-      <c r="L29" s="113"/>
+      <c r="H29" s="139"/>
+      <c r="I29" s="139"/>
+      <c r="J29" s="139"/>
+      <c r="K29" s="139"/>
+      <c r="L29" s="140"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="10" t="s">
@@ -54206,14 +54162,14 @@
       <c r="F30" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G30" s="117" t="s">
+      <c r="G30" s="141" t="s">
         <v>148</v>
       </c>
-      <c r="H30" s="112"/>
-      <c r="I30" s="112"/>
-      <c r="J30" s="112"/>
-      <c r="K30" s="112"/>
-      <c r="L30" s="113"/>
+      <c r="H30" s="139"/>
+      <c r="I30" s="139"/>
+      <c r="J30" s="139"/>
+      <c r="K30" s="139"/>
+      <c r="L30" s="140"/>
     </row>
     <row r="31" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="87" t="s">
@@ -54231,14 +54187,14 @@
       <c r="F31" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G31" s="120" t="s">
+      <c r="G31" s="154" t="s">
         <v>149</v>
       </c>
-      <c r="H31" s="121"/>
-      <c r="I31" s="121"/>
-      <c r="J31" s="121"/>
-      <c r="K31" s="121"/>
-      <c r="L31" s="122"/>
+      <c r="H31" s="155"/>
+      <c r="I31" s="155"/>
+      <c r="J31" s="155"/>
+      <c r="K31" s="155"/>
+      <c r="L31" s="156"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10"/>
@@ -54246,12 +54202,12 @@
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="111"/>
-      <c r="H32" s="112"/>
-      <c r="I32" s="112"/>
-      <c r="J32" s="112"/>
-      <c r="K32" s="112"/>
-      <c r="L32" s="113"/>
+      <c r="G32" s="138"/>
+      <c r="H32" s="139"/>
+      <c r="I32" s="139"/>
+      <c r="J32" s="139"/>
+      <c r="K32" s="139"/>
+      <c r="L32" s="140"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="98"/>
@@ -54259,12 +54215,12 @@
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="111"/>
-      <c r="H33" s="112"/>
-      <c r="I33" s="112"/>
-      <c r="J33" s="112"/>
-      <c r="K33" s="112"/>
-      <c r="L33" s="113"/>
+      <c r="G33" s="138"/>
+      <c r="H33" s="139"/>
+      <c r="I33" s="139"/>
+      <c r="J33" s="139"/>
+      <c r="K33" s="139"/>
+      <c r="L33" s="140"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="10"/>
@@ -54272,12 +54228,12 @@
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="106"/>
-      <c r="I34" s="106"/>
-      <c r="J34" s="106"/>
-      <c r="K34" s="106"/>
-      <c r="L34" s="107"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="150"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="10"/>
@@ -54285,12 +54241,12 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="106"/>
-      <c r="I35" s="106"/>
-      <c r="J35" s="106"/>
-      <c r="K35" s="106"/>
-      <c r="L35" s="107"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="150"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -54728,14 +54684,14 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="108" t="s">
+      <c r="G27" s="142" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="109"/>
-      <c r="I27" s="109"/>
-      <c r="J27" s="109"/>
-      <c r="K27" s="109"/>
-      <c r="L27" s="110"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="143"/>
+      <c r="K27" s="143"/>
+      <c r="L27" s="144"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="87" t="s">
@@ -54753,14 +54709,14 @@
       <c r="F28" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G28" s="120" t="s">
+      <c r="G28" s="154" t="s">
         <v>149</v>
       </c>
-      <c r="H28" s="121"/>
-      <c r="I28" s="121"/>
-      <c r="J28" s="121"/>
-      <c r="K28" s="121"/>
-      <c r="L28" s="122"/>
+      <c r="H28" s="155"/>
+      <c r="I28" s="155"/>
+      <c r="J28" s="155"/>
+      <c r="K28" s="155"/>
+      <c r="L28" s="156"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="10"/>
@@ -54768,12 +54724,12 @@
       <c r="D29" s="87"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="105"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="106"/>
-      <c r="J29" s="106"/>
-      <c r="K29" s="106"/>
-      <c r="L29" s="107"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="149"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="150"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="10"/>
@@ -54781,12 +54737,12 @@
       <c r="D30" s="87"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="117"/>
-      <c r="H30" s="112"/>
-      <c r="I30" s="112"/>
-      <c r="J30" s="112"/>
-      <c r="K30" s="112"/>
-      <c r="L30" s="113"/>
+      <c r="G30" s="141"/>
+      <c r="H30" s="139"/>
+      <c r="I30" s="139"/>
+      <c r="J30" s="139"/>
+      <c r="K30" s="139"/>
+      <c r="L30" s="140"/>
     </row>
     <row r="31" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="10"/>
@@ -54794,12 +54750,12 @@
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
-      <c r="G31" s="111"/>
-      <c r="H31" s="112"/>
-      <c r="I31" s="112"/>
-      <c r="J31" s="112"/>
-      <c r="K31" s="112"/>
-      <c r="L31" s="113"/>
+      <c r="G31" s="138"/>
+      <c r="H31" s="139"/>
+      <c r="I31" s="139"/>
+      <c r="J31" s="139"/>
+      <c r="K31" s="139"/>
+      <c r="L31" s="140"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10"/>
@@ -54807,12 +54763,12 @@
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="111"/>
-      <c r="H32" s="112"/>
-      <c r="I32" s="112"/>
-      <c r="J32" s="112"/>
-      <c r="K32" s="112"/>
-      <c r="L32" s="113"/>
+      <c r="G32" s="138"/>
+      <c r="H32" s="139"/>
+      <c r="I32" s="139"/>
+      <c r="J32" s="139"/>
+      <c r="K32" s="139"/>
+      <c r="L32" s="140"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="98"/>
@@ -54820,12 +54776,12 @@
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="111"/>
-      <c r="H33" s="112"/>
-      <c r="I33" s="112"/>
-      <c r="J33" s="112"/>
-      <c r="K33" s="112"/>
-      <c r="L33" s="113"/>
+      <c r="G33" s="138"/>
+      <c r="H33" s="139"/>
+      <c r="I33" s="139"/>
+      <c r="J33" s="139"/>
+      <c r="K33" s="139"/>
+      <c r="L33" s="140"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="10"/>
@@ -54833,12 +54789,12 @@
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="106"/>
-      <c r="I34" s="106"/>
-      <c r="J34" s="106"/>
-      <c r="K34" s="106"/>
-      <c r="L34" s="107"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="150"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="10"/>
@@ -54846,12 +54802,12 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="106"/>
-      <c r="I35" s="106"/>
-      <c r="J35" s="106"/>
-      <c r="K35" s="106"/>
-      <c r="L35" s="107"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="150"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -55289,14 +55245,14 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="108" t="s">
+      <c r="G27" s="142" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="109"/>
-      <c r="I27" s="109"/>
-      <c r="J27" s="109"/>
-      <c r="K27" s="109"/>
-      <c r="L27" s="110"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="143"/>
+      <c r="K27" s="143"/>
+      <c r="L27" s="144"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="87" t="s">
@@ -55314,14 +55270,14 @@
       <c r="F28" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G28" s="120" t="s">
+      <c r="G28" s="154" t="s">
         <v>149</v>
       </c>
-      <c r="H28" s="121"/>
-      <c r="I28" s="121"/>
-      <c r="J28" s="121"/>
-      <c r="K28" s="121"/>
-      <c r="L28" s="122"/>
+      <c r="H28" s="155"/>
+      <c r="I28" s="155"/>
+      <c r="J28" s="155"/>
+      <c r="K28" s="155"/>
+      <c r="L28" s="156"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="10"/>
@@ -55329,12 +55285,12 @@
       <c r="D29" s="87"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="105"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="106"/>
-      <c r="J29" s="106"/>
-      <c r="K29" s="106"/>
-      <c r="L29" s="107"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="149"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="150"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="10"/>
@@ -55342,12 +55298,12 @@
       <c r="D30" s="87"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="117"/>
-      <c r="H30" s="112"/>
-      <c r="I30" s="112"/>
-      <c r="J30" s="112"/>
-      <c r="K30" s="112"/>
-      <c r="L30" s="113"/>
+      <c r="G30" s="141"/>
+      <c r="H30" s="139"/>
+      <c r="I30" s="139"/>
+      <c r="J30" s="139"/>
+      <c r="K30" s="139"/>
+      <c r="L30" s="140"/>
     </row>
     <row r="31" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="10"/>
@@ -55355,12 +55311,12 @@
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
-      <c r="G31" s="111"/>
-      <c r="H31" s="112"/>
-      <c r="I31" s="112"/>
-      <c r="J31" s="112"/>
-      <c r="K31" s="112"/>
-      <c r="L31" s="113"/>
+      <c r="G31" s="138"/>
+      <c r="H31" s="139"/>
+      <c r="I31" s="139"/>
+      <c r="J31" s="139"/>
+      <c r="K31" s="139"/>
+      <c r="L31" s="140"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10"/>
@@ -55368,12 +55324,12 @@
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="111"/>
-      <c r="H32" s="112"/>
-      <c r="I32" s="112"/>
-      <c r="J32" s="112"/>
-      <c r="K32" s="112"/>
-      <c r="L32" s="113"/>
+      <c r="G32" s="138"/>
+      <c r="H32" s="139"/>
+      <c r="I32" s="139"/>
+      <c r="J32" s="139"/>
+      <c r="K32" s="139"/>
+      <c r="L32" s="140"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="98"/>
@@ -55381,12 +55337,12 @@
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="111"/>
-      <c r="H33" s="112"/>
-      <c r="I33" s="112"/>
-      <c r="J33" s="112"/>
-      <c r="K33" s="112"/>
-      <c r="L33" s="113"/>
+      <c r="G33" s="138"/>
+      <c r="H33" s="139"/>
+      <c r="I33" s="139"/>
+      <c r="J33" s="139"/>
+      <c r="K33" s="139"/>
+      <c r="L33" s="140"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="10"/>
@@ -55394,12 +55350,12 @@
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="106"/>
-      <c r="I34" s="106"/>
-      <c r="J34" s="106"/>
-      <c r="K34" s="106"/>
-      <c r="L34" s="107"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="150"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="10"/>
@@ -55407,12 +55363,12 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="106"/>
-      <c r="I35" s="106"/>
-      <c r="J35" s="106"/>
-      <c r="K35" s="106"/>
-      <c r="L35" s="107"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="150"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/提出物/詳細設計書.xlsx
+++ b/提出物/詳細設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\GUYS\提出物\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A86DDC-2E09-4599-B119-D50EC22C6074}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6090AE-2CA0-4C52-9CE6-91C8CBC5A4CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" tabRatio="820" firstSheet="11" activeTab="18" xr2:uid="{D1900441-24B9-4624-8A47-94F74F569874}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" tabRatio="820" activeTab="2" xr2:uid="{D1900441-24B9-4624-8A47-94F74F569874}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -266,7 +266,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="296">
   <si>
     <t>関係者外秘</t>
     <rPh sb="0" eb="3">
@@ -402,13 +402,6 @@
     <t>データベース定義</t>
     <rPh sb="6" eb="8">
       <t>テイギ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ユーザー情報（user）</t>
-    <rPh sb="4" eb="6">
-      <t>ジョウホウ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -848,10 +841,6 @@
   </si>
   <si>
     <t>shopInfo</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>user</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -2581,6 +2570,27 @@
     <t>custom.php</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>ユーザー情報（users）</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>2021/5/20テーブル名変更</t>
+    <rPh sb="13" eb="14">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>users</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -3141,7 +3151,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3536,6 +3546,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -42241,7 +42254,7 @@
   <dimension ref="B2:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.875" defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
@@ -42527,6 +42540,12 @@
         <v>2</v>
       </c>
     </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B16" s="138" t="s">
+        <v>294</v>
+      </c>
+      <c r="C16" s="138"/>
+    </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18" s="137" t="s">
         <v>3</v>
@@ -42535,8 +42554,9 @@
       <c r="D18" s="137"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -42563,11 +42583,11 @@
     <row r="2" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -42727,25 +42747,25 @@
     <row r="12" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B12" s="7"/>
       <c r="C12" s="110" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12" s="111" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" s="110" t="s">
         <v>166</v>
       </c>
-      <c r="D12" s="111" t="s">
+      <c r="F12" s="112" t="s">
         <v>167</v>
       </c>
-      <c r="E12" s="110" t="s">
+      <c r="G12" s="113" t="s">
         <v>168</v>
       </c>
-      <c r="F12" s="112" t="s">
+      <c r="H12" s="113" t="s">
         <v>169</v>
       </c>
-      <c r="G12" s="113" t="s">
+      <c r="I12" s="114" t="s">
         <v>170</v>
-      </c>
-      <c r="H12" s="113" t="s">
-        <v>171</v>
-      </c>
-      <c r="I12" s="114" t="s">
-        <v>172</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -42757,26 +42777,26 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B13" s="7"/>
-      <c r="C13" s="164">
+      <c r="C13" s="165">
         <v>1</v>
       </c>
-      <c r="D13" s="164" t="s">
+      <c r="D13" s="165" t="s">
+        <v>171</v>
+      </c>
+      <c r="E13" s="158" t="s">
+        <v>172</v>
+      </c>
+      <c r="F13" s="168" t="s">
         <v>173</v>
       </c>
-      <c r="E13" s="157" t="s">
-        <v>174</v>
-      </c>
-      <c r="F13" s="167" t="s">
-        <v>175</v>
-      </c>
-      <c r="G13" s="157" t="s">
-        <v>101</v>
-      </c>
-      <c r="H13" s="157" t="s">
-        <v>101</v>
-      </c>
-      <c r="I13" s="157" t="s">
-        <v>101</v>
+      <c r="G13" s="158" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="158" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13" s="158" t="s">
+        <v>99</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -42788,13 +42808,13 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B14" s="7"/>
-      <c r="C14" s="164"/>
-      <c r="D14" s="164"/>
-      <c r="E14" s="158"/>
-      <c r="F14" s="168"/>
-      <c r="G14" s="158"/>
-      <c r="H14" s="158"/>
-      <c r="I14" s="158"/>
+      <c r="C14" s="165"/>
+      <c r="D14" s="165"/>
+      <c r="E14" s="159"/>
+      <c r="F14" s="169"/>
+      <c r="G14" s="159"/>
+      <c r="H14" s="159"/>
+      <c r="I14" s="159"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="115"/>
@@ -42805,26 +42825,26 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B15" s="7"/>
-      <c r="C15" s="164">
+      <c r="C15" s="165">
         <v>2</v>
       </c>
-      <c r="D15" s="157" t="s">
-        <v>176</v>
-      </c>
-      <c r="E15" s="157" t="s">
+      <c r="D15" s="158" t="s">
         <v>174</v>
       </c>
-      <c r="F15" s="165" t="s">
-        <v>177</v>
-      </c>
-      <c r="G15" s="157" t="s">
-        <v>101</v>
-      </c>
-      <c r="H15" s="157" t="s">
-        <v>101</v>
-      </c>
-      <c r="I15" s="157" t="s">
-        <v>101</v>
+      <c r="E15" s="158" t="s">
+        <v>172</v>
+      </c>
+      <c r="F15" s="166" t="s">
+        <v>175</v>
+      </c>
+      <c r="G15" s="158" t="s">
+        <v>99</v>
+      </c>
+      <c r="H15" s="158" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15" s="158" t="s">
+        <v>99</v>
       </c>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -42836,13 +42856,13 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B16" s="7"/>
-      <c r="C16" s="164"/>
-      <c r="D16" s="158"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="166"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="159"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="159"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9"/>
@@ -42853,26 +42873,26 @@
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B17" s="7"/>
-      <c r="C17" s="164">
+      <c r="C17" s="165">
         <v>3</v>
       </c>
-      <c r="D17" s="157" t="s">
-        <v>178</v>
-      </c>
-      <c r="E17" s="157" t="s">
-        <v>174</v>
-      </c>
-      <c r="F17" s="165" t="s">
-        <v>179</v>
-      </c>
-      <c r="G17" s="157" t="s">
-        <v>101</v>
-      </c>
-      <c r="H17" s="157" t="s">
-        <v>101</v>
-      </c>
-      <c r="I17" s="157" t="s">
-        <v>101</v>
+      <c r="D17" s="158" t="s">
+        <v>176</v>
+      </c>
+      <c r="E17" s="158" t="s">
+        <v>172</v>
+      </c>
+      <c r="F17" s="166" t="s">
+        <v>177</v>
+      </c>
+      <c r="G17" s="158" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="158" t="s">
+        <v>99</v>
+      </c>
+      <c r="I17" s="158" t="s">
+        <v>99</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
@@ -42884,13 +42904,13 @@
     </row>
     <row r="18" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="7"/>
-      <c r="C18" s="164"/>
-      <c r="D18" s="158"/>
-      <c r="E18" s="158"/>
-      <c r="F18" s="166"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="158"/>
-      <c r="I18" s="158"/>
+      <c r="C18" s="165"/>
+      <c r="D18" s="159"/>
+      <c r="E18" s="159"/>
+      <c r="F18" s="167"/>
+      <c r="G18" s="159"/>
+      <c r="H18" s="159"/>
+      <c r="I18" s="159"/>
       <c r="J18" s="107"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9"/>
@@ -43063,114 +43083,114 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="142" t="s">
+      <c r="G27" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="143"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="143"/>
-      <c r="K27" s="143"/>
-      <c r="L27" s="144"/>
+      <c r="H27" s="144"/>
+      <c r="I27" s="144"/>
+      <c r="J27" s="144"/>
+      <c r="K27" s="144"/>
+      <c r="L27" s="145"/>
     </row>
     <row r="28" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="120" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C28" s="87" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D28" s="87" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E28" s="87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F28" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G28" s="159" t="s">
-        <v>181</v>
-      </c>
-      <c r="H28" s="155"/>
-      <c r="I28" s="155"/>
-      <c r="J28" s="155"/>
-      <c r="K28" s="155"/>
-      <c r="L28" s="156"/>
+        <v>99</v>
+      </c>
+      <c r="G28" s="160" t="s">
+        <v>179</v>
+      </c>
+      <c r="H28" s="156"/>
+      <c r="I28" s="156"/>
+      <c r="J28" s="156"/>
+      <c r="K28" s="156"/>
+      <c r="L28" s="157"/>
     </row>
     <row r="29" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="121" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C29" s="87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D29" s="87" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E29" s="87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F29" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G29" s="160" t="s">
-        <v>183</v>
-      </c>
-      <c r="H29" s="155"/>
-      <c r="I29" s="155"/>
-      <c r="J29" s="155"/>
-      <c r="K29" s="155"/>
-      <c r="L29" s="156"/>
+        <v>99</v>
+      </c>
+      <c r="G29" s="161" t="s">
+        <v>181</v>
+      </c>
+      <c r="H29" s="156"/>
+      <c r="I29" s="156"/>
+      <c r="J29" s="156"/>
+      <c r="K29" s="156"/>
+      <c r="L29" s="157"/>
     </row>
     <row r="30" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="91" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C30" s="87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D30" s="87" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E30" s="87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F30" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G30" s="161" t="s">
-        <v>184</v>
-      </c>
-      <c r="H30" s="162"/>
-      <c r="I30" s="162"/>
-      <c r="J30" s="162"/>
-      <c r="K30" s="162"/>
-      <c r="L30" s="163"/>
+        <v>99</v>
+      </c>
+      <c r="G30" s="162" t="s">
+        <v>182</v>
+      </c>
+      <c r="H30" s="163"/>
+      <c r="I30" s="163"/>
+      <c r="J30" s="163"/>
+      <c r="K30" s="163"/>
+      <c r="L30" s="164"/>
     </row>
     <row r="31" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="87" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C31" s="87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D31" s="87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E31" s="87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F31" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G31" s="154" t="s">
-        <v>149</v>
-      </c>
-      <c r="H31" s="155"/>
-      <c r="I31" s="155"/>
-      <c r="J31" s="155"/>
-      <c r="K31" s="155"/>
-      <c r="L31" s="156"/>
+        <v>99</v>
+      </c>
+      <c r="G31" s="155" t="s">
+        <v>147</v>
+      </c>
+      <c r="H31" s="156"/>
+      <c r="I31" s="156"/>
+      <c r="J31" s="156"/>
+      <c r="K31" s="156"/>
+      <c r="L31" s="157"/>
     </row>
     <row r="32" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="87"/>
@@ -43178,12 +43198,12 @@
       <c r="D32" s="87"/>
       <c r="E32" s="87"/>
       <c r="F32" s="87"/>
-      <c r="G32" s="154"/>
-      <c r="H32" s="155"/>
-      <c r="I32" s="155"/>
-      <c r="J32" s="155"/>
-      <c r="K32" s="155"/>
-      <c r="L32" s="156"/>
+      <c r="G32" s="155"/>
+      <c r="H32" s="156"/>
+      <c r="I32" s="156"/>
+      <c r="J32" s="156"/>
+      <c r="K32" s="156"/>
+      <c r="L32" s="157"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="98"/>
@@ -43191,12 +43211,12 @@
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="138"/>
-      <c r="H33" s="139"/>
-      <c r="I33" s="139"/>
-      <c r="J33" s="139"/>
-      <c r="K33" s="139"/>
-      <c r="L33" s="140"/>
+      <c r="G33" s="139"/>
+      <c r="H33" s="140"/>
+      <c r="I33" s="140"/>
+      <c r="J33" s="140"/>
+      <c r="K33" s="140"/>
+      <c r="L33" s="141"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="10"/>
@@ -43204,12 +43224,12 @@
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="148"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="150"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="150"/>
+      <c r="K34" s="150"/>
+      <c r="L34" s="151"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="10"/>
@@ -43217,12 +43237,12 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="148"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="149"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="150"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="150"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="150"/>
+      <c r="K35" s="150"/>
+      <c r="L35" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -43283,11 +43303,11 @@
     <row r="2" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -43682,377 +43702,377 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="142" t="s">
+      <c r="G27" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="143"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="143"/>
-      <c r="K27" s="143"/>
-      <c r="L27" s="144"/>
+      <c r="H27" s="144"/>
+      <c r="I27" s="144"/>
+      <c r="J27" s="144"/>
+      <c r="K27" s="144"/>
+      <c r="L27" s="145"/>
     </row>
     <row r="28" spans="2:17" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="134" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C28" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="135" t="s">
         <v>99</v>
       </c>
-      <c r="D28" s="87" t="s">
-        <v>100</v>
-      </c>
-      <c r="E28" s="135" t="s">
-        <v>101</v>
-      </c>
       <c r="F28" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G28" s="145" t="s">
-        <v>236</v>
-      </c>
-      <c r="H28" s="146"/>
-      <c r="I28" s="146"/>
-      <c r="J28" s="146"/>
-      <c r="K28" s="146"/>
-      <c r="L28" s="147"/>
+        <v>99</v>
+      </c>
+      <c r="G28" s="146" t="s">
+        <v>234</v>
+      </c>
+      <c r="H28" s="147"/>
+      <c r="I28" s="147"/>
+      <c r="J28" s="147"/>
+      <c r="K28" s="147"/>
+      <c r="L28" s="148"/>
     </row>
     <row r="29" spans="2:17" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="91" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C29" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="D29" s="87" t="s">
-        <v>100</v>
-      </c>
-      <c r="E29" s="87" t="s">
-        <v>101</v>
-      </c>
       <c r="F29" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G29" s="145" t="s">
-        <v>267</v>
-      </c>
-      <c r="H29" s="146"/>
-      <c r="I29" s="146"/>
-      <c r="J29" s="146"/>
-      <c r="K29" s="146"/>
-      <c r="L29" s="147"/>
+        <v>99</v>
+      </c>
+      <c r="G29" s="146" t="s">
+        <v>265</v>
+      </c>
+      <c r="H29" s="147"/>
+      <c r="I29" s="147"/>
+      <c r="J29" s="147"/>
+      <c r="K29" s="147"/>
+      <c r="L29" s="148"/>
     </row>
     <row r="30" spans="2:17" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="87" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C30" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="D30" s="87" t="s">
-        <v>100</v>
-      </c>
-      <c r="E30" s="87" t="s">
-        <v>101</v>
-      </c>
       <c r="F30" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G30" s="145" t="s">
-        <v>269</v>
-      </c>
-      <c r="H30" s="146"/>
-      <c r="I30" s="146"/>
-      <c r="J30" s="146"/>
-      <c r="K30" s="146"/>
-      <c r="L30" s="147"/>
+        <v>99</v>
+      </c>
+      <c r="G30" s="146" t="s">
+        <v>267</v>
+      </c>
+      <c r="H30" s="147"/>
+      <c r="I30" s="147"/>
+      <c r="J30" s="147"/>
+      <c r="K30" s="147"/>
+      <c r="L30" s="148"/>
     </row>
     <row r="31" spans="2:17" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="87" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C31" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="87" t="s">
-        <v>100</v>
-      </c>
-      <c r="E31" s="87" t="s">
-        <v>101</v>
-      </c>
       <c r="F31" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G31" s="141" t="s">
-        <v>271</v>
-      </c>
-      <c r="H31" s="139"/>
-      <c r="I31" s="139"/>
-      <c r="J31" s="139"/>
-      <c r="K31" s="139"/>
-      <c r="L31" s="140"/>
+        <v>99</v>
+      </c>
+      <c r="G31" s="142" t="s">
+        <v>269</v>
+      </c>
+      <c r="H31" s="140"/>
+      <c r="I31" s="140"/>
+      <c r="J31" s="140"/>
+      <c r="K31" s="140"/>
+      <c r="L31" s="141"/>
     </row>
     <row r="32" spans="2:17" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="136" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C32" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="D32" s="87" t="s">
-        <v>100</v>
-      </c>
-      <c r="E32" s="87" t="s">
-        <v>101</v>
-      </c>
       <c r="F32" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G32" s="138" t="s">
-        <v>273</v>
-      </c>
-      <c r="H32" s="139"/>
-      <c r="I32" s="139"/>
-      <c r="J32" s="139"/>
-      <c r="K32" s="139"/>
-      <c r="L32" s="140"/>
+        <v>99</v>
+      </c>
+      <c r="G32" s="139" t="s">
+        <v>271</v>
+      </c>
+      <c r="H32" s="140"/>
+      <c r="I32" s="140"/>
+      <c r="J32" s="140"/>
+      <c r="K32" s="140"/>
+      <c r="L32" s="141"/>
     </row>
     <row r="33" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="92" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C33" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="D33" s="87" t="s">
-        <v>100</v>
-      </c>
-      <c r="E33" s="87" t="s">
-        <v>101</v>
-      </c>
       <c r="F33" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G33" s="141" t="s">
-        <v>275</v>
-      </c>
-      <c r="H33" s="139"/>
-      <c r="I33" s="139"/>
-      <c r="J33" s="139"/>
-      <c r="K33" s="139"/>
-      <c r="L33" s="140"/>
+        <v>99</v>
+      </c>
+      <c r="G33" s="142" t="s">
+        <v>273</v>
+      </c>
+      <c r="H33" s="140"/>
+      <c r="I33" s="140"/>
+      <c r="J33" s="140"/>
+      <c r="K33" s="140"/>
+      <c r="L33" s="141"/>
     </row>
     <row r="34" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="92" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C34" s="87" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D34" s="87" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E34" s="87"/>
       <c r="F34" s="87"/>
-      <c r="G34" s="141" t="s">
-        <v>278</v>
-      </c>
-      <c r="H34" s="139"/>
-      <c r="I34" s="139"/>
-      <c r="J34" s="139"/>
-      <c r="K34" s="139"/>
-      <c r="L34" s="140"/>
+      <c r="G34" s="142" t="s">
+        <v>276</v>
+      </c>
+      <c r="H34" s="140"/>
+      <c r="I34" s="140"/>
+      <c r="J34" s="140"/>
+      <c r="K34" s="140"/>
+      <c r="L34" s="141"/>
     </row>
     <row r="35" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="91" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C35" s="87" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D35" s="87" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E35" s="87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F35" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G35" s="145" t="s">
-        <v>280</v>
-      </c>
-      <c r="H35" s="146"/>
-      <c r="I35" s="146"/>
-      <c r="J35" s="146"/>
-      <c r="K35" s="146"/>
-      <c r="L35" s="147"/>
+        <v>99</v>
+      </c>
+      <c r="G35" s="146" t="s">
+        <v>278</v>
+      </c>
+      <c r="H35" s="147"/>
+      <c r="I35" s="147"/>
+      <c r="J35" s="147"/>
+      <c r="K35" s="147"/>
+      <c r="L35" s="148"/>
     </row>
     <row r="36" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="92" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C36" s="87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D36" s="87" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E36" s="87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F36" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G36" s="138" t="s">
-        <v>281</v>
-      </c>
-      <c r="H36" s="139"/>
-      <c r="I36" s="139"/>
-      <c r="J36" s="139"/>
-      <c r="K36" s="139"/>
-      <c r="L36" s="140"/>
+        <v>99</v>
+      </c>
+      <c r="G36" s="139" t="s">
+        <v>279</v>
+      </c>
+      <c r="H36" s="140"/>
+      <c r="I36" s="140"/>
+      <c r="J36" s="140"/>
+      <c r="K36" s="140"/>
+      <c r="L36" s="141"/>
     </row>
     <row r="37" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="92" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C37" s="87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D37" s="87" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E37" s="87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F37" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G37" s="138" t="s">
-        <v>283</v>
-      </c>
-      <c r="H37" s="139"/>
-      <c r="I37" s="139"/>
-      <c r="J37" s="139"/>
-      <c r="K37" s="139"/>
-      <c r="L37" s="140"/>
+        <v>99</v>
+      </c>
+      <c r="G37" s="139" t="s">
+        <v>281</v>
+      </c>
+      <c r="H37" s="140"/>
+      <c r="I37" s="140"/>
+      <c r="J37" s="140"/>
+      <c r="K37" s="140"/>
+      <c r="L37" s="141"/>
     </row>
     <row r="38" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="91" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C38" s="87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D38" s="87" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E38" s="87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F38" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G38" s="138" t="s">
-        <v>285</v>
-      </c>
-      <c r="H38" s="139"/>
-      <c r="I38" s="139"/>
-      <c r="J38" s="139"/>
-      <c r="K38" s="139"/>
-      <c r="L38" s="140"/>
+        <v>99</v>
+      </c>
+      <c r="G38" s="139" t="s">
+        <v>283</v>
+      </c>
+      <c r="H38" s="140"/>
+      <c r="I38" s="140"/>
+      <c r="J38" s="140"/>
+      <c r="K38" s="140"/>
+      <c r="L38" s="141"/>
     </row>
     <row r="39" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="91" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C39" s="87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D39" s="87" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E39" s="87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F39" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G39" s="138" t="s">
-        <v>286</v>
-      </c>
-      <c r="H39" s="139"/>
-      <c r="I39" s="139"/>
-      <c r="J39" s="139"/>
-      <c r="K39" s="139"/>
-      <c r="L39" s="140"/>
+        <v>99</v>
+      </c>
+      <c r="G39" s="139" t="s">
+        <v>284</v>
+      </c>
+      <c r="H39" s="140"/>
+      <c r="I39" s="140"/>
+      <c r="J39" s="140"/>
+      <c r="K39" s="140"/>
+      <c r="L39" s="141"/>
     </row>
     <row r="40" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="91" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C40" s="87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D40" s="87" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E40" s="87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F40" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G40" s="138" t="s">
-        <v>287</v>
-      </c>
-      <c r="H40" s="139"/>
-      <c r="I40" s="139"/>
-      <c r="J40" s="139"/>
-      <c r="K40" s="139"/>
-      <c r="L40" s="140"/>
+        <v>99</v>
+      </c>
+      <c r="G40" s="139" t="s">
+        <v>285</v>
+      </c>
+      <c r="H40" s="140"/>
+      <c r="I40" s="140"/>
+      <c r="J40" s="140"/>
+      <c r="K40" s="140"/>
+      <c r="L40" s="141"/>
     </row>
     <row r="41" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="91" t="s">
+        <v>286</v>
+      </c>
+      <c r="C41" s="87" t="s">
+        <v>287</v>
+      </c>
+      <c r="D41" s="87" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41" s="87" t="s">
+        <v>99</v>
+      </c>
+      <c r="F41" s="87" t="s">
+        <v>99</v>
+      </c>
+      <c r="G41" s="139" t="s">
         <v>288</v>
       </c>
-      <c r="C41" s="87" t="s">
-        <v>289</v>
-      </c>
-      <c r="D41" s="87" t="s">
-        <v>109</v>
-      </c>
-      <c r="E41" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="F41" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G41" s="138" t="s">
-        <v>290</v>
-      </c>
-      <c r="H41" s="139"/>
-      <c r="I41" s="139"/>
-      <c r="J41" s="139"/>
-      <c r="K41" s="139"/>
-      <c r="L41" s="140"/>
+      <c r="H41" s="140"/>
+      <c r="I41" s="140"/>
+      <c r="J41" s="140"/>
+      <c r="K41" s="140"/>
+      <c r="L41" s="141"/>
     </row>
     <row r="42" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="91" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C42" s="87"/>
       <c r="D42" s="87"/>
       <c r="E42" s="87"/>
       <c r="F42" s="87"/>
-      <c r="G42" s="145" t="s">
-        <v>248</v>
-      </c>
-      <c r="H42" s="146"/>
-      <c r="I42" s="146"/>
-      <c r="J42" s="146"/>
-      <c r="K42" s="146"/>
-      <c r="L42" s="147"/>
+      <c r="G42" s="146" t="s">
+        <v>246</v>
+      </c>
+      <c r="H42" s="147"/>
+      <c r="I42" s="147"/>
+      <c r="J42" s="147"/>
+      <c r="K42" s="147"/>
+      <c r="L42" s="148"/>
     </row>
     <row r="43" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="91"/>
@@ -44060,12 +44080,12 @@
       <c r="D43" s="87"/>
       <c r="E43" s="87"/>
       <c r="F43" s="87"/>
-      <c r="G43" s="138"/>
-      <c r="H43" s="139"/>
-      <c r="I43" s="139"/>
-      <c r="J43" s="139"/>
-      <c r="K43" s="139"/>
-      <c r="L43" s="140"/>
+      <c r="G43" s="139"/>
+      <c r="H43" s="140"/>
+      <c r="I43" s="140"/>
+      <c r="J43" s="140"/>
+      <c r="K43" s="140"/>
+      <c r="L43" s="141"/>
     </row>
     <row r="44" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="92"/>
@@ -44073,12 +44093,12 @@
       <c r="D44" s="87"/>
       <c r="E44" s="87"/>
       <c r="F44" s="87"/>
-      <c r="G44" s="141"/>
-      <c r="H44" s="139"/>
-      <c r="I44" s="139"/>
-      <c r="J44" s="139"/>
-      <c r="K44" s="139"/>
-      <c r="L44" s="140"/>
+      <c r="G44" s="142"/>
+      <c r="H44" s="140"/>
+      <c r="I44" s="140"/>
+      <c r="J44" s="140"/>
+      <c r="K44" s="140"/>
+      <c r="L44" s="141"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -44125,10 +44145,10 @@
     <row r="3" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B3" s="122"/>
       <c r="C3" s="123" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D3" s="123" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.4">
@@ -44136,10 +44156,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D4" s="87" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
@@ -44147,10 +44167,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
@@ -44158,10 +44178,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="87" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D6" s="87" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.4">
@@ -44169,10 +44189,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="87" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D7" s="87" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.4">
@@ -44180,10 +44200,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="87" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D8" s="87" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.4">
@@ -44191,10 +44211,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="87" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D9" s="87" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.4">
@@ -44202,10 +44222,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="124" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D10" s="125" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.4">
@@ -44213,10 +44233,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="124" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.4">
@@ -44224,10 +44244,10 @@
         <v>9</v>
       </c>
       <c r="C12" s="87" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D12" s="87" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.4">
@@ -44235,10 +44255,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="87" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D13" s="87" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.4">
@@ -44246,10 +44266,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="87" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D14" s="87" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -44277,11 +44297,11 @@
     <row r="2" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -44676,139 +44696,139 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="142" t="s">
+      <c r="G27" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="143"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="143"/>
-      <c r="K27" s="143"/>
-      <c r="L27" s="144"/>
+      <c r="H27" s="144"/>
+      <c r="I27" s="144"/>
+      <c r="J27" s="144"/>
+      <c r="K27" s="144"/>
+      <c r="L27" s="145"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="105" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C28" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="D28" s="87" t="s">
-        <v>100</v>
-      </c>
-      <c r="E28" s="87" t="s">
-        <v>101</v>
-      </c>
       <c r="F28" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G28" s="160" t="s">
-        <v>157</v>
-      </c>
-      <c r="H28" s="155"/>
-      <c r="I28" s="155"/>
-      <c r="J28" s="155"/>
-      <c r="K28" s="155"/>
-      <c r="L28" s="156"/>
+        <v>99</v>
+      </c>
+      <c r="G28" s="161" t="s">
+        <v>155</v>
+      </c>
+      <c r="H28" s="156"/>
+      <c r="I28" s="156"/>
+      <c r="J28" s="156"/>
+      <c r="K28" s="156"/>
+      <c r="L28" s="157"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="106" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C29" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="D29" s="87" t="s">
-        <v>100</v>
-      </c>
-      <c r="E29" s="87" t="s">
-        <v>101</v>
-      </c>
       <c r="F29" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G29" s="160" t="s">
-        <v>159</v>
-      </c>
-      <c r="H29" s="155"/>
-      <c r="I29" s="155"/>
-      <c r="J29" s="155"/>
-      <c r="K29" s="155"/>
-      <c r="L29" s="156"/>
+        <v>99</v>
+      </c>
+      <c r="G29" s="161" t="s">
+        <v>157</v>
+      </c>
+      <c r="H29" s="156"/>
+      <c r="I29" s="156"/>
+      <c r="J29" s="156"/>
+      <c r="K29" s="156"/>
+      <c r="L29" s="157"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="106" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C30" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="D30" s="87" t="s">
-        <v>100</v>
-      </c>
-      <c r="E30" s="87" t="s">
-        <v>101</v>
-      </c>
       <c r="F30" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G30" s="160" t="s">
-        <v>161</v>
-      </c>
-      <c r="H30" s="155"/>
-      <c r="I30" s="155"/>
-      <c r="J30" s="155"/>
-      <c r="K30" s="155"/>
-      <c r="L30" s="156"/>
+        <v>99</v>
+      </c>
+      <c r="G30" s="161" t="s">
+        <v>159</v>
+      </c>
+      <c r="H30" s="156"/>
+      <c r="I30" s="156"/>
+      <c r="J30" s="156"/>
+      <c r="K30" s="156"/>
+      <c r="L30" s="157"/>
     </row>
     <row r="31" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="106" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C31" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="87" t="s">
-        <v>100</v>
-      </c>
-      <c r="E31" s="87" t="s">
-        <v>101</v>
-      </c>
       <c r="F31" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G31" s="160" t="s">
-        <v>163</v>
-      </c>
-      <c r="H31" s="155"/>
-      <c r="I31" s="155"/>
-      <c r="J31" s="155"/>
-      <c r="K31" s="155"/>
-      <c r="L31" s="156"/>
+        <v>99</v>
+      </c>
+      <c r="G31" s="161" t="s">
+        <v>161</v>
+      </c>
+      <c r="H31" s="156"/>
+      <c r="I31" s="156"/>
+      <c r="J31" s="156"/>
+      <c r="K31" s="156"/>
+      <c r="L31" s="157"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="87" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C32" s="87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D32" s="87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E32" s="87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F32" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G32" s="154" t="s">
-        <v>149</v>
-      </c>
-      <c r="H32" s="155"/>
-      <c r="I32" s="155"/>
-      <c r="J32" s="155"/>
-      <c r="K32" s="155"/>
-      <c r="L32" s="156"/>
+        <v>99</v>
+      </c>
+      <c r="G32" s="155" t="s">
+        <v>147</v>
+      </c>
+      <c r="H32" s="156"/>
+      <c r="I32" s="156"/>
+      <c r="J32" s="156"/>
+      <c r="K32" s="156"/>
+      <c r="L32" s="157"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="98"/>
@@ -44816,12 +44836,12 @@
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="138"/>
-      <c r="H33" s="139"/>
-      <c r="I33" s="139"/>
-      <c r="J33" s="139"/>
-      <c r="K33" s="139"/>
-      <c r="L33" s="140"/>
+      <c r="G33" s="139"/>
+      <c r="H33" s="140"/>
+      <c r="I33" s="140"/>
+      <c r="J33" s="140"/>
+      <c r="K33" s="140"/>
+      <c r="L33" s="141"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="10"/>
@@ -44829,12 +44849,12 @@
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="148"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="150"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="150"/>
+      <c r="K34" s="150"/>
+      <c r="L34" s="151"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="10"/>
@@ -44842,12 +44862,12 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="148"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="149"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="150"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="150"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="150"/>
+      <c r="K35" s="150"/>
+      <c r="L35" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -44887,11 +44907,11 @@
     <row r="2" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -45286,206 +45306,206 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="142" t="s">
+      <c r="G27" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="143"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="143"/>
-      <c r="K27" s="143"/>
-      <c r="L27" s="144"/>
+      <c r="H27" s="144"/>
+      <c r="I27" s="144"/>
+      <c r="J27" s="144"/>
+      <c r="K27" s="144"/>
+      <c r="L27" s="145"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="87" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C28" s="87" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D28" s="87" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E28" s="87" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F28" s="87">
         <v>16</v>
       </c>
-      <c r="G28" s="145" t="s">
-        <v>241</v>
-      </c>
-      <c r="H28" s="146"/>
-      <c r="I28" s="146"/>
-      <c r="J28" s="146"/>
-      <c r="K28" s="146"/>
-      <c r="L28" s="147"/>
+      <c r="G28" s="146" t="s">
+        <v>239</v>
+      </c>
+      <c r="H28" s="147"/>
+      <c r="I28" s="147"/>
+      <c r="J28" s="147"/>
+      <c r="K28" s="147"/>
+      <c r="L28" s="148"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C29" s="87" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D29" s="87" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E29" s="87" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F29" s="87">
         <v>16</v>
       </c>
-      <c r="G29" s="145" t="s">
-        <v>241</v>
-      </c>
-      <c r="H29" s="146"/>
-      <c r="I29" s="146"/>
-      <c r="J29" s="146"/>
-      <c r="K29" s="146"/>
-      <c r="L29" s="147"/>
+      <c r="G29" s="146" t="s">
+        <v>239</v>
+      </c>
+      <c r="H29" s="147"/>
+      <c r="I29" s="147"/>
+      <c r="J29" s="147"/>
+      <c r="K29" s="147"/>
+      <c r="L29" s="148"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="100" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C30" s="87" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D30" s="87" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E30" s="87" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F30" s="87">
         <v>16</v>
       </c>
-      <c r="G30" s="145" t="s">
-        <v>241</v>
-      </c>
-      <c r="H30" s="146"/>
-      <c r="I30" s="146"/>
-      <c r="J30" s="146"/>
-      <c r="K30" s="146"/>
-      <c r="L30" s="147"/>
+      <c r="G30" s="146" t="s">
+        <v>239</v>
+      </c>
+      <c r="H30" s="147"/>
+      <c r="I30" s="147"/>
+      <c r="J30" s="147"/>
+      <c r="K30" s="147"/>
+      <c r="L30" s="148"/>
     </row>
     <row r="31" spans="2:17" ht="70.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="92" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C31" s="87" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D31" s="87" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E31" s="87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F31" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G31" s="141" t="s">
-        <v>257</v>
-      </c>
-      <c r="H31" s="139"/>
-      <c r="I31" s="139"/>
-      <c r="J31" s="139"/>
-      <c r="K31" s="139"/>
-      <c r="L31" s="140"/>
+        <v>99</v>
+      </c>
+      <c r="G31" s="142" t="s">
+        <v>255</v>
+      </c>
+      <c r="H31" s="140"/>
+      <c r="I31" s="140"/>
+      <c r="J31" s="140"/>
+      <c r="K31" s="140"/>
+      <c r="L31" s="141"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="92" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C32" s="87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D32" s="87" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E32" s="87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F32" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G32" s="141" t="s">
-        <v>244</v>
-      </c>
-      <c r="H32" s="139"/>
-      <c r="I32" s="139"/>
-      <c r="J32" s="139"/>
-      <c r="K32" s="139"/>
-      <c r="L32" s="140"/>
+        <v>99</v>
+      </c>
+      <c r="G32" s="142" t="s">
+        <v>242</v>
+      </c>
+      <c r="H32" s="140"/>
+      <c r="I32" s="140"/>
+      <c r="J32" s="140"/>
+      <c r="K32" s="140"/>
+      <c r="L32" s="141"/>
     </row>
     <row r="33" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="92" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C33" s="87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D33" s="87" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E33" s="87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F33" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G33" s="141" t="s">
-        <v>245</v>
-      </c>
-      <c r="H33" s="139"/>
-      <c r="I33" s="139"/>
-      <c r="J33" s="139"/>
-      <c r="K33" s="139"/>
-      <c r="L33" s="140"/>
+        <v>99</v>
+      </c>
+      <c r="G33" s="142" t="s">
+        <v>243</v>
+      </c>
+      <c r="H33" s="140"/>
+      <c r="I33" s="140"/>
+      <c r="J33" s="140"/>
+      <c r="K33" s="140"/>
+      <c r="L33" s="141"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="91" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C34" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="D34" s="87" t="s">
-        <v>100</v>
-      </c>
-      <c r="E34" s="87" t="s">
-        <v>101</v>
-      </c>
       <c r="F34" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G34" s="145" t="s">
-        <v>247</v>
-      </c>
-      <c r="H34" s="146"/>
-      <c r="I34" s="146"/>
-      <c r="J34" s="146"/>
-      <c r="K34" s="146"/>
-      <c r="L34" s="147"/>
+        <v>99</v>
+      </c>
+      <c r="G34" s="146" t="s">
+        <v>245</v>
+      </c>
+      <c r="H34" s="147"/>
+      <c r="I34" s="147"/>
+      <c r="J34" s="147"/>
+      <c r="K34" s="147"/>
+      <c r="L34" s="148"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="91" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C35" s="87"/>
       <c r="D35" s="87"/>
       <c r="E35" s="87"/>
       <c r="F35" s="87"/>
-      <c r="G35" s="145" t="s">
-        <v>248</v>
-      </c>
-      <c r="H35" s="146"/>
-      <c r="I35" s="146"/>
-      <c r="J35" s="146"/>
-      <c r="K35" s="146"/>
-      <c r="L35" s="147"/>
+      <c r="G35" s="146" t="s">
+        <v>246</v>
+      </c>
+      <c r="H35" s="147"/>
+      <c r="I35" s="147"/>
+      <c r="J35" s="147"/>
+      <c r="K35" s="147"/>
+      <c r="L35" s="148"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -45525,11 +45545,11 @@
     <row r="2" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -45924,206 +45944,206 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="142" t="s">
+      <c r="G27" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="143"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="143"/>
-      <c r="K27" s="143"/>
-      <c r="L27" s="144"/>
+      <c r="H27" s="144"/>
+      <c r="I27" s="144"/>
+      <c r="J27" s="144"/>
+      <c r="K27" s="144"/>
+      <c r="L27" s="145"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="134" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="87" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="135" t="s">
         <v>138</v>
-      </c>
-      <c r="C28" s="87" t="s">
-        <v>139</v>
-      </c>
-      <c r="D28" s="87" t="s">
-        <v>100</v>
-      </c>
-      <c r="E28" s="135" t="s">
-        <v>140</v>
       </c>
       <c r="F28" s="87">
         <v>256</v>
       </c>
-      <c r="G28" s="145" t="s">
-        <v>141</v>
-      </c>
-      <c r="H28" s="146"/>
-      <c r="I28" s="146"/>
-      <c r="J28" s="146"/>
-      <c r="K28" s="146"/>
-      <c r="L28" s="147"/>
+      <c r="G28" s="146" t="s">
+        <v>139</v>
+      </c>
+      <c r="H28" s="147"/>
+      <c r="I28" s="147"/>
+      <c r="J28" s="147"/>
+      <c r="K28" s="147"/>
+      <c r="L28" s="148"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="129" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C29" s="87" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D29" s="87" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E29" s="135" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F29" s="87">
         <v>256</v>
       </c>
-      <c r="G29" s="145" t="s">
-        <v>141</v>
-      </c>
-      <c r="H29" s="146"/>
-      <c r="I29" s="146"/>
-      <c r="J29" s="146"/>
-      <c r="K29" s="146"/>
-      <c r="L29" s="147"/>
+      <c r="G29" s="146" t="s">
+        <v>139</v>
+      </c>
+      <c r="H29" s="147"/>
+      <c r="I29" s="147"/>
+      <c r="J29" s="147"/>
+      <c r="K29" s="147"/>
+      <c r="L29" s="148"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="87" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C30" s="87" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D30" s="87" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E30" s="87" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F30" s="87">
         <v>16</v>
       </c>
-      <c r="G30" s="145" t="s">
-        <v>241</v>
-      </c>
-      <c r="H30" s="146"/>
-      <c r="I30" s="146"/>
-      <c r="J30" s="146"/>
-      <c r="K30" s="146"/>
-      <c r="L30" s="147"/>
+      <c r="G30" s="146" t="s">
+        <v>239</v>
+      </c>
+      <c r="H30" s="147"/>
+      <c r="I30" s="147"/>
+      <c r="J30" s="147"/>
+      <c r="K30" s="147"/>
+      <c r="L30" s="148"/>
     </row>
     <row r="31" spans="2:17" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="92" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C31" s="87" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D31" s="87" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E31" s="87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F31" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G31" s="141" t="s">
-        <v>243</v>
-      </c>
-      <c r="H31" s="139"/>
-      <c r="I31" s="139"/>
-      <c r="J31" s="139"/>
-      <c r="K31" s="139"/>
-      <c r="L31" s="140"/>
+        <v>99</v>
+      </c>
+      <c r="G31" s="142" t="s">
+        <v>241</v>
+      </c>
+      <c r="H31" s="140"/>
+      <c r="I31" s="140"/>
+      <c r="J31" s="140"/>
+      <c r="K31" s="140"/>
+      <c r="L31" s="141"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="92" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C32" s="87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D32" s="87" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E32" s="87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F32" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G32" s="141" t="s">
-        <v>244</v>
-      </c>
-      <c r="H32" s="139"/>
-      <c r="I32" s="139"/>
-      <c r="J32" s="139"/>
-      <c r="K32" s="139"/>
-      <c r="L32" s="140"/>
+        <v>99</v>
+      </c>
+      <c r="G32" s="142" t="s">
+        <v>242</v>
+      </c>
+      <c r="H32" s="140"/>
+      <c r="I32" s="140"/>
+      <c r="J32" s="140"/>
+      <c r="K32" s="140"/>
+      <c r="L32" s="141"/>
     </row>
     <row r="33" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="92" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C33" s="87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D33" s="87" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E33" s="87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F33" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G33" s="141" t="s">
-        <v>245</v>
-      </c>
-      <c r="H33" s="139"/>
-      <c r="I33" s="139"/>
-      <c r="J33" s="139"/>
-      <c r="K33" s="139"/>
-      <c r="L33" s="140"/>
+        <v>99</v>
+      </c>
+      <c r="G33" s="142" t="s">
+        <v>243</v>
+      </c>
+      <c r="H33" s="140"/>
+      <c r="I33" s="140"/>
+      <c r="J33" s="140"/>
+      <c r="K33" s="140"/>
+      <c r="L33" s="141"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="91" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C34" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="D34" s="87" t="s">
-        <v>100</v>
-      </c>
-      <c r="E34" s="87" t="s">
-        <v>101</v>
-      </c>
       <c r="F34" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G34" s="145" t="s">
-        <v>247</v>
-      </c>
-      <c r="H34" s="146"/>
-      <c r="I34" s="146"/>
-      <c r="J34" s="146"/>
-      <c r="K34" s="146"/>
-      <c r="L34" s="147"/>
+        <v>99</v>
+      </c>
+      <c r="G34" s="146" t="s">
+        <v>245</v>
+      </c>
+      <c r="H34" s="147"/>
+      <c r="I34" s="147"/>
+      <c r="J34" s="147"/>
+      <c r="K34" s="147"/>
+      <c r="L34" s="148"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="91" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C35" s="87"/>
       <c r="D35" s="87"/>
       <c r="E35" s="87"/>
       <c r="F35" s="87"/>
-      <c r="G35" s="145" t="s">
-        <v>248</v>
-      </c>
-      <c r="H35" s="146"/>
-      <c r="I35" s="146"/>
-      <c r="J35" s="146"/>
-      <c r="K35" s="146"/>
-      <c r="L35" s="147"/>
+      <c r="G35" s="146" t="s">
+        <v>246</v>
+      </c>
+      <c r="H35" s="147"/>
+      <c r="I35" s="147"/>
+      <c r="J35" s="147"/>
+      <c r="K35" s="147"/>
+      <c r="L35" s="148"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -46163,11 +46183,11 @@
     <row r="2" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -46562,206 +46582,206 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="142" t="s">
+      <c r="G27" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="143"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="143"/>
-      <c r="K27" s="143"/>
-      <c r="L27" s="144"/>
+      <c r="H27" s="144"/>
+      <c r="I27" s="144"/>
+      <c r="J27" s="144"/>
+      <c r="K27" s="144"/>
+      <c r="L27" s="145"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="87" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C28" s="87" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D28" s="87" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E28" s="87" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F28" s="87">
         <v>16</v>
       </c>
-      <c r="G28" s="145" t="s">
-        <v>241</v>
-      </c>
-      <c r="H28" s="146"/>
-      <c r="I28" s="146"/>
-      <c r="J28" s="146"/>
-      <c r="K28" s="146"/>
-      <c r="L28" s="147"/>
+      <c r="G28" s="146" t="s">
+        <v>239</v>
+      </c>
+      <c r="H28" s="147"/>
+      <c r="I28" s="147"/>
+      <c r="J28" s="147"/>
+      <c r="K28" s="147"/>
+      <c r="L28" s="148"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C29" s="87" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D29" s="87" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E29" s="87" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F29" s="87">
         <v>16</v>
       </c>
-      <c r="G29" s="145" t="s">
-        <v>241</v>
-      </c>
-      <c r="H29" s="146"/>
-      <c r="I29" s="146"/>
-      <c r="J29" s="146"/>
-      <c r="K29" s="146"/>
-      <c r="L29" s="147"/>
+      <c r="G29" s="146" t="s">
+        <v>239</v>
+      </c>
+      <c r="H29" s="147"/>
+      <c r="I29" s="147"/>
+      <c r="J29" s="147"/>
+      <c r="K29" s="147"/>
+      <c r="L29" s="148"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="100" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C30" s="87" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D30" s="87" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E30" s="87" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F30" s="87">
         <v>16</v>
       </c>
-      <c r="G30" s="145" t="s">
-        <v>241</v>
-      </c>
-      <c r="H30" s="146"/>
-      <c r="I30" s="146"/>
-      <c r="J30" s="146"/>
-      <c r="K30" s="146"/>
-      <c r="L30" s="147"/>
+      <c r="G30" s="146" t="s">
+        <v>239</v>
+      </c>
+      <c r="H30" s="147"/>
+      <c r="I30" s="147"/>
+      <c r="J30" s="147"/>
+      <c r="K30" s="147"/>
+      <c r="L30" s="148"/>
     </row>
     <row r="31" spans="2:17" ht="86.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="92" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C31" s="87" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D31" s="87" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E31" s="87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F31" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G31" s="141" t="s">
-        <v>254</v>
-      </c>
-      <c r="H31" s="139"/>
-      <c r="I31" s="139"/>
-      <c r="J31" s="139"/>
-      <c r="K31" s="139"/>
-      <c r="L31" s="140"/>
+        <v>99</v>
+      </c>
+      <c r="G31" s="142" t="s">
+        <v>252</v>
+      </c>
+      <c r="H31" s="140"/>
+      <c r="I31" s="140"/>
+      <c r="J31" s="140"/>
+      <c r="K31" s="140"/>
+      <c r="L31" s="141"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="92" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C32" s="87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D32" s="87" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E32" s="87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F32" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G32" s="141" t="s">
-        <v>244</v>
-      </c>
-      <c r="H32" s="139"/>
-      <c r="I32" s="139"/>
-      <c r="J32" s="139"/>
-      <c r="K32" s="139"/>
-      <c r="L32" s="140"/>
+        <v>99</v>
+      </c>
+      <c r="G32" s="142" t="s">
+        <v>242</v>
+      </c>
+      <c r="H32" s="140"/>
+      <c r="I32" s="140"/>
+      <c r="J32" s="140"/>
+      <c r="K32" s="140"/>
+      <c r="L32" s="141"/>
     </row>
     <row r="33" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="92" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C33" s="87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D33" s="87" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E33" s="87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F33" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G33" s="141" t="s">
-        <v>245</v>
-      </c>
-      <c r="H33" s="139"/>
-      <c r="I33" s="139"/>
-      <c r="J33" s="139"/>
-      <c r="K33" s="139"/>
-      <c r="L33" s="140"/>
+        <v>99</v>
+      </c>
+      <c r="G33" s="142" t="s">
+        <v>243</v>
+      </c>
+      <c r="H33" s="140"/>
+      <c r="I33" s="140"/>
+      <c r="J33" s="140"/>
+      <c r="K33" s="140"/>
+      <c r="L33" s="141"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="91" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C34" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="D34" s="87" t="s">
-        <v>100</v>
-      </c>
-      <c r="E34" s="87" t="s">
-        <v>101</v>
-      </c>
       <c r="F34" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G34" s="145" t="s">
-        <v>247</v>
-      </c>
-      <c r="H34" s="146"/>
-      <c r="I34" s="146"/>
-      <c r="J34" s="146"/>
-      <c r="K34" s="146"/>
-      <c r="L34" s="147"/>
+        <v>99</v>
+      </c>
+      <c r="G34" s="146" t="s">
+        <v>245</v>
+      </c>
+      <c r="H34" s="147"/>
+      <c r="I34" s="147"/>
+      <c r="J34" s="147"/>
+      <c r="K34" s="147"/>
+      <c r="L34" s="148"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="91" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C35" s="87"/>
       <c r="D35" s="87"/>
       <c r="E35" s="87"/>
       <c r="F35" s="87"/>
-      <c r="G35" s="145" t="s">
-        <v>248</v>
-      </c>
-      <c r="H35" s="146"/>
-      <c r="I35" s="146"/>
-      <c r="J35" s="146"/>
-      <c r="K35" s="146"/>
-      <c r="L35" s="147"/>
+      <c r="G35" s="146" t="s">
+        <v>246</v>
+      </c>
+      <c r="H35" s="147"/>
+      <c r="I35" s="147"/>
+      <c r="J35" s="147"/>
+      <c r="K35" s="147"/>
+      <c r="L35" s="148"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -46801,11 +46821,11 @@
     <row r="2" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -47200,81 +47220,81 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="142" t="s">
+      <c r="G27" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="143"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="143"/>
-      <c r="K27" s="143"/>
-      <c r="L27" s="144"/>
+      <c r="H27" s="144"/>
+      <c r="I27" s="144"/>
+      <c r="J27" s="144"/>
+      <c r="K27" s="144"/>
+      <c r="L27" s="145"/>
     </row>
     <row r="28" spans="2:17" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="120" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C28" s="87" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D28" s="87" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E28" s="135" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F28" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G28" s="169" t="s">
-        <v>261</v>
-      </c>
-      <c r="H28" s="146"/>
-      <c r="I28" s="146"/>
-      <c r="J28" s="146"/>
-      <c r="K28" s="146"/>
-      <c r="L28" s="147"/>
+        <v>99</v>
+      </c>
+      <c r="G28" s="170" t="s">
+        <v>259</v>
+      </c>
+      <c r="H28" s="147"/>
+      <c r="I28" s="147"/>
+      <c r="J28" s="147"/>
+      <c r="K28" s="147"/>
+      <c r="L28" s="148"/>
     </row>
     <row r="29" spans="2:17" ht="84.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="91" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C29" s="87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D29" s="87" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E29" s="87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F29" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G29" s="169" t="s">
-        <v>262</v>
-      </c>
-      <c r="H29" s="146"/>
-      <c r="I29" s="146"/>
-      <c r="J29" s="146"/>
-      <c r="K29" s="146"/>
-      <c r="L29" s="147"/>
+        <v>99</v>
+      </c>
+      <c r="G29" s="170" t="s">
+        <v>260</v>
+      </c>
+      <c r="H29" s="147"/>
+      <c r="I29" s="147"/>
+      <c r="J29" s="147"/>
+      <c r="K29" s="147"/>
+      <c r="L29" s="148"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="91" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C30" s="87"/>
       <c r="D30" s="87"/>
       <c r="E30" s="87"/>
       <c r="F30" s="87"/>
-      <c r="G30" s="145" t="s">
-        <v>248</v>
-      </c>
-      <c r="H30" s="146"/>
-      <c r="I30" s="146"/>
-      <c r="J30" s="146"/>
-      <c r="K30" s="146"/>
-      <c r="L30" s="147"/>
+      <c r="G30" s="146" t="s">
+        <v>246</v>
+      </c>
+      <c r="H30" s="147"/>
+      <c r="I30" s="147"/>
+      <c r="J30" s="147"/>
+      <c r="K30" s="147"/>
+      <c r="L30" s="148"/>
     </row>
     <row r="31" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="91"/>
@@ -47282,12 +47302,12 @@
       <c r="D31" s="87"/>
       <c r="E31" s="87"/>
       <c r="F31" s="87"/>
-      <c r="G31" s="145"/>
-      <c r="H31" s="146"/>
-      <c r="I31" s="146"/>
-      <c r="J31" s="146"/>
-      <c r="K31" s="146"/>
-      <c r="L31" s="147"/>
+      <c r="G31" s="146"/>
+      <c r="H31" s="147"/>
+      <c r="I31" s="147"/>
+      <c r="J31" s="147"/>
+      <c r="K31" s="147"/>
+      <c r="L31" s="148"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="130"/>
@@ -47295,12 +47315,12 @@
       <c r="D32" s="87"/>
       <c r="E32" s="87"/>
       <c r="F32" s="87"/>
-      <c r="G32" s="138"/>
-      <c r="H32" s="139"/>
-      <c r="I32" s="139"/>
-      <c r="J32" s="139"/>
-      <c r="K32" s="139"/>
-      <c r="L32" s="140"/>
+      <c r="G32" s="139"/>
+      <c r="H32" s="140"/>
+      <c r="I32" s="140"/>
+      <c r="J32" s="140"/>
+      <c r="K32" s="140"/>
+      <c r="L32" s="141"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -47336,11 +47356,11 @@
     <row r="2" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -47735,114 +47755,114 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="142" t="s">
+      <c r="G27" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="143"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="143"/>
-      <c r="K27" s="143"/>
-      <c r="L27" s="144"/>
+      <c r="H27" s="144"/>
+      <c r="I27" s="144"/>
+      <c r="J27" s="144"/>
+      <c r="K27" s="144"/>
+      <c r="L27" s="145"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C28" s="87" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D28" s="87" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E28" s="87" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F28" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="G28" s="159" t="s">
-        <v>114</v>
-      </c>
-      <c r="H28" s="170"/>
-      <c r="I28" s="170"/>
-      <c r="J28" s="170"/>
-      <c r="K28" s="170"/>
-      <c r="L28" s="171"/>
+        <v>111</v>
+      </c>
+      <c r="G28" s="160" t="s">
+        <v>112</v>
+      </c>
+      <c r="H28" s="171"/>
+      <c r="I28" s="171"/>
+      <c r="J28" s="171"/>
+      <c r="K28" s="171"/>
+      <c r="L28" s="172"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="87" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="D29" s="87" t="s">
-        <v>109</v>
-      </c>
       <c r="E29" s="87" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F29" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="G29" s="141" t="s">
-        <v>110</v>
-      </c>
-      <c r="H29" s="172"/>
-      <c r="I29" s="172"/>
-      <c r="J29" s="172"/>
-      <c r="K29" s="172"/>
-      <c r="L29" s="173"/>
+        <v>111</v>
+      </c>
+      <c r="G29" s="142" t="s">
+        <v>108</v>
+      </c>
+      <c r="H29" s="173"/>
+      <c r="I29" s="173"/>
+      <c r="J29" s="173"/>
+      <c r="K29" s="173"/>
+      <c r="L29" s="174"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C30" s="87" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D30" s="87" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" s="87" t="s">
+        <v>111</v>
+      </c>
+      <c r="F30" s="87" t="s">
+        <v>111</v>
+      </c>
+      <c r="G30" s="142" t="s">
         <v>109</v>
       </c>
-      <c r="E30" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="F30" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="G30" s="141" t="s">
-        <v>111</v>
-      </c>
-      <c r="H30" s="172"/>
-      <c r="I30" s="172"/>
-      <c r="J30" s="172"/>
-      <c r="K30" s="172"/>
-      <c r="L30" s="173"/>
+      <c r="H30" s="173"/>
+      <c r="I30" s="173"/>
+      <c r="J30" s="173"/>
+      <c r="K30" s="173"/>
+      <c r="L30" s="174"/>
     </row>
     <row r="31" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="87" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C31" s="87" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D31" s="87" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E31" s="87" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F31" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="G31" s="154" t="s">
-        <v>112</v>
-      </c>
-      <c r="H31" s="155"/>
-      <c r="I31" s="155"/>
-      <c r="J31" s="155"/>
-      <c r="K31" s="155"/>
-      <c r="L31" s="156"/>
+        <v>111</v>
+      </c>
+      <c r="G31" s="155" t="s">
+        <v>110</v>
+      </c>
+      <c r="H31" s="156"/>
+      <c r="I31" s="156"/>
+      <c r="J31" s="156"/>
+      <c r="K31" s="156"/>
+      <c r="L31" s="157"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10"/>
@@ -47850,12 +47870,12 @@
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="138"/>
-      <c r="H32" s="139"/>
-      <c r="I32" s="139"/>
-      <c r="J32" s="139"/>
-      <c r="K32" s="139"/>
-      <c r="L32" s="140"/>
+      <c r="G32" s="139"/>
+      <c r="H32" s="140"/>
+      <c r="I32" s="140"/>
+      <c r="J32" s="140"/>
+      <c r="K32" s="140"/>
+      <c r="L32" s="141"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="98"/>
@@ -47863,12 +47883,12 @@
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="138"/>
-      <c r="H33" s="139"/>
-      <c r="I33" s="139"/>
-      <c r="J33" s="139"/>
-      <c r="K33" s="139"/>
-      <c r="L33" s="140"/>
+      <c r="G33" s="139"/>
+      <c r="H33" s="140"/>
+      <c r="I33" s="140"/>
+      <c r="J33" s="140"/>
+      <c r="K33" s="140"/>
+      <c r="L33" s="141"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="10"/>
@@ -47876,12 +47896,12 @@
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="148"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="150"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="150"/>
+      <c r="K34" s="150"/>
+      <c r="L34" s="151"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="10"/>
@@ -47889,12 +47909,12 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="148"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="149"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="150"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="150"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="150"/>
+      <c r="K35" s="150"/>
+      <c r="L35" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -47919,7 +47939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30C12C97-A67D-40BA-9055-4560A3094D8E}">
   <dimension ref="A2:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G28" sqref="G28:L28"/>
     </sheetView>
   </sheetViews>
@@ -47933,11 +47953,11 @@
     <row r="2" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -48332,139 +48352,139 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="142" t="s">
+      <c r="G27" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="143"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="143"/>
-      <c r="K27" s="143"/>
-      <c r="L27" s="144"/>
+      <c r="H27" s="144"/>
+      <c r="I27" s="144"/>
+      <c r="J27" s="144"/>
+      <c r="K27" s="144"/>
+      <c r="L27" s="145"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="99" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C28" s="87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D28" s="100" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E28" s="87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F28" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G28" s="177" t="s">
-        <v>118</v>
-      </c>
-      <c r="H28" s="170"/>
-      <c r="I28" s="170"/>
-      <c r="J28" s="170"/>
-      <c r="K28" s="170"/>
-      <c r="L28" s="171"/>
+        <v>99</v>
+      </c>
+      <c r="G28" s="178" t="s">
+        <v>116</v>
+      </c>
+      <c r="H28" s="171"/>
+      <c r="I28" s="171"/>
+      <c r="J28" s="171"/>
+      <c r="K28" s="171"/>
+      <c r="L28" s="172"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="99" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C29" s="87" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="100" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="87" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="87" t="s">
+        <v>99</v>
+      </c>
+      <c r="G29" s="142" t="s">
         <v>117</v>
       </c>
-      <c r="D29" s="100" t="s">
-        <v>100</v>
-      </c>
-      <c r="E29" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="F29" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G29" s="141" t="s">
-        <v>119</v>
-      </c>
-      <c r="H29" s="172"/>
-      <c r="I29" s="172"/>
-      <c r="J29" s="172"/>
-      <c r="K29" s="172"/>
-      <c r="L29" s="173"/>
+      <c r="H29" s="173"/>
+      <c r="I29" s="173"/>
+      <c r="J29" s="173"/>
+      <c r="K29" s="173"/>
+      <c r="L29" s="174"/>
     </row>
     <row r="30" spans="2:17" ht="96" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="91" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C30" s="87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D30" s="87" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E30" s="87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F30" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G30" s="141" t="s">
-        <v>120</v>
-      </c>
-      <c r="H30" s="139"/>
-      <c r="I30" s="139"/>
-      <c r="J30" s="139"/>
-      <c r="K30" s="139"/>
-      <c r="L30" s="140"/>
+        <v>99</v>
+      </c>
+      <c r="G30" s="142" t="s">
+        <v>118</v>
+      </c>
+      <c r="H30" s="140"/>
+      <c r="I30" s="140"/>
+      <c r="J30" s="140"/>
+      <c r="K30" s="140"/>
+      <c r="L30" s="141"/>
     </row>
     <row r="31" spans="2:17" ht="96" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="92" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C31" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="87" t="s">
-        <v>100</v>
-      </c>
-      <c r="E31" s="87" t="s">
-        <v>101</v>
-      </c>
       <c r="F31" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G31" s="141" t="s">
-        <v>131</v>
-      </c>
-      <c r="H31" s="172"/>
-      <c r="I31" s="172"/>
-      <c r="J31" s="172"/>
-      <c r="K31" s="172"/>
-      <c r="L31" s="173"/>
+        <v>99</v>
+      </c>
+      <c r="G31" s="142" t="s">
+        <v>129</v>
+      </c>
+      <c r="H31" s="173"/>
+      <c r="I31" s="173"/>
+      <c r="J31" s="173"/>
+      <c r="K31" s="173"/>
+      <c r="L31" s="174"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="100" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C32" s="87" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D32" s="87" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E32" s="87" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F32" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="G32" s="154" t="s">
-        <v>112</v>
-      </c>
-      <c r="H32" s="155"/>
-      <c r="I32" s="155"/>
-      <c r="J32" s="155"/>
-      <c r="K32" s="155"/>
-      <c r="L32" s="156"/>
+        <v>111</v>
+      </c>
+      <c r="G32" s="155" t="s">
+        <v>110</v>
+      </c>
+      <c r="H32" s="156"/>
+      <c r="I32" s="156"/>
+      <c r="J32" s="156"/>
+      <c r="K32" s="156"/>
+      <c r="L32" s="157"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="99"/>
@@ -48472,12 +48492,12 @@
       <c r="D33" s="99"/>
       <c r="E33" s="99"/>
       <c r="F33" s="99"/>
-      <c r="G33" s="141"/>
-      <c r="H33" s="172"/>
-      <c r="I33" s="172"/>
-      <c r="J33" s="172"/>
-      <c r="K33" s="172"/>
-      <c r="L33" s="173"/>
+      <c r="G33" s="142"/>
+      <c r="H33" s="173"/>
+      <c r="I33" s="173"/>
+      <c r="J33" s="173"/>
+      <c r="K33" s="173"/>
+      <c r="L33" s="174"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="101"/>
@@ -48485,12 +48505,12 @@
       <c r="D34" s="99"/>
       <c r="E34" s="99"/>
       <c r="F34" s="99"/>
-      <c r="G34" s="141"/>
-      <c r="H34" s="172"/>
-      <c r="I34" s="172"/>
-      <c r="J34" s="172"/>
-      <c r="K34" s="172"/>
-      <c r="L34" s="173"/>
+      <c r="G34" s="142"/>
+      <c r="H34" s="173"/>
+      <c r="I34" s="173"/>
+      <c r="J34" s="173"/>
+      <c r="K34" s="173"/>
+      <c r="L34" s="174"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="99"/>
@@ -48498,12 +48518,12 @@
       <c r="D35" s="99"/>
       <c r="E35" s="99"/>
       <c r="F35" s="99"/>
-      <c r="G35" s="174"/>
-      <c r="H35" s="175"/>
-      <c r="I35" s="175"/>
-      <c r="J35" s="175"/>
-      <c r="K35" s="175"/>
-      <c r="L35" s="176"/>
+      <c r="G35" s="175"/>
+      <c r="H35" s="176"/>
+      <c r="I35" s="176"/>
+      <c r="J35" s="176"/>
+      <c r="K35" s="176"/>
+      <c r="L35" s="177"/>
     </row>
     <row r="36" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="10"/>
@@ -48511,12 +48531,12 @@
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
-      <c r="G36" s="148"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="149"/>
-      <c r="J36" s="149"/>
-      <c r="K36" s="149"/>
-      <c r="L36" s="150"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="150"/>
+      <c r="I36" s="150"/>
+      <c r="J36" s="150"/>
+      <c r="K36" s="150"/>
+      <c r="L36" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -48545,8 +48565,8 @@
   </sheetPr>
   <dimension ref="B2:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.875" defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
@@ -49203,35 +49223,35 @@
     <row r="3" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="2:10" x14ac:dyDescent="0.4">
       <c r="C4" s="63" t="s">
-        <v>21</v>
+        <v>293</v>
       </c>
       <c r="D4" s="65"/>
       <c r="E4" s="65"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.4">
       <c r="C5" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="E5" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="66" t="s">
+      <c r="F5" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="G5" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="67" t="s">
+      <c r="H5" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="67" t="s">
+      <c r="I5" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5" s="68" t="s">
         <v>27</v>
-      </c>
-      <c r="I5" s="67" t="s">
-        <v>93</v>
-      </c>
-      <c r="J5" s="68" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.4">
@@ -49239,19 +49259,19 @@
         <v>1</v>
       </c>
       <c r="D6" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="69" t="s">
-        <v>30</v>
-      </c>
       <c r="F6" s="69" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G6" s="70">
         <v>4</v>
       </c>
       <c r="H6" s="69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I6" s="69">
         <v>1</v>
@@ -49263,20 +49283,20 @@
         <v>2</v>
       </c>
       <c r="D7" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="69" t="s">
-        <v>33</v>
-      </c>
       <c r="F7" s="69" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G7" s="70"/>
       <c r="H7" s="69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I7" s="103" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J7" s="69"/>
     </row>
@@ -49285,20 +49305,20 @@
         <v>3</v>
       </c>
       <c r="D8" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="69" t="s">
-        <v>36</v>
-      </c>
       <c r="F8" s="69" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G8" s="70"/>
       <c r="H8" s="69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I8" s="103" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J8" s="69"/>
     </row>
@@ -49307,20 +49327,20 @@
         <v>4</v>
       </c>
       <c r="D9" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="69" t="s">
-        <v>38</v>
-      </c>
       <c r="F9" s="69" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G9" s="70"/>
       <c r="H9" s="69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I9" s="103" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J9" s="69"/>
     </row>
@@ -49329,20 +49349,20 @@
         <v>5</v>
       </c>
       <c r="D10" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="69" t="s">
-        <v>40</v>
-      </c>
       <c r="F10" s="69" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G10" s="70"/>
       <c r="H10" s="69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I10" s="103" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J10" s="69"/>
     </row>
@@ -49351,19 +49371,19 @@
         <v>6</v>
       </c>
       <c r="D11" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="69" t="s">
-        <v>42</v>
-      </c>
       <c r="F11" s="69" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G11" s="70">
         <v>4</v>
       </c>
       <c r="H11" s="69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I11" s="69">
         <v>0</v>
@@ -49375,25 +49395,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="69" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="69" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F12" s="69" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G12" s="70">
         <v>4</v>
       </c>
       <c r="H12" s="69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="69">
         <v>1</v>
       </c>
       <c r="J12" s="72" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="19.5" x14ac:dyDescent="0.4">
@@ -49404,34 +49424,34 @@
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.4">
       <c r="C14" s="63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" s="65"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.4">
       <c r="C15" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="66" t="s">
+      <c r="E15" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="66" t="s">
+      <c r="F15" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="66" t="s">
+      <c r="G15" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="67" t="s">
+      <c r="H15" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="67" t="s">
+      <c r="I15" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="J15" s="68" t="s">
         <v>27</v>
-      </c>
-      <c r="I15" s="67" t="s">
-        <v>93</v>
-      </c>
-      <c r="J15" s="68" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.4">
@@ -49439,19 +49459,19 @@
         <v>1</v>
       </c>
       <c r="D16" s="69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E16" s="69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F16" s="69" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G16" s="70">
         <v>4</v>
       </c>
       <c r="H16" s="69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I16" s="69">
         <v>1</v>
@@ -49463,19 +49483,19 @@
         <v>2</v>
       </c>
       <c r="D17" s="69" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E17" s="69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F17" s="69" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G17" s="70">
         <v>4</v>
       </c>
       <c r="H17" s="69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I17" s="69">
         <v>1</v>
@@ -49487,25 +49507,25 @@
         <v>3</v>
       </c>
       <c r="D18" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="69" t="s">
-        <v>49</v>
-      </c>
       <c r="F18" s="69" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G18" s="70">
         <v>4</v>
       </c>
       <c r="H18" s="72" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I18" s="72">
         <v>1</v>
       </c>
       <c r="J18" s="72" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="3:10" ht="66" x14ac:dyDescent="0.4">
@@ -49513,25 +49533,25 @@
         <v>4</v>
       </c>
       <c r="D19" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="69" t="s">
-        <v>52</v>
-      </c>
       <c r="F19" s="69" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G19" s="70">
         <v>4</v>
       </c>
       <c r="H19" s="72" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I19" s="72">
         <v>0</v>
       </c>
       <c r="J19" s="72" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="3:10" ht="66" x14ac:dyDescent="0.4">
@@ -49539,25 +49559,25 @@
         <v>5</v>
       </c>
       <c r="D20" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="69" t="s">
-        <v>55</v>
-      </c>
       <c r="F20" s="69" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G20" s="70">
         <v>4</v>
       </c>
       <c r="H20" s="72" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I20" s="72">
         <v>0</v>
       </c>
       <c r="J20" s="72" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="3:10" ht="19.5" x14ac:dyDescent="0.4">
@@ -49572,35 +49592,35 @@
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C22" s="63" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D22" s="65"/>
       <c r="E22" s="65"/>
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C23" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="66" t="s">
+      <c r="E23" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="66" t="s">
+      <c r="F23" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="66" t="s">
+      <c r="G23" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="67" t="s">
+      <c r="H23" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="H23" s="67" t="s">
+      <c r="I23" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="J23" s="68" t="s">
         <v>27</v>
-      </c>
-      <c r="I23" s="67" t="s">
-        <v>93</v>
-      </c>
-      <c r="J23" s="68" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.4">
@@ -49608,19 +49628,19 @@
         <v>1</v>
       </c>
       <c r="D24" s="69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E24" s="73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F24" s="69" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G24" s="70">
         <v>4</v>
       </c>
       <c r="H24" s="69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I24" s="69">
         <v>1</v>
@@ -49632,19 +49652,19 @@
         <v>2</v>
       </c>
       <c r="D25" s="69" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E25" s="73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F25" s="69" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G25" s="70">
         <v>4</v>
       </c>
       <c r="H25" s="69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I25" s="69">
         <v>1</v>
@@ -49656,22 +49676,22 @@
         <v>3</v>
       </c>
       <c r="D26" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="73" t="s">
+      <c r="F26" s="69" t="s">
         <v>58</v>
-      </c>
-      <c r="F26" s="69" t="s">
-        <v>59</v>
       </c>
       <c r="G26" s="70">
         <v>4</v>
       </c>
       <c r="H26" s="69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I26" s="102" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J26" s="69"/>
     </row>
@@ -49680,19 +49700,19 @@
         <v>4</v>
       </c>
       <c r="D27" s="69" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E27" s="73" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F27" s="69" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G27" s="70">
         <v>4</v>
       </c>
       <c r="H27" s="69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I27" s="69">
         <v>0</v>
@@ -49735,11 +49755,11 @@
     <row r="2" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -50134,164 +50154,164 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="142" t="s">
+      <c r="G27" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="143"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="143"/>
-      <c r="K27" s="143"/>
-      <c r="L27" s="144"/>
+      <c r="H27" s="144"/>
+      <c r="I27" s="144"/>
+      <c r="J27" s="144"/>
+      <c r="K27" s="144"/>
+      <c r="L27" s="145"/>
     </row>
     <row r="28" spans="2:17" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B28" s="99" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C28" s="87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D28" s="100" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E28" s="87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F28" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G28" s="177" t="s">
-        <v>127</v>
-      </c>
-      <c r="H28" s="170"/>
-      <c r="I28" s="170"/>
-      <c r="J28" s="170"/>
-      <c r="K28" s="170"/>
-      <c r="L28" s="171"/>
+        <v>99</v>
+      </c>
+      <c r="G28" s="178" t="s">
+        <v>125</v>
+      </c>
+      <c r="H28" s="171"/>
+      <c r="I28" s="171"/>
+      <c r="J28" s="171"/>
+      <c r="K28" s="171"/>
+      <c r="L28" s="172"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="99" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" s="87" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="100" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="87" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="87" t="s">
+        <v>99</v>
+      </c>
+      <c r="G29" s="178" t="s">
         <v>121</v>
       </c>
-      <c r="C29" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="D29" s="100" t="s">
-        <v>109</v>
-      </c>
-      <c r="E29" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="F29" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G29" s="177" t="s">
-        <v>123</v>
-      </c>
-      <c r="H29" s="170"/>
-      <c r="I29" s="170"/>
-      <c r="J29" s="170"/>
-      <c r="K29" s="170"/>
-      <c r="L29" s="171"/>
+      <c r="H29" s="171"/>
+      <c r="I29" s="171"/>
+      <c r="J29" s="171"/>
+      <c r="K29" s="171"/>
+      <c r="L29" s="172"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C30" s="87" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" s="100" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="87" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="87" t="s">
+        <v>99</v>
+      </c>
+      <c r="G30" s="142" t="s">
         <v>117</v>
       </c>
-      <c r="D30" s="100" t="s">
-        <v>100</v>
-      </c>
-      <c r="E30" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="F30" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G30" s="141" t="s">
-        <v>119</v>
-      </c>
-      <c r="H30" s="172"/>
-      <c r="I30" s="172"/>
-      <c r="J30" s="172"/>
-      <c r="K30" s="172"/>
-      <c r="L30" s="173"/>
+      <c r="H30" s="173"/>
+      <c r="I30" s="173"/>
+      <c r="J30" s="173"/>
+      <c r="K30" s="173"/>
+      <c r="L30" s="174"/>
     </row>
     <row r="31" spans="2:17" ht="96" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="91" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C31" s="87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D31" s="87" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E31" s="87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F31" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G31" s="141" t="s">
-        <v>125</v>
-      </c>
-      <c r="H31" s="139"/>
-      <c r="I31" s="139"/>
-      <c r="J31" s="139"/>
-      <c r="K31" s="139"/>
-      <c r="L31" s="140"/>
+        <v>99</v>
+      </c>
+      <c r="G31" s="142" t="s">
+        <v>123</v>
+      </c>
+      <c r="H31" s="140"/>
+      <c r="I31" s="140"/>
+      <c r="J31" s="140"/>
+      <c r="K31" s="140"/>
+      <c r="L31" s="141"/>
     </row>
     <row r="32" spans="2:17" ht="96" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="92" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C32" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="D32" s="87" t="s">
-        <v>100</v>
-      </c>
-      <c r="E32" s="87" t="s">
-        <v>101</v>
-      </c>
       <c r="F32" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G32" s="141" t="s">
-        <v>130</v>
-      </c>
-      <c r="H32" s="172"/>
-      <c r="I32" s="172"/>
-      <c r="J32" s="172"/>
-      <c r="K32" s="172"/>
-      <c r="L32" s="173"/>
+        <v>99</v>
+      </c>
+      <c r="G32" s="142" t="s">
+        <v>128</v>
+      </c>
+      <c r="H32" s="173"/>
+      <c r="I32" s="173"/>
+      <c r="J32" s="173"/>
+      <c r="K32" s="173"/>
+      <c r="L32" s="174"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="100" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C33" s="87" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D33" s="87" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E33" s="87" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F33" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="G33" s="154" t="s">
-        <v>112</v>
-      </c>
-      <c r="H33" s="155"/>
-      <c r="I33" s="155"/>
-      <c r="J33" s="155"/>
-      <c r="K33" s="155"/>
-      <c r="L33" s="156"/>
+        <v>111</v>
+      </c>
+      <c r="G33" s="155" t="s">
+        <v>110</v>
+      </c>
+      <c r="H33" s="156"/>
+      <c r="I33" s="156"/>
+      <c r="J33" s="156"/>
+      <c r="K33" s="156"/>
+      <c r="L33" s="157"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="99"/>
@@ -50299,12 +50319,12 @@
       <c r="D34" s="99"/>
       <c r="E34" s="99"/>
       <c r="F34" s="99"/>
-      <c r="G34" s="141"/>
-      <c r="H34" s="172"/>
-      <c r="I34" s="172"/>
-      <c r="J34" s="172"/>
-      <c r="K34" s="172"/>
-      <c r="L34" s="173"/>
+      <c r="G34" s="142"/>
+      <c r="H34" s="173"/>
+      <c r="I34" s="173"/>
+      <c r="J34" s="173"/>
+      <c r="K34" s="173"/>
+      <c r="L34" s="174"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="101"/>
@@ -50312,12 +50332,12 @@
       <c r="D35" s="99"/>
       <c r="E35" s="99"/>
       <c r="F35" s="99"/>
-      <c r="G35" s="141"/>
-      <c r="H35" s="172"/>
-      <c r="I35" s="172"/>
-      <c r="J35" s="172"/>
-      <c r="K35" s="172"/>
-      <c r="L35" s="173"/>
+      <c r="G35" s="142"/>
+      <c r="H35" s="173"/>
+      <c r="I35" s="173"/>
+      <c r="J35" s="173"/>
+      <c r="K35" s="173"/>
+      <c r="L35" s="174"/>
     </row>
     <row r="36" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="99"/>
@@ -50325,12 +50345,12 @@
       <c r="D36" s="99"/>
       <c r="E36" s="99"/>
       <c r="F36" s="99"/>
-      <c r="G36" s="174"/>
-      <c r="H36" s="175"/>
-      <c r="I36" s="175"/>
-      <c r="J36" s="175"/>
-      <c r="K36" s="175"/>
-      <c r="L36" s="176"/>
+      <c r="G36" s="175"/>
+      <c r="H36" s="176"/>
+      <c r="I36" s="176"/>
+      <c r="J36" s="176"/>
+      <c r="K36" s="176"/>
+      <c r="L36" s="177"/>
     </row>
     <row r="37" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="10"/>
@@ -50338,12 +50358,12 @@
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
-      <c r="G37" s="148"/>
-      <c r="H37" s="149"/>
-      <c r="I37" s="149"/>
-      <c r="J37" s="149"/>
-      <c r="K37" s="149"/>
-      <c r="L37" s="150"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="150"/>
+      <c r="J37" s="150"/>
+      <c r="K37" s="150"/>
+      <c r="L37" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -50801,14 +50821,14 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="142" t="s">
+      <c r="G27" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="143"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="143"/>
-      <c r="K27" s="143"/>
-      <c r="L27" s="144"/>
+      <c r="H27" s="144"/>
+      <c r="I27" s="144"/>
+      <c r="J27" s="144"/>
+      <c r="K27" s="144"/>
+      <c r="L27" s="145"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="10"/>
@@ -50816,12 +50836,12 @@
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
-      <c r="G28" s="148"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="149"/>
-      <c r="J28" s="149"/>
-      <c r="K28" s="149"/>
-      <c r="L28" s="150"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="150"/>
+      <c r="L28" s="151"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="10"/>
@@ -50829,12 +50849,12 @@
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="148"/>
-      <c r="H29" s="149"/>
-      <c r="I29" s="149"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="150"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="150"/>
+      <c r="K29" s="150"/>
+      <c r="L29" s="151"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="10"/>
@@ -50842,12 +50862,12 @@
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="148"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="149"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="149"/>
-      <c r="L30" s="150"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="150"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="150"/>
+      <c r="K30" s="150"/>
+      <c r="L30" s="151"/>
     </row>
     <row r="31" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="10"/>
@@ -50855,12 +50875,12 @@
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
-      <c r="G31" s="148"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="149"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="149"/>
-      <c r="L31" s="150"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="150"/>
+      <c r="L31" s="151"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10"/>
@@ -50868,12 +50888,12 @@
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="148"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="149"/>
-      <c r="J32" s="149"/>
-      <c r="K32" s="149"/>
-      <c r="L32" s="150"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="150"/>
+      <c r="J32" s="150"/>
+      <c r="K32" s="150"/>
+      <c r="L32" s="151"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10"/>
@@ -50881,12 +50901,12 @@
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="148"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="149"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="149"/>
-      <c r="L33" s="150"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="150"/>
+      <c r="K33" s="150"/>
+      <c r="L33" s="151"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="10"/>
@@ -50894,12 +50914,12 @@
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="148"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="150"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="150"/>
+      <c r="K34" s="150"/>
+      <c r="L34" s="151"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="10"/>
@@ -50907,12 +50927,12 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="148"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="149"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="150"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="150"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="150"/>
+      <c r="K35" s="150"/>
+      <c r="L35" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -50939,8 +50959,8 @@
   </sheetPr>
   <dimension ref="B2:M34"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5" defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
@@ -50963,7 +50983,7 @@
   <sheetData>
     <row r="2" spans="2:13" s="5" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C2" s="86"/>
     </row>
@@ -50978,11 +50998,11 @@
     </row>
     <row r="5" spans="2:13" ht="19.5" x14ac:dyDescent="0.4">
       <c r="C5" s="65" t="s">
-        <v>91</v>
+        <v>295</v>
       </c>
       <c r="D5" s="65"/>
       <c r="F5" s="65" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G5" s="65"/>
       <c r="H5" s="71"/>
@@ -50994,16 +51014,16 @@
     </row>
     <row r="6" spans="2:13" ht="19.5" x14ac:dyDescent="0.4">
       <c r="C6" s="66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" s="66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" s="66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H6" s="71"/>
       <c r="I6" s="71"/>
@@ -51017,13 +51037,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="69">
         <v>1</v>
       </c>
       <c r="G7" s="69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H7" s="71"/>
       <c r="I7" s="71"/>
@@ -51037,13 +51057,13 @@
         <v>2</v>
       </c>
       <c r="D8" s="69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" s="69">
         <v>2</v>
       </c>
       <c r="G8" s="69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" s="71"/>
       <c r="I8" s="71"/>
@@ -51057,13 +51077,13 @@
         <v>3</v>
       </c>
       <c r="D9" s="69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="69">
         <v>3</v>
       </c>
       <c r="G9" s="69" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" s="71"/>
       <c r="I9" s="71"/>
@@ -51077,13 +51097,13 @@
         <v>4</v>
       </c>
       <c r="D10" s="69" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10" s="69">
         <v>4</v>
       </c>
       <c r="G10" s="69" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H10" s="71"/>
       <c r="I10" s="71"/>
@@ -51097,13 +51117,13 @@
         <v>5</v>
       </c>
       <c r="D11" s="69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="69">
         <v>5</v>
       </c>
       <c r="G11" s="69" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H11" s="71"/>
       <c r="I11" s="71"/>
@@ -51117,7 +51137,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F12" s="71"/>
       <c r="H12" s="71"/>
@@ -51132,7 +51152,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" s="71"/>
       <c r="G13" s="71"/>
@@ -51257,7 +51277,7 @@
     </row>
     <row r="24" spans="3:13" ht="19.5" x14ac:dyDescent="0.4">
       <c r="C24" s="85" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F24" s="71"/>
       <c r="G24" s="71"/>
@@ -51270,10 +51290,10 @@
     </row>
     <row r="25" spans="3:13" ht="19.5" x14ac:dyDescent="0.4">
       <c r="C25" s="66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D25" s="66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F25" s="71"/>
       <c r="G25" s="71"/>
@@ -51289,7 +51309,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F26" s="71"/>
       <c r="G26" s="71"/>
@@ -51305,7 +51325,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F27" s="71"/>
       <c r="G27" s="71"/>
@@ -51321,7 +51341,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="73" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F28" s="71"/>
       <c r="G28" s="71"/>
@@ -51337,7 +51357,7 @@
         <v>4</v>
       </c>
       <c r="D29" s="73" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="3:13" ht="19.5" x14ac:dyDescent="0.4">
@@ -51395,7 +51415,7 @@
   <sheetData>
     <row r="2" spans="2:11" s="61" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="59" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" s="60"/>
       <c r="E2" s="84"/>
@@ -51416,58 +51436,58 @@
     <row r="4" spans="2:11" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B4" s="71"/>
       <c r="C4" s="63" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B5" s="71"/>
       <c r="C5" s="78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" s="78" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E5" s="78" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F5" s="78" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G5" s="78" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H5" s="77" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I5" s="78" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J5" s="78" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K5" s="77" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B6" s="71"/>
       <c r="C6" s="69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="76" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F6" s="69" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G6" s="69" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H6" s="72" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I6" s="69">
         <v>1</v>
@@ -51480,22 +51500,22 @@
     <row r="7" spans="2:11" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="71"/>
       <c r="C7" s="69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" s="76" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F7" s="69" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G7" s="69" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H7" s="72" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I7" s="69">
         <v>8</v>
@@ -51511,58 +51531,58 @@
     <row r="9" spans="2:11" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B9" s="71"/>
       <c r="C9" s="63" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B10" s="71"/>
       <c r="C10" s="78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D10" s="78" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E10" s="78" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F10" s="78" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G10" s="78" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H10" s="77" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I10" s="78" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J10" s="78" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K10" s="77" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="71"/>
       <c r="C11" s="69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" s="76" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F11" s="69" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G11" s="69" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H11" s="72" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I11" s="69">
         <v>1</v>
@@ -51575,22 +51595,22 @@
     <row r="12" spans="2:11" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B12" s="71"/>
       <c r="C12" s="69" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D12" s="69" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E12" s="76" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F12" s="69" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G12" s="69" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H12" s="72" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I12" s="69">
         <v>1</v>
@@ -51603,22 +51623,22 @@
     <row r="13" spans="2:11" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B13" s="71"/>
       <c r="C13" s="69" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D13" s="69" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E13" s="76" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F13" s="69" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G13" s="69" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H13" s="72" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I13" s="69">
         <v>1</v>
@@ -51631,22 +51651,22 @@
     <row r="14" spans="2:11" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B14" s="71"/>
       <c r="C14" s="69" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D14" s="69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E14" s="76" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F14" s="69" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G14" s="69" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H14" s="72" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I14" s="69">
         <v>8</v>
@@ -51671,58 +51691,58 @@
     <row r="16" spans="2:11" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B16" s="71"/>
       <c r="C16" s="63" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B17" s="71"/>
       <c r="C17" s="78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D17" s="78" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E17" s="78" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F17" s="78" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G17" s="78" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H17" s="77" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I17" s="78" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J17" s="78" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K17" s="77" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B18" s="71"/>
       <c r="C18" s="69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E18" s="76" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F18" s="69" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G18" s="69" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H18" s="72" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I18" s="69">
         <v>1</v>
@@ -51735,22 +51755,22 @@
     <row r="19" spans="2:11" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B19" s="71"/>
       <c r="C19" s="69" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D19" s="69" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E19" s="76" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F19" s="69" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G19" s="69" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H19" s="72" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I19" s="69">
         <v>1</v>
@@ -51763,22 +51783,22 @@
     <row r="20" spans="2:11" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B20" s="71"/>
       <c r="C20" s="69" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D20" s="69" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E20" s="76" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F20" s="69" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G20" s="69" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H20" s="72" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I20" s="69">
         <v>1</v>
@@ -51791,22 +51811,22 @@
     <row r="21" spans="2:11" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B21" s="71"/>
       <c r="C21" s="69" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D21" s="69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E21" s="76" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F21" s="69" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G21" s="69" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H21" s="72" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I21" s="69">
         <v>8</v>
@@ -51831,7 +51851,7 @@
     <row r="23" spans="2:11" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B23" s="71"/>
       <c r="C23" s="79" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D23" s="71"/>
       <c r="E23" s="71"/>
@@ -51845,52 +51865,52 @@
     <row r="24" spans="2:11" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B24" s="71"/>
       <c r="C24" s="78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="78" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E24" s="78" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F24" s="78" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G24" s="78" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H24" s="77" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I24" s="78" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J24" s="78" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K24" s="77" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B25" s="71"/>
       <c r="C25" s="69" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D25" s="69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E25" s="76" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F25" s="69" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G25" s="69" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H25" s="72" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I25" s="69">
         <v>1</v>
@@ -51899,7 +51919,7 @@
         <v>256</v>
       </c>
       <c r="K25" s="72" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="19.5" x14ac:dyDescent="0.4">
@@ -52786,206 +52806,206 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="142" t="s">
+      <c r="G27" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="143"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="143"/>
-      <c r="K27" s="143"/>
-      <c r="L27" s="144"/>
+      <c r="H27" s="144"/>
+      <c r="I27" s="144"/>
+      <c r="J27" s="144"/>
+      <c r="K27" s="144"/>
+      <c r="L27" s="145"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="87" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C28" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="D28" s="87" t="s">
-        <v>100</v>
-      </c>
-      <c r="E28" s="87" t="s">
-        <v>101</v>
-      </c>
       <c r="F28" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G28" s="138" t="s">
-        <v>210</v>
-      </c>
-      <c r="H28" s="139"/>
-      <c r="I28" s="139"/>
-      <c r="J28" s="139"/>
-      <c r="K28" s="139"/>
-      <c r="L28" s="140"/>
+        <v>99</v>
+      </c>
+      <c r="G28" s="139" t="s">
+        <v>208</v>
+      </c>
+      <c r="H28" s="140"/>
+      <c r="I28" s="140"/>
+      <c r="J28" s="140"/>
+      <c r="K28" s="140"/>
+      <c r="L28" s="141"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="126" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C29" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="D29" s="87" t="s">
-        <v>100</v>
-      </c>
-      <c r="E29" s="87" t="s">
-        <v>101</v>
-      </c>
       <c r="F29" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G29" s="138" t="s">
-        <v>212</v>
-      </c>
-      <c r="H29" s="139"/>
-      <c r="I29" s="139"/>
-      <c r="J29" s="139"/>
-      <c r="K29" s="139"/>
-      <c r="L29" s="140"/>
+        <v>99</v>
+      </c>
+      <c r="G29" s="139" t="s">
+        <v>210</v>
+      </c>
+      <c r="H29" s="140"/>
+      <c r="I29" s="140"/>
+      <c r="J29" s="140"/>
+      <c r="K29" s="140"/>
+      <c r="L29" s="141"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="127" t="s">
         <v>16</v>
       </c>
       <c r="C30" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="D30" s="87" t="s">
-        <v>100</v>
-      </c>
-      <c r="E30" s="87" t="s">
-        <v>101</v>
-      </c>
       <c r="F30" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G30" s="138" t="s">
-        <v>210</v>
-      </c>
-      <c r="H30" s="139"/>
-      <c r="I30" s="139"/>
-      <c r="J30" s="139"/>
-      <c r="K30" s="139"/>
-      <c r="L30" s="140"/>
+        <v>99</v>
+      </c>
+      <c r="G30" s="139" t="s">
+        <v>208</v>
+      </c>
+      <c r="H30" s="140"/>
+      <c r="I30" s="140"/>
+      <c r="J30" s="140"/>
+      <c r="K30" s="140"/>
+      <c r="L30" s="141"/>
     </row>
     <row r="31" spans="2:17" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="127" t="s">
         <v>17</v>
       </c>
       <c r="C31" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="87" t="s">
-        <v>100</v>
-      </c>
-      <c r="E31" s="87" t="s">
-        <v>101</v>
-      </c>
       <c r="F31" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G31" s="141" t="s">
-        <v>213</v>
-      </c>
-      <c r="H31" s="139"/>
-      <c r="I31" s="139"/>
-      <c r="J31" s="139"/>
-      <c r="K31" s="139"/>
-      <c r="L31" s="140"/>
+        <v>99</v>
+      </c>
+      <c r="G31" s="142" t="s">
+        <v>211</v>
+      </c>
+      <c r="H31" s="140"/>
+      <c r="I31" s="140"/>
+      <c r="J31" s="140"/>
+      <c r="K31" s="140"/>
+      <c r="L31" s="141"/>
     </row>
     <row r="32" spans="2:17" ht="66" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="128" t="s">
         <v>18</v>
       </c>
       <c r="C32" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="D32" s="87" t="s">
-        <v>100</v>
-      </c>
-      <c r="E32" s="87" t="s">
-        <v>101</v>
-      </c>
       <c r="F32" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G32" s="141" t="s">
-        <v>214</v>
-      </c>
-      <c r="H32" s="139"/>
-      <c r="I32" s="139"/>
-      <c r="J32" s="139"/>
-      <c r="K32" s="139"/>
-      <c r="L32" s="140"/>
+        <v>99</v>
+      </c>
+      <c r="G32" s="142" t="s">
+        <v>212</v>
+      </c>
+      <c r="H32" s="140"/>
+      <c r="I32" s="140"/>
+      <c r="J32" s="140"/>
+      <c r="K32" s="140"/>
+      <c r="L32" s="141"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="129" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C33" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="D33" s="87" t="s">
-        <v>100</v>
-      </c>
-      <c r="E33" s="87" t="s">
-        <v>101</v>
-      </c>
       <c r="F33" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G33" s="138" t="s">
-        <v>216</v>
-      </c>
-      <c r="H33" s="139"/>
-      <c r="I33" s="139"/>
-      <c r="J33" s="139"/>
-      <c r="K33" s="139"/>
-      <c r="L33" s="140"/>
+        <v>99</v>
+      </c>
+      <c r="G33" s="139" t="s">
+        <v>214</v>
+      </c>
+      <c r="H33" s="140"/>
+      <c r="I33" s="140"/>
+      <c r="J33" s="140"/>
+      <c r="K33" s="140"/>
+      <c r="L33" s="141"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="128" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C34" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="D34" s="87" t="s">
-        <v>100</v>
-      </c>
-      <c r="E34" s="87" t="s">
-        <v>101</v>
-      </c>
       <c r="F34" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G34" s="138" t="s">
-        <v>218</v>
-      </c>
-      <c r="H34" s="139"/>
-      <c r="I34" s="139"/>
-      <c r="J34" s="139"/>
-      <c r="K34" s="139"/>
-      <c r="L34" s="140"/>
+        <v>99</v>
+      </c>
+      <c r="G34" s="139" t="s">
+        <v>216</v>
+      </c>
+      <c r="H34" s="140"/>
+      <c r="I34" s="140"/>
+      <c r="J34" s="140"/>
+      <c r="K34" s="140"/>
+      <c r="L34" s="141"/>
     </row>
     <row r="35" spans="2:12" ht="84" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="130" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C35" s="87"/>
       <c r="D35" s="87"/>
       <c r="E35" s="87"/>
       <c r="F35" s="87"/>
-      <c r="G35" s="141" t="s">
-        <v>219</v>
-      </c>
-      <c r="H35" s="139"/>
-      <c r="I35" s="139"/>
-      <c r="J35" s="139"/>
-      <c r="K35" s="139"/>
-      <c r="L35" s="140"/>
+      <c r="G35" s="142" t="s">
+        <v>217</v>
+      </c>
+      <c r="H35" s="140"/>
+      <c r="I35" s="140"/>
+      <c r="J35" s="140"/>
+      <c r="K35" s="140"/>
+      <c r="L35" s="141"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -53025,11 +53045,11 @@
     <row r="2" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -53424,231 +53444,231 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="142" t="s">
+      <c r="G27" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="143"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="143"/>
-      <c r="K27" s="143"/>
-      <c r="L27" s="144"/>
+      <c r="H27" s="144"/>
+      <c r="I27" s="144"/>
+      <c r="J27" s="144"/>
+      <c r="K27" s="144"/>
+      <c r="L27" s="145"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="134" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="87" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="135" t="s">
         <v>138</v>
-      </c>
-      <c r="C28" s="87" t="s">
-        <v>139</v>
-      </c>
-      <c r="D28" s="87" t="s">
-        <v>100</v>
-      </c>
-      <c r="E28" s="135" t="s">
-        <v>140</v>
       </c>
       <c r="F28" s="87">
         <v>256</v>
       </c>
-      <c r="G28" s="145" t="s">
-        <v>141</v>
-      </c>
-      <c r="H28" s="146"/>
-      <c r="I28" s="146"/>
-      <c r="J28" s="146"/>
-      <c r="K28" s="146"/>
-      <c r="L28" s="147"/>
+      <c r="G28" s="146" t="s">
+        <v>139</v>
+      </c>
+      <c r="H28" s="147"/>
+      <c r="I28" s="147"/>
+      <c r="J28" s="147"/>
+      <c r="K28" s="147"/>
+      <c r="L28" s="148"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="91" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C29" s="87" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D29" s="87" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E29" s="87" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F29" s="87">
         <v>16</v>
       </c>
-      <c r="G29" s="145" t="s">
-        <v>223</v>
-      </c>
-      <c r="H29" s="146"/>
-      <c r="I29" s="146"/>
-      <c r="J29" s="146"/>
-      <c r="K29" s="146"/>
-      <c r="L29" s="147"/>
+      <c r="G29" s="146" t="s">
+        <v>221</v>
+      </c>
+      <c r="H29" s="147"/>
+      <c r="I29" s="147"/>
+      <c r="J29" s="147"/>
+      <c r="K29" s="147"/>
+      <c r="L29" s="148"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="87" t="s">
+        <v>222</v>
+      </c>
+      <c r="C30" s="87" t="s">
+        <v>223</v>
+      </c>
+      <c r="D30" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="87" t="s">
         <v>224</v>
       </c>
-      <c r="C30" s="87" t="s">
-        <v>225</v>
-      </c>
-      <c r="D30" s="87" t="s">
-        <v>100</v>
-      </c>
-      <c r="E30" s="87" t="s">
-        <v>226</v>
-      </c>
       <c r="F30" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G30" s="145" t="s">
-        <v>223</v>
-      </c>
-      <c r="H30" s="146"/>
-      <c r="I30" s="146"/>
-      <c r="J30" s="146"/>
-      <c r="K30" s="146"/>
-      <c r="L30" s="147"/>
+        <v>99</v>
+      </c>
+      <c r="G30" s="146" t="s">
+        <v>221</v>
+      </c>
+      <c r="H30" s="147"/>
+      <c r="I30" s="147"/>
+      <c r="J30" s="147"/>
+      <c r="K30" s="147"/>
+      <c r="L30" s="148"/>
     </row>
     <row r="31" spans="2:17" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="87" t="s">
+        <v>225</v>
+      </c>
+      <c r="C31" s="87" t="s">
+        <v>226</v>
+      </c>
+      <c r="D31" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="87" t="s">
+        <v>99</v>
+      </c>
+      <c r="F31" s="87" t="s">
+        <v>99</v>
+      </c>
+      <c r="G31" s="142" t="s">
         <v>227</v>
       </c>
-      <c r="C31" s="87" t="s">
-        <v>228</v>
-      </c>
-      <c r="D31" s="87" t="s">
-        <v>100</v>
-      </c>
-      <c r="E31" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="F31" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G31" s="141" t="s">
-        <v>229</v>
-      </c>
-      <c r="H31" s="139"/>
-      <c r="I31" s="139"/>
-      <c r="J31" s="139"/>
-      <c r="K31" s="139"/>
-      <c r="L31" s="140"/>
+      <c r="H31" s="140"/>
+      <c r="I31" s="140"/>
+      <c r="J31" s="140"/>
+      <c r="K31" s="140"/>
+      <c r="L31" s="141"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="92" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C32" s="87" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D32" s="87" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E32" s="87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F32" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G32" s="138" t="s">
-        <v>231</v>
-      </c>
-      <c r="H32" s="139"/>
-      <c r="I32" s="139"/>
-      <c r="J32" s="139"/>
-      <c r="K32" s="139"/>
-      <c r="L32" s="140"/>
+        <v>99</v>
+      </c>
+      <c r="G32" s="139" t="s">
+        <v>229</v>
+      </c>
+      <c r="H32" s="140"/>
+      <c r="I32" s="140"/>
+      <c r="J32" s="140"/>
+      <c r="K32" s="140"/>
+      <c r="L32" s="141"/>
     </row>
     <row r="33" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="92" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C33" s="87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D33" s="87" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E33" s="87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F33" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G33" s="141" t="s">
-        <v>233</v>
-      </c>
-      <c r="H33" s="139"/>
-      <c r="I33" s="139"/>
-      <c r="J33" s="139"/>
-      <c r="K33" s="139"/>
-      <c r="L33" s="140"/>
+        <v>99</v>
+      </c>
+      <c r="G33" s="142" t="s">
+        <v>231</v>
+      </c>
+      <c r="H33" s="140"/>
+      <c r="I33" s="140"/>
+      <c r="J33" s="140"/>
+      <c r="K33" s="140"/>
+      <c r="L33" s="141"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="92" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C34" s="87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D34" s="87" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E34" s="87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F34" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G34" s="141" t="s">
-        <v>234</v>
-      </c>
-      <c r="H34" s="139"/>
-      <c r="I34" s="139"/>
-      <c r="J34" s="139"/>
-      <c r="K34" s="139"/>
-      <c r="L34" s="140"/>
+        <v>99</v>
+      </c>
+      <c r="G34" s="142" t="s">
+        <v>232</v>
+      </c>
+      <c r="H34" s="140"/>
+      <c r="I34" s="140"/>
+      <c r="J34" s="140"/>
+      <c r="K34" s="140"/>
+      <c r="L34" s="141"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="91" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C35" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="D35" s="87" t="s">
-        <v>100</v>
-      </c>
-      <c r="E35" s="87" t="s">
-        <v>101</v>
-      </c>
       <c r="F35" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G35" s="145" t="s">
-        <v>236</v>
-      </c>
-      <c r="H35" s="146"/>
-      <c r="I35" s="146"/>
-      <c r="J35" s="146"/>
-      <c r="K35" s="146"/>
-      <c r="L35" s="147"/>
+        <v>99</v>
+      </c>
+      <c r="G35" s="146" t="s">
+        <v>234</v>
+      </c>
+      <c r="H35" s="147"/>
+      <c r="I35" s="147"/>
+      <c r="J35" s="147"/>
+      <c r="K35" s="147"/>
+      <c r="L35" s="148"/>
     </row>
     <row r="36" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="92" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C36" s="87"/>
       <c r="D36" s="87"/>
       <c r="E36" s="87"/>
       <c r="F36" s="87"/>
-      <c r="G36" s="141" t="s">
-        <v>237</v>
-      </c>
-      <c r="H36" s="139"/>
-      <c r="I36" s="139"/>
-      <c r="J36" s="139"/>
-      <c r="K36" s="139"/>
-      <c r="L36" s="140"/>
+      <c r="G36" s="142" t="s">
+        <v>235</v>
+      </c>
+      <c r="H36" s="140"/>
+      <c r="I36" s="140"/>
+      <c r="J36" s="140"/>
+      <c r="K36" s="140"/>
+      <c r="L36" s="141"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -53688,11 +53708,11 @@
     <row r="2" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -54087,114 +54107,114 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="142" t="s">
+      <c r="G27" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="143"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="143"/>
-      <c r="K27" s="143"/>
-      <c r="L27" s="144"/>
+      <c r="H27" s="144"/>
+      <c r="I27" s="144"/>
+      <c r="J27" s="144"/>
+      <c r="K27" s="144"/>
+      <c r="L27" s="145"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="87" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="104" t="s">
         <v>138</v>
-      </c>
-      <c r="C28" s="87" t="s">
-        <v>139</v>
-      </c>
-      <c r="D28" s="87" t="s">
-        <v>100</v>
-      </c>
-      <c r="E28" s="104" t="s">
-        <v>140</v>
       </c>
       <c r="F28" s="10">
         <v>256</v>
       </c>
-      <c r="G28" s="151" t="s">
-        <v>141</v>
-      </c>
-      <c r="H28" s="152"/>
-      <c r="I28" s="152"/>
-      <c r="J28" s="152"/>
-      <c r="K28" s="152"/>
-      <c r="L28" s="153"/>
+      <c r="G28" s="152" t="s">
+        <v>139</v>
+      </c>
+      <c r="H28" s="153"/>
+      <c r="I28" s="153"/>
+      <c r="J28" s="153"/>
+      <c r="K28" s="153"/>
+      <c r="L28" s="154"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" s="87" t="s">
+        <v>141</v>
+      </c>
+      <c r="D29" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="10" t="s">
         <v>142</v>
-      </c>
-      <c r="C29" s="87" t="s">
-        <v>143</v>
-      </c>
-      <c r="D29" s="87" t="s">
-        <v>100</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>144</v>
       </c>
       <c r="F29" s="10">
         <v>16</v>
       </c>
-      <c r="G29" s="138" t="s">
-        <v>145</v>
-      </c>
-      <c r="H29" s="139"/>
-      <c r="I29" s="139"/>
-      <c r="J29" s="139"/>
-      <c r="K29" s="139"/>
-      <c r="L29" s="140"/>
+      <c r="G29" s="139" t="s">
+        <v>143</v>
+      </c>
+      <c r="H29" s="140"/>
+      <c r="I29" s="140"/>
+      <c r="J29" s="140"/>
+      <c r="K29" s="140"/>
+      <c r="L29" s="141"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" s="87" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="87" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="87" t="s">
+        <v>99</v>
+      </c>
+      <c r="G30" s="142" t="s">
         <v>146</v>
       </c>
-      <c r="C30" s="87" t="s">
-        <v>147</v>
-      </c>
-      <c r="D30" s="87" t="s">
-        <v>100</v>
-      </c>
-      <c r="E30" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="F30" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G30" s="141" t="s">
-        <v>148</v>
-      </c>
-      <c r="H30" s="139"/>
-      <c r="I30" s="139"/>
-      <c r="J30" s="139"/>
-      <c r="K30" s="139"/>
-      <c r="L30" s="140"/>
+      <c r="H30" s="140"/>
+      <c r="I30" s="140"/>
+      <c r="J30" s="140"/>
+      <c r="K30" s="140"/>
+      <c r="L30" s="141"/>
     </row>
     <row r="31" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="87" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C31" s="87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D31" s="87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E31" s="87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F31" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G31" s="154" t="s">
-        <v>149</v>
-      </c>
-      <c r="H31" s="155"/>
-      <c r="I31" s="155"/>
-      <c r="J31" s="155"/>
-      <c r="K31" s="155"/>
-      <c r="L31" s="156"/>
+        <v>99</v>
+      </c>
+      <c r="G31" s="155" t="s">
+        <v>147</v>
+      </c>
+      <c r="H31" s="156"/>
+      <c r="I31" s="156"/>
+      <c r="J31" s="156"/>
+      <c r="K31" s="156"/>
+      <c r="L31" s="157"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10"/>
@@ -54202,12 +54222,12 @@
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="138"/>
-      <c r="H32" s="139"/>
-      <c r="I32" s="139"/>
-      <c r="J32" s="139"/>
-      <c r="K32" s="139"/>
-      <c r="L32" s="140"/>
+      <c r="G32" s="139"/>
+      <c r="H32" s="140"/>
+      <c r="I32" s="140"/>
+      <c r="J32" s="140"/>
+      <c r="K32" s="140"/>
+      <c r="L32" s="141"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="98"/>
@@ -54215,12 +54235,12 @@
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="138"/>
-      <c r="H33" s="139"/>
-      <c r="I33" s="139"/>
-      <c r="J33" s="139"/>
-      <c r="K33" s="139"/>
-      <c r="L33" s="140"/>
+      <c r="G33" s="139"/>
+      <c r="H33" s="140"/>
+      <c r="I33" s="140"/>
+      <c r="J33" s="140"/>
+      <c r="K33" s="140"/>
+      <c r="L33" s="141"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="10"/>
@@ -54228,12 +54248,12 @@
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="148"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="150"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="150"/>
+      <c r="K34" s="150"/>
+      <c r="L34" s="151"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="10"/>
@@ -54241,12 +54261,12 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="148"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="149"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="150"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="150"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="150"/>
+      <c r="K35" s="150"/>
+      <c r="L35" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -54285,11 +54305,11 @@
     <row r="2" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -54684,39 +54704,39 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="142" t="s">
+      <c r="G27" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="143"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="143"/>
-      <c r="K27" s="143"/>
-      <c r="L27" s="144"/>
+      <c r="H27" s="144"/>
+      <c r="I27" s="144"/>
+      <c r="J27" s="144"/>
+      <c r="K27" s="144"/>
+      <c r="L27" s="145"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="87" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C28" s="87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D28" s="87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E28" s="87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F28" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G28" s="154" t="s">
-        <v>149</v>
-      </c>
-      <c r="H28" s="155"/>
-      <c r="I28" s="155"/>
-      <c r="J28" s="155"/>
-      <c r="K28" s="155"/>
-      <c r="L28" s="156"/>
+        <v>99</v>
+      </c>
+      <c r="G28" s="155" t="s">
+        <v>147</v>
+      </c>
+      <c r="H28" s="156"/>
+      <c r="I28" s="156"/>
+      <c r="J28" s="156"/>
+      <c r="K28" s="156"/>
+      <c r="L28" s="157"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="10"/>
@@ -54724,12 +54744,12 @@
       <c r="D29" s="87"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="148"/>
-      <c r="H29" s="149"/>
-      <c r="I29" s="149"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="150"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="150"/>
+      <c r="K29" s="150"/>
+      <c r="L29" s="151"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="10"/>
@@ -54737,12 +54757,12 @@
       <c r="D30" s="87"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="141"/>
-      <c r="H30" s="139"/>
-      <c r="I30" s="139"/>
-      <c r="J30" s="139"/>
-      <c r="K30" s="139"/>
-      <c r="L30" s="140"/>
+      <c r="G30" s="142"/>
+      <c r="H30" s="140"/>
+      <c r="I30" s="140"/>
+      <c r="J30" s="140"/>
+      <c r="K30" s="140"/>
+      <c r="L30" s="141"/>
     </row>
     <row r="31" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="10"/>
@@ -54750,12 +54770,12 @@
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
-      <c r="G31" s="138"/>
-      <c r="H31" s="139"/>
-      <c r="I31" s="139"/>
-      <c r="J31" s="139"/>
-      <c r="K31" s="139"/>
-      <c r="L31" s="140"/>
+      <c r="G31" s="139"/>
+      <c r="H31" s="140"/>
+      <c r="I31" s="140"/>
+      <c r="J31" s="140"/>
+      <c r="K31" s="140"/>
+      <c r="L31" s="141"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10"/>
@@ -54763,12 +54783,12 @@
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="138"/>
-      <c r="H32" s="139"/>
-      <c r="I32" s="139"/>
-      <c r="J32" s="139"/>
-      <c r="K32" s="139"/>
-      <c r="L32" s="140"/>
+      <c r="G32" s="139"/>
+      <c r="H32" s="140"/>
+      <c r="I32" s="140"/>
+      <c r="J32" s="140"/>
+      <c r="K32" s="140"/>
+      <c r="L32" s="141"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="98"/>
@@ -54776,12 +54796,12 @@
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="138"/>
-      <c r="H33" s="139"/>
-      <c r="I33" s="139"/>
-      <c r="J33" s="139"/>
-      <c r="K33" s="139"/>
-      <c r="L33" s="140"/>
+      <c r="G33" s="139"/>
+      <c r="H33" s="140"/>
+      <c r="I33" s="140"/>
+      <c r="J33" s="140"/>
+      <c r="K33" s="140"/>
+      <c r="L33" s="141"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="10"/>
@@ -54789,12 +54809,12 @@
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="148"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="150"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="150"/>
+      <c r="K34" s="150"/>
+      <c r="L34" s="151"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="10"/>
@@ -54802,12 +54822,12 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="148"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="149"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="150"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="150"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="150"/>
+      <c r="K35" s="150"/>
+      <c r="L35" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -54846,11 +54866,11 @@
     <row r="2" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -55245,39 +55265,39 @@
       <c r="F27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="142" t="s">
+      <c r="G27" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="143"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="143"/>
-      <c r="K27" s="143"/>
-      <c r="L27" s="144"/>
+      <c r="H27" s="144"/>
+      <c r="I27" s="144"/>
+      <c r="J27" s="144"/>
+      <c r="K27" s="144"/>
+      <c r="L27" s="145"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="87" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C28" s="87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D28" s="87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E28" s="87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F28" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G28" s="154" t="s">
-        <v>149</v>
-      </c>
-      <c r="H28" s="155"/>
-      <c r="I28" s="155"/>
-      <c r="J28" s="155"/>
-      <c r="K28" s="155"/>
-      <c r="L28" s="156"/>
+        <v>99</v>
+      </c>
+      <c r="G28" s="155" t="s">
+        <v>147</v>
+      </c>
+      <c r="H28" s="156"/>
+      <c r="I28" s="156"/>
+      <c r="J28" s="156"/>
+      <c r="K28" s="156"/>
+      <c r="L28" s="157"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="10"/>
@@ -55285,12 +55305,12 @@
       <c r="D29" s="87"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="148"/>
-      <c r="H29" s="149"/>
-      <c r="I29" s="149"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="150"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="150"/>
+      <c r="K29" s="150"/>
+      <c r="L29" s="151"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="10"/>
@@ -55298,12 +55318,12 @@
       <c r="D30" s="87"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="141"/>
-      <c r="H30" s="139"/>
-      <c r="I30" s="139"/>
-      <c r="J30" s="139"/>
-      <c r="K30" s="139"/>
-      <c r="L30" s="140"/>
+      <c r="G30" s="142"/>
+      <c r="H30" s="140"/>
+      <c r="I30" s="140"/>
+      <c r="J30" s="140"/>
+      <c r="K30" s="140"/>
+      <c r="L30" s="141"/>
     </row>
     <row r="31" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="10"/>
@@ -55311,12 +55331,12 @@
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
-      <c r="G31" s="138"/>
-      <c r="H31" s="139"/>
-      <c r="I31" s="139"/>
-      <c r="J31" s="139"/>
-      <c r="K31" s="139"/>
-      <c r="L31" s="140"/>
+      <c r="G31" s="139"/>
+      <c r="H31" s="140"/>
+      <c r="I31" s="140"/>
+      <c r="J31" s="140"/>
+      <c r="K31" s="140"/>
+      <c r="L31" s="141"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10"/>
@@ -55324,12 +55344,12 @@
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="138"/>
-      <c r="H32" s="139"/>
-      <c r="I32" s="139"/>
-      <c r="J32" s="139"/>
-      <c r="K32" s="139"/>
-      <c r="L32" s="140"/>
+      <c r="G32" s="139"/>
+      <c r="H32" s="140"/>
+      <c r="I32" s="140"/>
+      <c r="J32" s="140"/>
+      <c r="K32" s="140"/>
+      <c r="L32" s="141"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="98"/>
@@ -55337,12 +55357,12 @@
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="138"/>
-      <c r="H33" s="139"/>
-      <c r="I33" s="139"/>
-      <c r="J33" s="139"/>
-      <c r="K33" s="139"/>
-      <c r="L33" s="140"/>
+      <c r="G33" s="139"/>
+      <c r="H33" s="140"/>
+      <c r="I33" s="140"/>
+      <c r="J33" s="140"/>
+      <c r="K33" s="140"/>
+      <c r="L33" s="141"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="10"/>
@@ -55350,12 +55370,12 @@
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="148"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="150"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="150"/>
+      <c r="K34" s="150"/>
+      <c r="L34" s="151"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="10"/>
@@ -55363,12 +55383,12 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="148"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="149"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="150"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="150"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="150"/>
+      <c r="K35" s="150"/>
+      <c r="L35" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/提出物/詳細設計書.xlsx
+++ b/提出物/詳細設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\GUYS\提出物\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6090AE-2CA0-4C52-9CE6-91C8CBC5A4CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764A817A-7132-4299-9228-8DDADD8D9C8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" tabRatio="820" activeTab="2" xr2:uid="{D1900441-24B9-4624-8A47-94F74F569874}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" tabRatio="820" activeTab="13" xr2:uid="{D1900441-24B9-4624-8A47-94F74F569874}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -266,7 +266,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="300">
   <si>
     <t>関係者外秘</t>
     <rPh sb="0" eb="3">
@@ -2258,43 +2258,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ボタン押下時、パスワードをDBのパスワードと照合し、同じならDB内の名前の値と性別の値を入力された名前と選択された性別の値に更新する。</t>
-    <rPh sb="3" eb="6">
-      <t>オウカジ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>セイベツ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>セイベツ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>アカウント削除ページ</t>
     <rPh sb="5" eb="7">
       <t>サクジョ</t>
@@ -2590,6 +2553,74 @@
   <si>
     <t>users</t>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ボタン押下時、セッションにあるIDをDBのIDと照合し、同じならDB内の名前の値と性別の値を入力された名前と選択された性別の値に更新する。</t>
+    <rPh sb="3" eb="6">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>入力エラーの際に表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>入力チェック：未入力チェック</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -3612,6 +3643,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3626,21 +3672,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -7129,147 +7160,6 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>659606</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>83344</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>157638</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>150019</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="正方形/長方形 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{593D90D7-C165-44DE-805F-307F822EA37E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4374356" y="3455194"/>
-          <a:ext cx="2803207" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>604838</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>45244</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>500063</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="テキスト ボックス 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3CF95A2-AB05-4AC6-B656-619DFDC33FF5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2481263" y="3417094"/>
-          <a:ext cx="1733550" cy="383381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>パスワード：</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -42542,7 +42432,7 @@
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B16" s="138" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C16" s="138"/>
     </row>
@@ -42777,16 +42667,16 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B13" s="7"/>
-      <c r="C13" s="165">
+      <c r="C13" s="160">
         <v>1</v>
       </c>
-      <c r="D13" s="165" t="s">
+      <c r="D13" s="160" t="s">
         <v>171</v>
       </c>
       <c r="E13" s="158" t="s">
         <v>172</v>
       </c>
-      <c r="F13" s="168" t="s">
+      <c r="F13" s="163" t="s">
         <v>173</v>
       </c>
       <c r="G13" s="158" t="s">
@@ -42808,10 +42698,10 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B14" s="7"/>
-      <c r="C14" s="165"/>
-      <c r="D14" s="165"/>
+      <c r="C14" s="160"/>
+      <c r="D14" s="160"/>
       <c r="E14" s="159"/>
-      <c r="F14" s="169"/>
+      <c r="F14" s="164"/>
       <c r="G14" s="159"/>
       <c r="H14" s="159"/>
       <c r="I14" s="159"/>
@@ -42825,7 +42715,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B15" s="7"/>
-      <c r="C15" s="165">
+      <c r="C15" s="160">
         <v>2</v>
       </c>
       <c r="D15" s="158" t="s">
@@ -42834,7 +42724,7 @@
       <c r="E15" s="158" t="s">
         <v>172</v>
       </c>
-      <c r="F15" s="166" t="s">
+      <c r="F15" s="161" t="s">
         <v>175</v>
       </c>
       <c r="G15" s="158" t="s">
@@ -42856,10 +42746,10 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B16" s="7"/>
-      <c r="C16" s="165"/>
+      <c r="C16" s="160"/>
       <c r="D16" s="159"/>
       <c r="E16" s="159"/>
-      <c r="F16" s="167"/>
+      <c r="F16" s="162"/>
       <c r="G16" s="159"/>
       <c r="H16" s="159"/>
       <c r="I16" s="159"/>
@@ -42873,7 +42763,7 @@
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B17" s="7"/>
-      <c r="C17" s="165">
+      <c r="C17" s="160">
         <v>3</v>
       </c>
       <c r="D17" s="158" t="s">
@@ -42882,7 +42772,7 @@
       <c r="E17" s="158" t="s">
         <v>172</v>
       </c>
-      <c r="F17" s="166" t="s">
+      <c r="F17" s="161" t="s">
         <v>177</v>
       </c>
       <c r="G17" s="158" t="s">
@@ -42904,10 +42794,10 @@
     </row>
     <row r="18" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="7"/>
-      <c r="C18" s="165"/>
+      <c r="C18" s="160"/>
       <c r="D18" s="159"/>
       <c r="E18" s="159"/>
-      <c r="F18" s="167"/>
+      <c r="F18" s="162"/>
       <c r="G18" s="159"/>
       <c r="H18" s="159"/>
       <c r="I18" s="159"/>
@@ -43108,7 +42998,7 @@
       <c r="F28" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="G28" s="160" t="s">
+      <c r="G28" s="165" t="s">
         <v>179</v>
       </c>
       <c r="H28" s="156"/>
@@ -43133,7 +43023,7 @@
       <c r="F29" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="G29" s="161" t="s">
+      <c r="G29" s="166" t="s">
         <v>181</v>
       </c>
       <c r="H29" s="156"/>
@@ -43158,14 +43048,14 @@
       <c r="F30" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="G30" s="162" t="s">
+      <c r="G30" s="167" t="s">
         <v>182</v>
       </c>
-      <c r="H30" s="163"/>
-      <c r="I30" s="163"/>
-      <c r="J30" s="163"/>
-      <c r="K30" s="163"/>
-      <c r="L30" s="164"/>
+      <c r="H30" s="168"/>
+      <c r="I30" s="168"/>
+      <c r="J30" s="168"/>
+      <c r="K30" s="168"/>
+      <c r="L30" s="169"/>
     </row>
     <row r="31" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="87" t="s">
@@ -43246,6 +43136,22 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="G32:L32"/>
+    <mergeCell ref="G33:L33"/>
+    <mergeCell ref="G34:L34"/>
+    <mergeCell ref="G35:L35"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="G27:L27"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:D16"/>
@@ -43260,22 +43166,6 @@
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H13:H14"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G32:L32"/>
-    <mergeCell ref="G33:L33"/>
-    <mergeCell ref="G34:L34"/>
-    <mergeCell ref="G35:L35"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="G27:L27"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="G29:L29"/>
-    <mergeCell ref="G30:L30"/>
-    <mergeCell ref="G31:L31"/>
-    <mergeCell ref="H17:H18"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43303,11 +43193,11 @@
     <row r="2" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -43713,7 +43603,7 @@
     </row>
     <row r="28" spans="2:17" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="134" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C28" s="87" t="s">
         <v>97</v>
@@ -43738,7 +43628,7 @@
     </row>
     <row r="29" spans="2:17" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="91" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C29" s="87" t="s">
         <v>97</v>
@@ -43753,7 +43643,7 @@
         <v>99</v>
       </c>
       <c r="G29" s="146" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H29" s="147"/>
       <c r="I29" s="147"/>
@@ -43763,7 +43653,7 @@
     </row>
     <row r="30" spans="2:17" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="87" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C30" s="87" t="s">
         <v>97</v>
@@ -43778,7 +43668,7 @@
         <v>99</v>
       </c>
       <c r="G30" s="146" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H30" s="147"/>
       <c r="I30" s="147"/>
@@ -43788,7 +43678,7 @@
     </row>
     <row r="31" spans="2:17" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="87" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C31" s="87" t="s">
         <v>97</v>
@@ -43803,7 +43693,7 @@
         <v>99</v>
       </c>
       <c r="G31" s="142" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H31" s="140"/>
       <c r="I31" s="140"/>
@@ -43813,7 +43703,7 @@
     </row>
     <row r="32" spans="2:17" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="136" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C32" s="87" t="s">
         <v>97</v>
@@ -43828,7 +43718,7 @@
         <v>99</v>
       </c>
       <c r="G32" s="139" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H32" s="140"/>
       <c r="I32" s="140"/>
@@ -43838,7 +43728,7 @@
     </row>
     <row r="33" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="92" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C33" s="87" t="s">
         <v>97</v>
@@ -43853,7 +43743,7 @@
         <v>99</v>
       </c>
       <c r="G33" s="142" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H33" s="140"/>
       <c r="I33" s="140"/>
@@ -43863,10 +43753,10 @@
     </row>
     <row r="34" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="92" t="s">
+        <v>273</v>
+      </c>
+      <c r="C34" s="87" t="s">
         <v>274</v>
-      </c>
-      <c r="C34" s="87" t="s">
-        <v>275</v>
       </c>
       <c r="D34" s="87" t="s">
         <v>98</v>
@@ -43874,7 +43764,7 @@
       <c r="E34" s="87"/>
       <c r="F34" s="87"/>
       <c r="G34" s="142" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H34" s="140"/>
       <c r="I34" s="140"/>
@@ -43884,7 +43774,7 @@
     </row>
     <row r="35" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="91" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C35" s="87" t="s">
         <v>145</v>
@@ -43899,7 +43789,7 @@
         <v>99</v>
       </c>
       <c r="G35" s="146" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H35" s="147"/>
       <c r="I35" s="147"/>
@@ -43924,7 +43814,7 @@
         <v>99</v>
       </c>
       <c r="G36" s="139" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H36" s="140"/>
       <c r="I36" s="140"/>
@@ -43934,7 +43824,7 @@
     </row>
     <row r="37" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="92" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C37" s="87" t="s">
         <v>99</v>
@@ -43949,7 +43839,7 @@
         <v>99</v>
       </c>
       <c r="G37" s="139" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H37" s="140"/>
       <c r="I37" s="140"/>
@@ -43959,7 +43849,7 @@
     </row>
     <row r="38" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="91" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C38" s="87" t="s">
         <v>99</v>
@@ -43974,7 +43864,7 @@
         <v>99</v>
       </c>
       <c r="G38" s="139" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H38" s="140"/>
       <c r="I38" s="140"/>
@@ -43999,7 +43889,7 @@
         <v>99</v>
       </c>
       <c r="G39" s="139" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H39" s="140"/>
       <c r="I39" s="140"/>
@@ -44024,7 +43914,7 @@
         <v>99</v>
       </c>
       <c r="G40" s="139" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H40" s="140"/>
       <c r="I40" s="140"/>
@@ -44034,10 +43924,10 @@
     </row>
     <row r="41" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="91" t="s">
+        <v>285</v>
+      </c>
+      <c r="C41" s="87" t="s">
         <v>286</v>
-      </c>
-      <c r="C41" s="87" t="s">
-        <v>287</v>
       </c>
       <c r="D41" s="87" t="s">
         <v>107</v>
@@ -44049,7 +43939,7 @@
         <v>99</v>
       </c>
       <c r="G41" s="139" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H41" s="140"/>
       <c r="I41" s="140"/>
@@ -44102,12 +43992,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="G32:L32"/>
-    <mergeCell ref="G27:L27"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="G29:L29"/>
-    <mergeCell ref="G30:L30"/>
-    <mergeCell ref="G31:L31"/>
     <mergeCell ref="G44:L44"/>
     <mergeCell ref="G33:L33"/>
     <mergeCell ref="G34:L34"/>
@@ -44120,6 +44004,12 @@
     <mergeCell ref="G41:L41"/>
     <mergeCell ref="G42:L42"/>
     <mergeCell ref="G43:L43"/>
+    <mergeCell ref="G32:L32"/>
+    <mergeCell ref="G27:L27"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="G31:L31"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -44283,7 +44173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFAF7C30-6478-49B7-AF95-64B8AFF7B084}">
   <dimension ref="A2:T35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -44721,7 +44611,7 @@
       <c r="F28" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="G28" s="161" t="s">
+      <c r="G28" s="166" t="s">
         <v>155</v>
       </c>
       <c r="H28" s="156"/>
@@ -44746,7 +44636,7 @@
       <c r="F29" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="G29" s="161" t="s">
+      <c r="G29" s="166" t="s">
         <v>157</v>
       </c>
       <c r="H29" s="156"/>
@@ -44771,7 +44661,7 @@
       <c r="F30" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="G30" s="161" t="s">
+      <c r="G30" s="166" t="s">
         <v>159</v>
       </c>
       <c r="H30" s="156"/>
@@ -44796,7 +44686,7 @@
       <c r="F31" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="G31" s="161" t="s">
+      <c r="G31" s="166" t="s">
         <v>161</v>
       </c>
       <c r="H31" s="156"/>
@@ -44890,10 +44780,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCBF37DA-2305-44F0-8889-333AF9D79BC2}">
-  <dimension ref="A2:T35"/>
+  <dimension ref="A2:T34"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -45317,19 +45207,19 @@
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="87" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="C28" s="87" t="s">
-        <v>141</v>
+        <v>223</v>
       </c>
       <c r="D28" s="87" t="s">
         <v>98</v>
       </c>
       <c r="E28" s="87" t="s">
-        <v>220</v>
-      </c>
-      <c r="F28" s="87">
-        <v>16</v>
+        <v>299</v>
+      </c>
+      <c r="F28" s="87" t="s">
+        <v>297</v>
       </c>
       <c r="G28" s="146" t="s">
         <v>239</v>
@@ -45342,22 +45232,22 @@
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="C29" s="87" t="s">
-        <v>141</v>
+        <v>226</v>
       </c>
       <c r="D29" s="87" t="s">
         <v>98</v>
       </c>
       <c r="E29" s="87" t="s">
-        <v>220</v>
-      </c>
-      <c r="F29" s="87">
-        <v>16</v>
+        <v>297</v>
+      </c>
+      <c r="F29" s="87" t="s">
+        <v>297</v>
       </c>
       <c r="G29" s="146" t="s">
-        <v>239</v>
+        <v>298</v>
       </c>
       <c r="H29" s="147"/>
       <c r="I29" s="147"/>
@@ -45365,40 +45255,40 @@
       <c r="K29" s="147"/>
       <c r="L29" s="148"/>
     </row>
-    <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="100" t="s">
-        <v>251</v>
+    <row r="30" spans="2:17" ht="70.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="92" t="s">
+        <v>240</v>
       </c>
       <c r="C30" s="87" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D30" s="87" t="s">
         <v>98</v>
       </c>
       <c r="E30" s="87" t="s">
-        <v>220</v>
-      </c>
-      <c r="F30" s="87">
-        <v>16</v>
-      </c>
-      <c r="G30" s="146" t="s">
-        <v>239</v>
-      </c>
-      <c r="H30" s="147"/>
-      <c r="I30" s="147"/>
-      <c r="J30" s="147"/>
-      <c r="K30" s="147"/>
-      <c r="L30" s="148"/>
-    </row>
-    <row r="31" spans="2:17" ht="70.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="F30" s="87" t="s">
+        <v>99</v>
+      </c>
+      <c r="G30" s="142" t="s">
+        <v>295</v>
+      </c>
+      <c r="H30" s="140"/>
+      <c r="I30" s="140"/>
+      <c r="J30" s="140"/>
+      <c r="K30" s="140"/>
+      <c r="L30" s="141"/>
+    </row>
+    <row r="31" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="92" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C31" s="87" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="D31" s="87" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E31" s="87" t="s">
         <v>99</v>
@@ -45407,7 +45297,7 @@
         <v>99</v>
       </c>
       <c r="G31" s="142" t="s">
-        <v>255</v>
+        <v>296</v>
       </c>
       <c r="H31" s="140"/>
       <c r="I31" s="140"/>
@@ -45415,9 +45305,9 @@
       <c r="K31" s="140"/>
       <c r="L31" s="141"/>
     </row>
-    <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:17" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="92" t="s">
-        <v>230</v>
+        <v>113</v>
       </c>
       <c r="C32" s="87" t="s">
         <v>99</v>
@@ -45432,7 +45322,7 @@
         <v>99</v>
       </c>
       <c r="G32" s="142" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H32" s="140"/>
       <c r="I32" s="140"/>
@@ -45440,15 +45330,15 @@
       <c r="K32" s="140"/>
       <c r="L32" s="141"/>
     </row>
-    <row r="33" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="92" t="s">
-        <v>113</v>
+    <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="91" t="s">
+        <v>244</v>
       </c>
       <c r="C33" s="87" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D33" s="87" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E33" s="87" t="s">
         <v>99</v>
@@ -45456,33 +45346,25 @@
       <c r="F33" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="G33" s="142" t="s">
-        <v>243</v>
-      </c>
-      <c r="H33" s="140"/>
-      <c r="I33" s="140"/>
-      <c r="J33" s="140"/>
-      <c r="K33" s="140"/>
-      <c r="L33" s="141"/>
+      <c r="G33" s="146" t="s">
+        <v>245</v>
+      </c>
+      <c r="H33" s="147"/>
+      <c r="I33" s="147"/>
+      <c r="J33" s="147"/>
+      <c r="K33" s="147"/>
+      <c r="L33" s="148"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="91" t="s">
-        <v>244</v>
-      </c>
-      <c r="C34" s="87" t="s">
-        <v>97</v>
-      </c>
-      <c r="D34" s="87" t="s">
-        <v>98</v>
-      </c>
-      <c r="E34" s="87" t="s">
-        <v>99</v>
-      </c>
-      <c r="F34" s="87" t="s">
-        <v>99</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
       <c r="G34" s="146" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H34" s="147"/>
       <c r="I34" s="147"/>
@@ -45490,34 +45372,16 @@
       <c r="K34" s="147"/>
       <c r="L34" s="148"/>
     </row>
-    <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="91" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35" s="87"/>
-      <c r="D35" s="87"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="87"/>
-      <c r="G35" s="146" t="s">
-        <v>246</v>
-      </c>
-      <c r="H35" s="147"/>
-      <c r="I35" s="147"/>
-      <c r="J35" s="147"/>
-      <c r="K35" s="147"/>
-      <c r="L35" s="148"/>
-    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
+    <mergeCell ref="G32:L32"/>
     <mergeCell ref="G33:L33"/>
     <mergeCell ref="G34:L34"/>
-    <mergeCell ref="G35:L35"/>
     <mergeCell ref="G27:L27"/>
     <mergeCell ref="G28:L28"/>
     <mergeCell ref="G29:L29"/>
     <mergeCell ref="G30:L30"/>
     <mergeCell ref="G31:L31"/>
-    <mergeCell ref="G32:L32"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -46821,11 +46685,11 @@
     <row r="2" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -47231,7 +47095,7 @@
     </row>
     <row r="28" spans="2:17" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="120" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C28" s="87" t="s">
         <v>145</v>
@@ -47246,7 +47110,7 @@
         <v>99</v>
       </c>
       <c r="G28" s="170" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H28" s="147"/>
       <c r="I28" s="147"/>
@@ -47271,7 +47135,7 @@
         <v>99</v>
       </c>
       <c r="G29" s="170" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H29" s="147"/>
       <c r="I29" s="147"/>
@@ -47780,7 +47644,7 @@
       <c r="F28" s="87" t="s">
         <v>111</v>
       </c>
-      <c r="G28" s="160" t="s">
+      <c r="G28" s="165" t="s">
         <v>112</v>
       </c>
       <c r="H28" s="171"/>
@@ -47953,11 +47817,11 @@
     <row r="2" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -49223,7 +49087,7 @@
     <row r="3" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="2:10" x14ac:dyDescent="0.4">
       <c r="C4" s="63" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D4" s="65"/>
       <c r="E4" s="65"/>
@@ -49755,11 +49619,11 @@
     <row r="2" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -50367,17 +50231,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="G27:L27"/>
-    <mergeCell ref="G29:L29"/>
-    <mergeCell ref="G30:L30"/>
-    <mergeCell ref="G31:L31"/>
-    <mergeCell ref="G33:L33"/>
     <mergeCell ref="G35:L35"/>
     <mergeCell ref="G36:L36"/>
     <mergeCell ref="G37:L37"/>
     <mergeCell ref="G28:L28"/>
     <mergeCell ref="G32:L32"/>
     <mergeCell ref="G34:L34"/>
+    <mergeCell ref="G27:L27"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="G33:L33"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -50959,7 +50823,7 @@
   </sheetPr>
   <dimension ref="B2:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -50998,7 +50862,7 @@
     </row>
     <row r="5" spans="2:13" ht="19.5" x14ac:dyDescent="0.4">
       <c r="C5" s="65" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D5" s="65"/>
       <c r="F5" s="65" t="s">

--- a/提出物/詳細設計書.xlsx
+++ b/提出物/詳細設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\GUYS\提出物\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E01009-66DB-4540-A080-561B0E802D12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD6A5DA-48AD-4D55-9E43-29DABC25F150}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" tabRatio="820" firstSheet="8" activeTab="19" xr2:uid="{D1900441-24B9-4624-8A47-94F74F569874}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" tabRatio="820" firstSheet="5" activeTab="5" xr2:uid="{D1900441-24B9-4624-8A47-94F74F569874}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -266,7 +266,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="317">
   <si>
     <t>関係者外秘</t>
     <rPh sb="0" eb="3">
@@ -2769,6 +2769,10 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -3741,6 +3745,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3764,6 +3780,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3807,9 +3829,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3825,6 +3844,45 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3832,12 +3890,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3851,54 +3903,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -29940,13 +29944,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:colOff>666749</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>146685</xdr:colOff>
+      <xdr:colOff>369093</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
@@ -29963,8 +29967,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2295525" y="2266950"/>
-          <a:ext cx="1318260" cy="320040"/>
+          <a:off x="2297905" y="2276475"/>
+          <a:ext cx="1547813" cy="320040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -30010,15 +30014,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:colOff>416718</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>83343</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
+      <xdr:colOff>605313</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>150018</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -30033,8 +30037,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3705225" y="2276475"/>
-          <a:ext cx="2712720" cy="304800"/>
+          <a:off x="3893343" y="2274093"/>
+          <a:ext cx="2724626" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -30080,13 +30084,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:colOff>400050</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>445770</xdr:colOff>
+      <xdr:colOff>588645</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -30103,8 +30107,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3724275" y="2676525"/>
-          <a:ext cx="2712720" cy="304800"/>
+          <a:off x="3876675" y="2686050"/>
+          <a:ext cx="2724626" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -30150,15 +30154,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>433388</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>455295</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>621983</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>173831</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -30173,8 +30177,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3733800" y="3086100"/>
-          <a:ext cx="2712720" cy="304800"/>
+          <a:off x="3910013" y="3488531"/>
+          <a:ext cx="2724626" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -30220,15 +30224,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>426244</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>21431</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>483870</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:colOff>614839</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>88106</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -30243,8 +30247,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3762375" y="3524250"/>
-          <a:ext cx="2712720" cy="304800"/>
+          <a:off x="3902869" y="3879056"/>
+          <a:ext cx="2724626" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -30295,13 +30299,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:colOff>676274</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>156210</xdr:colOff>
+      <xdr:colOff>345280</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
@@ -30318,8 +30322,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2305050" y="2667000"/>
-          <a:ext cx="1318260" cy="320040"/>
+          <a:off x="2307430" y="2676525"/>
+          <a:ext cx="1514475" cy="320040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -30365,15 +30369,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>664368</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>156210</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>177165</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -30388,8 +30392,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2305050" y="3086100"/>
-          <a:ext cx="1318260" cy="320040"/>
+          <a:off x="2295524" y="3476625"/>
+          <a:ext cx="1538288" cy="320040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -30436,14 +30440,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>11907</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>156210</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>224790</xdr:rowOff>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>93822</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -30458,8 +30462,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2305050" y="3514725"/>
-          <a:ext cx="1318260" cy="320040"/>
+          <a:off x="2307431" y="3869532"/>
+          <a:ext cx="1574006" cy="320040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -30813,15 +30817,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>154781</xdr:rowOff>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>214312</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>500061</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>214313</xdr:rowOff>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>35719</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -30836,8 +30840,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10667999" y="3050381"/>
-          <a:ext cx="995362" cy="297657"/>
+          <a:off x="10739437" y="3357562"/>
+          <a:ext cx="1000125" cy="297657"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -30953,15 +30957,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>214313</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>428624</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>226220</xdr:rowOff>
+      <xdr:colOff>452437</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -30976,8 +30980,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10691813" y="3538538"/>
-          <a:ext cx="900111" cy="297657"/>
+          <a:off x="10763251" y="3750469"/>
+          <a:ext cx="904874" cy="297657"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -31023,15 +31027,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>59531</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>202407</xdr:rowOff>
+      <xdr:colOff>107156</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>130968</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>173831</xdr:rowOff>
+      <xdr:colOff>178593</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>54768</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -31046,8 +31050,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11908631" y="3098007"/>
-          <a:ext cx="757237" cy="209549"/>
+          <a:off x="12013406" y="3464719"/>
+          <a:ext cx="762000" cy="209549"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -31233,15 +31237,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>166689</xdr:rowOff>
+      <xdr:colOff>535781</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>154782</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>428624</xdr:colOff>
+      <xdr:colOff>488155</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>226218</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -31256,8 +31260,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11639550" y="3538539"/>
-          <a:ext cx="1323974" cy="309561"/>
+          <a:off x="11751469" y="3774282"/>
+          <a:ext cx="1333499" cy="309561"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -31538,6 +31542,302 @@
               <a:schemeClr val="tx1"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>431006</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>619601</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>233363</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="正方形/長方形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AD6E789-F2B8-4AD3-A8E8-639BF43F2C3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3907631" y="3071813"/>
+          <a:ext cx="2724626" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>645317</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>178593</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>22383</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="テキスト ボックス 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D482E28B-DB57-4D28-A9BD-F22DC2CA1DAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2276473" y="3083718"/>
+          <a:ext cx="1557339" cy="320040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>パスワード</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>確認用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>71438</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="正方形/長方形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7283A7B3-94C8-47A1-9DDA-8EBFF6637089}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11977688" y="3052762"/>
+          <a:ext cx="762000" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>226219</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>111918</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>538162</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="テキスト ボックス 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D0AFA76-4FCB-49AE-83AF-B44ADAD87A99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10751344" y="3017043"/>
+          <a:ext cx="1002506" cy="297657"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>パスワード：</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -42041,11 +42341,11 @@
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B19" s="139" t="s">
+      <c r="B19" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="139"/>
-      <c r="D19" s="139"/>
+      <c r="C19" s="143"/>
+      <c r="D19" s="143"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B20" s="135"/>
@@ -42297,10 +42597,10 @@
       <c r="E12" s="109" t="s">
         <v>156</v>
       </c>
-      <c r="F12" s="180" t="s">
+      <c r="F12" s="139" t="s">
         <v>157</v>
       </c>
-      <c r="G12" s="181"/>
+      <c r="G12" s="140"/>
       <c r="H12" s="111" t="s">
         <v>158</v>
       </c>
@@ -42317,23 +42617,23 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B13" s="6"/>
-      <c r="C13" s="161">
+      <c r="C13" s="174">
         <v>1</v>
       </c>
-      <c r="D13" s="161" t="s">
+      <c r="D13" s="174" t="s">
         <v>160</v>
       </c>
-      <c r="E13" s="176" t="s">
+      <c r="E13" s="175" t="s">
         <v>296</v>
       </c>
-      <c r="F13" s="182" t="s">
+      <c r="F13" s="183" t="s">
         <v>161</v>
       </c>
-      <c r="G13" s="183"/>
-      <c r="H13" s="178" t="s">
+      <c r="G13" s="179"/>
+      <c r="H13" s="172" t="s">
         <v>96</v>
       </c>
-      <c r="I13" s="159" t="s">
+      <c r="I13" s="165" t="s">
         <v>96</v>
       </c>
       <c r="J13" s="7"/>
@@ -42346,13 +42646,13 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B14" s="6"/>
-      <c r="C14" s="161"/>
-      <c r="D14" s="161"/>
-      <c r="E14" s="177"/>
+      <c r="C14" s="174"/>
+      <c r="D14" s="174"/>
+      <c r="E14" s="176"/>
       <c r="F14" s="184"/>
-      <c r="G14" s="185"/>
-      <c r="H14" s="179"/>
-      <c r="I14" s="160"/>
+      <c r="G14" s="180"/>
+      <c r="H14" s="173"/>
+      <c r="I14" s="166"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="113"/>
@@ -42363,23 +42663,23 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B15" s="6"/>
-      <c r="C15" s="161">
+      <c r="C15" s="174">
         <v>2</v>
       </c>
-      <c r="D15" s="159" t="s">
+      <c r="D15" s="165" t="s">
         <v>162</v>
       </c>
-      <c r="E15" s="176" t="s">
+      <c r="E15" s="175" t="s">
         <v>296</v>
       </c>
-      <c r="F15" s="186" t="s">
+      <c r="F15" s="181" t="s">
         <v>163</v>
       </c>
-      <c r="G15" s="187"/>
-      <c r="H15" s="178" t="s">
+      <c r="G15" s="182"/>
+      <c r="H15" s="172" t="s">
         <v>96</v>
       </c>
-      <c r="I15" s="159" t="s">
+      <c r="I15" s="165" t="s">
         <v>96</v>
       </c>
       <c r="J15" s="7"/>
@@ -42392,13 +42692,13 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B16" s="6"/>
-      <c r="C16" s="161"/>
-      <c r="D16" s="160"/>
-      <c r="E16" s="177"/>
-      <c r="F16" s="186"/>
-      <c r="G16" s="187"/>
-      <c r="H16" s="179"/>
-      <c r="I16" s="160"/>
+      <c r="C16" s="174"/>
+      <c r="D16" s="166"/>
+      <c r="E16" s="176"/>
+      <c r="F16" s="181"/>
+      <c r="G16" s="182"/>
+      <c r="H16" s="173"/>
+      <c r="I16" s="166"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="8"/>
@@ -42409,23 +42709,23 @@
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B17" s="6"/>
-      <c r="C17" s="161">
+      <c r="C17" s="174">
         <v>3</v>
       </c>
-      <c r="D17" s="159" t="s">
+      <c r="D17" s="165" t="s">
         <v>164</v>
       </c>
-      <c r="E17" s="176" t="s">
+      <c r="E17" s="175" t="s">
         <v>296</v>
       </c>
-      <c r="F17" s="189" t="s">
+      <c r="F17" s="177" t="s">
         <v>165</v>
       </c>
-      <c r="G17" s="183"/>
-      <c r="H17" s="178" t="s">
+      <c r="G17" s="179"/>
+      <c r="H17" s="172" t="s">
         <v>96</v>
       </c>
-      <c r="I17" s="159" t="s">
+      <c r="I17" s="165" t="s">
         <v>96</v>
       </c>
       <c r="J17" s="7"/>
@@ -42438,13 +42738,13 @@
     </row>
     <row r="18" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="6"/>
-      <c r="C18" s="161"/>
-      <c r="D18" s="160"/>
-      <c r="E18" s="177"/>
-      <c r="F18" s="188"/>
-      <c r="G18" s="185"/>
-      <c r="H18" s="179"/>
-      <c r="I18" s="160"/>
+      <c r="C18" s="174"/>
+      <c r="D18" s="166"/>
+      <c r="E18" s="176"/>
+      <c r="F18" s="178"/>
+      <c r="G18" s="180"/>
+      <c r="H18" s="173"/>
+      <c r="I18" s="166"/>
       <c r="J18" s="106"/>
       <c r="K18" s="7"/>
       <c r="L18" s="8"/>
@@ -42617,14 +42917,14 @@
       <c r="F27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="144" t="s">
+      <c r="G27" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="145"/>
-      <c r="I27" s="145"/>
-      <c r="J27" s="145"/>
-      <c r="K27" s="145"/>
-      <c r="L27" s="146"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="150"/>
     </row>
     <row r="28" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="118" t="s">
@@ -42642,14 +42942,14 @@
       <c r="F28" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="G28" s="162" t="s">
+      <c r="G28" s="167" t="s">
         <v>167</v>
       </c>
-      <c r="H28" s="157"/>
-      <c r="I28" s="157"/>
-      <c r="J28" s="157"/>
-      <c r="K28" s="157"/>
-      <c r="L28" s="158"/>
+      <c r="H28" s="163"/>
+      <c r="I28" s="163"/>
+      <c r="J28" s="163"/>
+      <c r="K28" s="163"/>
+      <c r="L28" s="164"/>
     </row>
     <row r="29" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="119" t="s">
@@ -42667,14 +42967,14 @@
       <c r="F29" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="G29" s="163" t="s">
+      <c r="G29" s="168" t="s">
         <v>169</v>
       </c>
-      <c r="H29" s="157"/>
-      <c r="I29" s="157"/>
-      <c r="J29" s="157"/>
-      <c r="K29" s="157"/>
-      <c r="L29" s="158"/>
+      <c r="H29" s="163"/>
+      <c r="I29" s="163"/>
+      <c r="J29" s="163"/>
+      <c r="K29" s="163"/>
+      <c r="L29" s="164"/>
     </row>
     <row r="30" spans="2:25" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="90" t="s">
@@ -42692,17 +42992,17 @@
       <c r="F30" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="G30" s="164" t="s">
+      <c r="G30" s="169" t="s">
         <v>301</v>
       </c>
-      <c r="H30" s="165"/>
-      <c r="I30" s="165"/>
-      <c r="J30" s="165"/>
-      <c r="K30" s="165"/>
-      <c r="L30" s="166"/>
+      <c r="H30" s="170"/>
+      <c r="I30" s="170"/>
+      <c r="J30" s="170"/>
+      <c r="K30" s="170"/>
+      <c r="L30" s="171"/>
     </row>
     <row r="31" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="190" t="s">
+      <c r="B31" s="141" t="s">
         <v>297</v>
       </c>
       <c r="C31" s="136" t="s">
@@ -42717,14 +43017,14 @@
       <c r="F31" s="136" t="s">
         <v>298</v>
       </c>
-      <c r="G31" s="140" t="s">
+      <c r="G31" s="144" t="s">
         <v>302</v>
       </c>
-      <c r="H31" s="141"/>
-      <c r="I31" s="141"/>
-      <c r="J31" s="141"/>
-      <c r="K31" s="141"/>
-      <c r="L31" s="142"/>
+      <c r="H31" s="145"/>
+      <c r="I31" s="145"/>
+      <c r="J31" s="145"/>
+      <c r="K31" s="145"/>
+      <c r="L31" s="146"/>
     </row>
     <row r="32" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="86" t="s">
@@ -42742,14 +43042,14 @@
       <c r="F32" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="G32" s="156" t="s">
+      <c r="G32" s="162" t="s">
         <v>137</v>
       </c>
-      <c r="H32" s="157"/>
-      <c r="I32" s="157"/>
-      <c r="J32" s="157"/>
-      <c r="K32" s="157"/>
-      <c r="L32" s="158"/>
+      <c r="H32" s="163"/>
+      <c r="I32" s="163"/>
+      <c r="J32" s="163"/>
+      <c r="K32" s="163"/>
+      <c r="L32" s="164"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="97"/>
@@ -42757,12 +43057,12 @@
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
-      <c r="G33" s="140"/>
-      <c r="H33" s="141"/>
-      <c r="I33" s="141"/>
-      <c r="J33" s="141"/>
-      <c r="K33" s="141"/>
-      <c r="L33" s="142"/>
+      <c r="G33" s="144"/>
+      <c r="H33" s="145"/>
+      <c r="I33" s="145"/>
+      <c r="J33" s="145"/>
+      <c r="K33" s="145"/>
+      <c r="L33" s="146"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="9"/>
@@ -42770,31 +43070,16 @@
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="152"/>
+      <c r="G34" s="156"/>
+      <c r="H34" s="157"/>
+      <c r="I34" s="157"/>
+      <c r="J34" s="157"/>
+      <c r="K34" s="157"/>
+      <c r="L34" s="158"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="G33:L33"/>
-    <mergeCell ref="G34:L34"/>
-    <mergeCell ref="G31:L31"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="G27:L27"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="G29:L29"/>
-    <mergeCell ref="G30:L30"/>
-    <mergeCell ref="G32:L32"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:D16"/>
@@ -42809,6 +43094,21 @@
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H13:H14"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G33:L33"/>
+    <mergeCell ref="G34:L34"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="G27:L27"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="G32:L32"/>
+    <mergeCell ref="H17:H18"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43235,14 +43535,14 @@
       <c r="F27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="144" t="s">
+      <c r="G27" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="145"/>
-      <c r="I27" s="145"/>
-      <c r="J27" s="145"/>
-      <c r="K27" s="145"/>
-      <c r="L27" s="146"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="150"/>
     </row>
     <row r="28" spans="2:17" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="132" t="s">
@@ -43260,14 +43560,14 @@
       <c r="F28" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="G28" s="147" t="s">
+      <c r="G28" s="153" t="s">
         <v>216</v>
       </c>
-      <c r="H28" s="148"/>
-      <c r="I28" s="148"/>
-      <c r="J28" s="148"/>
-      <c r="K28" s="148"/>
-      <c r="L28" s="149"/>
+      <c r="H28" s="154"/>
+      <c r="I28" s="154"/>
+      <c r="J28" s="154"/>
+      <c r="K28" s="154"/>
+      <c r="L28" s="155"/>
     </row>
     <row r="29" spans="2:17" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="90" t="s">
@@ -43285,14 +43585,14 @@
       <c r="F29" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="G29" s="147" t="s">
+      <c r="G29" s="153" t="s">
         <v>243</v>
       </c>
-      <c r="H29" s="148"/>
-      <c r="I29" s="148"/>
-      <c r="J29" s="148"/>
-      <c r="K29" s="148"/>
-      <c r="L29" s="149"/>
+      <c r="H29" s="154"/>
+      <c r="I29" s="154"/>
+      <c r="J29" s="154"/>
+      <c r="K29" s="154"/>
+      <c r="L29" s="155"/>
     </row>
     <row r="30" spans="2:17" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="86" t="s">
@@ -43310,14 +43610,14 @@
       <c r="F30" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="G30" s="147" t="s">
+      <c r="G30" s="153" t="s">
         <v>245</v>
       </c>
-      <c r="H30" s="148"/>
-      <c r="I30" s="148"/>
-      <c r="J30" s="148"/>
-      <c r="K30" s="148"/>
-      <c r="L30" s="149"/>
+      <c r="H30" s="154"/>
+      <c r="I30" s="154"/>
+      <c r="J30" s="154"/>
+      <c r="K30" s="154"/>
+      <c r="L30" s="155"/>
     </row>
     <row r="31" spans="2:17" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="86" t="s">
@@ -43335,14 +43635,14 @@
       <c r="F31" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="G31" s="143" t="s">
+      <c r="G31" s="147" t="s">
         <v>247</v>
       </c>
-      <c r="H31" s="141"/>
-      <c r="I31" s="141"/>
-      <c r="J31" s="141"/>
-      <c r="K31" s="141"/>
-      <c r="L31" s="142"/>
+      <c r="H31" s="145"/>
+      <c r="I31" s="145"/>
+      <c r="J31" s="145"/>
+      <c r="K31" s="145"/>
+      <c r="L31" s="146"/>
     </row>
     <row r="32" spans="2:17" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="134" t="s">
@@ -43360,14 +43660,14 @@
       <c r="F32" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="G32" s="140" t="s">
+      <c r="G32" s="144" t="s">
         <v>249</v>
       </c>
-      <c r="H32" s="141"/>
-      <c r="I32" s="141"/>
-      <c r="J32" s="141"/>
-      <c r="K32" s="141"/>
-      <c r="L32" s="142"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="145"/>
+      <c r="K32" s="145"/>
+      <c r="L32" s="146"/>
     </row>
     <row r="33" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="91" t="s">
@@ -43385,14 +43685,14 @@
       <c r="F33" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="G33" s="143" t="s">
+      <c r="G33" s="147" t="s">
         <v>251</v>
       </c>
-      <c r="H33" s="141"/>
-      <c r="I33" s="141"/>
-      <c r="J33" s="141"/>
-      <c r="K33" s="141"/>
-      <c r="L33" s="142"/>
+      <c r="H33" s="145"/>
+      <c r="I33" s="145"/>
+      <c r="J33" s="145"/>
+      <c r="K33" s="145"/>
+      <c r="L33" s="146"/>
     </row>
     <row r="34" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="91" t="s">
@@ -43406,14 +43706,14 @@
       </c>
       <c r="E34" s="86"/>
       <c r="F34" s="86"/>
-      <c r="G34" s="143" t="s">
+      <c r="G34" s="147" t="s">
         <v>254</v>
       </c>
-      <c r="H34" s="141"/>
-      <c r="I34" s="141"/>
-      <c r="J34" s="141"/>
-      <c r="K34" s="141"/>
-      <c r="L34" s="142"/>
+      <c r="H34" s="145"/>
+      <c r="I34" s="145"/>
+      <c r="J34" s="145"/>
+      <c r="K34" s="145"/>
+      <c r="L34" s="146"/>
     </row>
     <row r="35" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="90" t="s">
@@ -43431,14 +43731,14 @@
       <c r="F35" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="G35" s="147" t="s">
+      <c r="G35" s="153" t="s">
         <v>256</v>
       </c>
-      <c r="H35" s="148"/>
-      <c r="I35" s="148"/>
-      <c r="J35" s="148"/>
-      <c r="K35" s="148"/>
-      <c r="L35" s="149"/>
+      <c r="H35" s="154"/>
+      <c r="I35" s="154"/>
+      <c r="J35" s="154"/>
+      <c r="K35" s="154"/>
+      <c r="L35" s="155"/>
     </row>
     <row r="36" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="91" t="s">
@@ -43456,14 +43756,14 @@
       <c r="F36" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="G36" s="140" t="s">
+      <c r="G36" s="144" t="s">
         <v>257</v>
       </c>
-      <c r="H36" s="141"/>
-      <c r="I36" s="141"/>
-      <c r="J36" s="141"/>
-      <c r="K36" s="141"/>
-      <c r="L36" s="142"/>
+      <c r="H36" s="145"/>
+      <c r="I36" s="145"/>
+      <c r="J36" s="145"/>
+      <c r="K36" s="145"/>
+      <c r="L36" s="146"/>
     </row>
     <row r="37" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="91" t="s">
@@ -43481,14 +43781,14 @@
       <c r="F37" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="G37" s="140" t="s">
+      <c r="G37" s="144" t="s">
         <v>259</v>
       </c>
-      <c r="H37" s="141"/>
-      <c r="I37" s="141"/>
-      <c r="J37" s="141"/>
-      <c r="K37" s="141"/>
-      <c r="L37" s="142"/>
+      <c r="H37" s="145"/>
+      <c r="I37" s="145"/>
+      <c r="J37" s="145"/>
+      <c r="K37" s="145"/>
+      <c r="L37" s="146"/>
     </row>
     <row r="38" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="90" t="s">
@@ -43506,14 +43806,14 @@
       <c r="F38" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="G38" s="140" t="s">
+      <c r="G38" s="144" t="s">
         <v>261</v>
       </c>
-      <c r="H38" s="141"/>
-      <c r="I38" s="141"/>
-      <c r="J38" s="141"/>
-      <c r="K38" s="141"/>
-      <c r="L38" s="142"/>
+      <c r="H38" s="145"/>
+      <c r="I38" s="145"/>
+      <c r="J38" s="145"/>
+      <c r="K38" s="145"/>
+      <c r="L38" s="146"/>
     </row>
     <row r="39" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="90" t="s">
@@ -43531,14 +43831,14 @@
       <c r="F39" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="G39" s="140" t="s">
+      <c r="G39" s="144" t="s">
         <v>262</v>
       </c>
-      <c r="H39" s="141"/>
-      <c r="I39" s="141"/>
-      <c r="J39" s="141"/>
-      <c r="K39" s="141"/>
-      <c r="L39" s="142"/>
+      <c r="H39" s="145"/>
+      <c r="I39" s="145"/>
+      <c r="J39" s="145"/>
+      <c r="K39" s="145"/>
+      <c r="L39" s="146"/>
     </row>
     <row r="40" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="90" t="s">
@@ -43556,14 +43856,14 @@
       <c r="F40" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="G40" s="140" t="s">
+      <c r="G40" s="144" t="s">
         <v>263</v>
       </c>
-      <c r="H40" s="141"/>
-      <c r="I40" s="141"/>
-      <c r="J40" s="141"/>
-      <c r="K40" s="141"/>
-      <c r="L40" s="142"/>
+      <c r="H40" s="145"/>
+      <c r="I40" s="145"/>
+      <c r="J40" s="145"/>
+      <c r="K40" s="145"/>
+      <c r="L40" s="146"/>
     </row>
     <row r="41" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="90" t="s">
@@ -43581,14 +43881,14 @@
       <c r="F41" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="G41" s="140" t="s">
+      <c r="G41" s="144" t="s">
         <v>266</v>
       </c>
-      <c r="H41" s="141"/>
-      <c r="I41" s="141"/>
-      <c r="J41" s="141"/>
-      <c r="K41" s="141"/>
-      <c r="L41" s="142"/>
+      <c r="H41" s="145"/>
+      <c r="I41" s="145"/>
+      <c r="J41" s="145"/>
+      <c r="K41" s="145"/>
+      <c r="L41" s="146"/>
     </row>
     <row r="42" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="90" t="s">
@@ -43598,14 +43898,14 @@
       <c r="D42" s="86"/>
       <c r="E42" s="86"/>
       <c r="F42" s="86"/>
-      <c r="G42" s="147" t="s">
+      <c r="G42" s="153" t="s">
         <v>226</v>
       </c>
-      <c r="H42" s="148"/>
-      <c r="I42" s="148"/>
-      <c r="J42" s="148"/>
-      <c r="K42" s="148"/>
-      <c r="L42" s="149"/>
+      <c r="H42" s="154"/>
+      <c r="I42" s="154"/>
+      <c r="J42" s="154"/>
+      <c r="K42" s="154"/>
+      <c r="L42" s="155"/>
     </row>
     <row r="43" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="90"/>
@@ -43613,12 +43913,12 @@
       <c r="D43" s="86"/>
       <c r="E43" s="86"/>
       <c r="F43" s="86"/>
-      <c r="G43" s="140"/>
-      <c r="H43" s="141"/>
-      <c r="I43" s="141"/>
-      <c r="J43" s="141"/>
-      <c r="K43" s="141"/>
-      <c r="L43" s="142"/>
+      <c r="G43" s="144"/>
+      <c r="H43" s="145"/>
+      <c r="I43" s="145"/>
+      <c r="J43" s="145"/>
+      <c r="K43" s="145"/>
+      <c r="L43" s="146"/>
     </row>
     <row r="44" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="91"/>
@@ -43626,15 +43926,21 @@
       <c r="D44" s="86"/>
       <c r="E44" s="86"/>
       <c r="F44" s="86"/>
-      <c r="G44" s="143"/>
-      <c r="H44" s="141"/>
-      <c r="I44" s="141"/>
-      <c r="J44" s="141"/>
-      <c r="K44" s="141"/>
-      <c r="L44" s="142"/>
+      <c r="G44" s="147"/>
+      <c r="H44" s="145"/>
+      <c r="I44" s="145"/>
+      <c r="J44" s="145"/>
+      <c r="K44" s="145"/>
+      <c r="L44" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="G32:L32"/>
+    <mergeCell ref="G27:L27"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="G31:L31"/>
     <mergeCell ref="G44:L44"/>
     <mergeCell ref="G33:L33"/>
     <mergeCell ref="G34:L34"/>
@@ -43647,12 +43953,6 @@
     <mergeCell ref="G41:L41"/>
     <mergeCell ref="G42:L42"/>
     <mergeCell ref="G43:L43"/>
-    <mergeCell ref="G32:L32"/>
-    <mergeCell ref="G27:L27"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="G29:L29"/>
-    <mergeCell ref="G30:L30"/>
-    <mergeCell ref="G31:L31"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -44229,14 +44529,14 @@
       <c r="F27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="144" t="s">
+      <c r="G27" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="145"/>
-      <c r="I27" s="145"/>
-      <c r="J27" s="145"/>
-      <c r="K27" s="145"/>
-      <c r="L27" s="146"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="150"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="104" t="s">
@@ -44254,14 +44554,14 @@
       <c r="F28" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="G28" s="163" t="s">
+      <c r="G28" s="168" t="s">
         <v>145</v>
       </c>
-      <c r="H28" s="157"/>
-      <c r="I28" s="157"/>
-      <c r="J28" s="157"/>
-      <c r="K28" s="157"/>
-      <c r="L28" s="158"/>
+      <c r="H28" s="163"/>
+      <c r="I28" s="163"/>
+      <c r="J28" s="163"/>
+      <c r="K28" s="163"/>
+      <c r="L28" s="164"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="105" t="s">
@@ -44279,14 +44579,14 @@
       <c r="F29" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="G29" s="163" t="s">
+      <c r="G29" s="168" t="s">
         <v>147</v>
       </c>
-      <c r="H29" s="157"/>
-      <c r="I29" s="157"/>
-      <c r="J29" s="157"/>
-      <c r="K29" s="157"/>
-      <c r="L29" s="158"/>
+      <c r="H29" s="163"/>
+      <c r="I29" s="163"/>
+      <c r="J29" s="163"/>
+      <c r="K29" s="163"/>
+      <c r="L29" s="164"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="105" t="s">
@@ -44304,14 +44604,14 @@
       <c r="F30" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="G30" s="163" t="s">
+      <c r="G30" s="168" t="s">
         <v>149</v>
       </c>
-      <c r="H30" s="157"/>
-      <c r="I30" s="157"/>
-      <c r="J30" s="157"/>
-      <c r="K30" s="157"/>
-      <c r="L30" s="158"/>
+      <c r="H30" s="163"/>
+      <c r="I30" s="163"/>
+      <c r="J30" s="163"/>
+      <c r="K30" s="163"/>
+      <c r="L30" s="164"/>
     </row>
     <row r="31" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="105" t="s">
@@ -44329,14 +44629,14 @@
       <c r="F31" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="G31" s="163" t="s">
+      <c r="G31" s="168" t="s">
         <v>151</v>
       </c>
-      <c r="H31" s="157"/>
-      <c r="I31" s="157"/>
-      <c r="J31" s="157"/>
-      <c r="K31" s="157"/>
-      <c r="L31" s="158"/>
+      <c r="H31" s="163"/>
+      <c r="I31" s="163"/>
+      <c r="J31" s="163"/>
+      <c r="K31" s="163"/>
+      <c r="L31" s="164"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="86" t="s">
@@ -44354,14 +44654,14 @@
       <c r="F32" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="G32" s="156" t="s">
+      <c r="G32" s="162" t="s">
         <v>137</v>
       </c>
-      <c r="H32" s="157"/>
-      <c r="I32" s="157"/>
-      <c r="J32" s="157"/>
-      <c r="K32" s="157"/>
-      <c r="L32" s="158"/>
+      <c r="H32" s="163"/>
+      <c r="I32" s="163"/>
+      <c r="J32" s="163"/>
+      <c r="K32" s="163"/>
+      <c r="L32" s="164"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="97"/>
@@ -44369,12 +44669,12 @@
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
-      <c r="G33" s="140"/>
-      <c r="H33" s="141"/>
-      <c r="I33" s="141"/>
-      <c r="J33" s="141"/>
-      <c r="K33" s="141"/>
-      <c r="L33" s="142"/>
+      <c r="G33" s="144"/>
+      <c r="H33" s="145"/>
+      <c r="I33" s="145"/>
+      <c r="J33" s="145"/>
+      <c r="K33" s="145"/>
+      <c r="L33" s="146"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="9"/>
@@ -44382,12 +44682,12 @@
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="152"/>
+      <c r="G34" s="156"/>
+      <c r="H34" s="157"/>
+      <c r="I34" s="157"/>
+      <c r="J34" s="157"/>
+      <c r="K34" s="157"/>
+      <c r="L34" s="158"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="9"/>
@@ -44395,12 +44695,12 @@
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="151"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="152"/>
+      <c r="G35" s="156"/>
+      <c r="H35" s="157"/>
+      <c r="I35" s="157"/>
+      <c r="J35" s="157"/>
+      <c r="K35" s="157"/>
+      <c r="L35" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -44839,14 +45139,14 @@
       <c r="F27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="144" t="s">
+      <c r="G27" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="145"/>
-      <c r="I27" s="145"/>
-      <c r="J27" s="145"/>
-      <c r="K27" s="145"/>
-      <c r="L27" s="146"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="150"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="86" t="s">
@@ -44864,14 +45164,14 @@
       <c r="F28" s="86" t="s">
         <v>275</v>
       </c>
-      <c r="G28" s="147" t="s">
+      <c r="G28" s="153" t="s">
         <v>221</v>
       </c>
-      <c r="H28" s="148"/>
-      <c r="I28" s="148"/>
-      <c r="J28" s="148"/>
-      <c r="K28" s="148"/>
-      <c r="L28" s="149"/>
+      <c r="H28" s="154"/>
+      <c r="I28" s="154"/>
+      <c r="J28" s="154"/>
+      <c r="K28" s="154"/>
+      <c r="L28" s="155"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="86" t="s">
@@ -44889,14 +45189,14 @@
       <c r="F29" s="86" t="s">
         <v>275</v>
       </c>
-      <c r="G29" s="147" t="s">
+      <c r="G29" s="153" t="s">
         <v>276</v>
       </c>
-      <c r="H29" s="148"/>
-      <c r="I29" s="148"/>
-      <c r="J29" s="148"/>
-      <c r="K29" s="148"/>
-      <c r="L29" s="149"/>
+      <c r="H29" s="154"/>
+      <c r="I29" s="154"/>
+      <c r="J29" s="154"/>
+      <c r="K29" s="154"/>
+      <c r="L29" s="155"/>
     </row>
     <row r="30" spans="2:17" ht="70.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="91" t="s">
@@ -44914,14 +45214,14 @@
       <c r="F30" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="G30" s="143" t="s">
+      <c r="G30" s="147" t="s">
         <v>273</v>
       </c>
-      <c r="H30" s="141"/>
-      <c r="I30" s="141"/>
-      <c r="J30" s="141"/>
-      <c r="K30" s="141"/>
-      <c r="L30" s="142"/>
+      <c r="H30" s="145"/>
+      <c r="I30" s="145"/>
+      <c r="J30" s="145"/>
+      <c r="K30" s="145"/>
+      <c r="L30" s="146"/>
     </row>
     <row r="31" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="91" t="s">
@@ -44939,14 +45239,14 @@
       <c r="F31" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="G31" s="143" t="s">
+      <c r="G31" s="147" t="s">
         <v>274</v>
       </c>
-      <c r="H31" s="141"/>
-      <c r="I31" s="141"/>
-      <c r="J31" s="141"/>
-      <c r="K31" s="141"/>
-      <c r="L31" s="142"/>
+      <c r="H31" s="145"/>
+      <c r="I31" s="145"/>
+      <c r="J31" s="145"/>
+      <c r="K31" s="145"/>
+      <c r="L31" s="146"/>
     </row>
     <row r="32" spans="2:17" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="91" t="s">
@@ -44964,14 +45264,14 @@
       <c r="F32" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="G32" s="143" t="s">
+      <c r="G32" s="147" t="s">
         <v>225</v>
       </c>
-      <c r="H32" s="141"/>
-      <c r="I32" s="141"/>
-      <c r="J32" s="141"/>
-      <c r="K32" s="141"/>
-      <c r="L32" s="142"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="145"/>
+      <c r="K32" s="145"/>
+      <c r="L32" s="146"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="90"/>
@@ -44979,12 +45279,12 @@
       <c r="D33" s="86"/>
       <c r="E33" s="86"/>
       <c r="F33" s="86"/>
-      <c r="G33" s="147"/>
-      <c r="H33" s="148"/>
-      <c r="I33" s="148"/>
-      <c r="J33" s="148"/>
-      <c r="K33" s="148"/>
-      <c r="L33" s="149"/>
+      <c r="G33" s="153"/>
+      <c r="H33" s="154"/>
+      <c r="I33" s="154"/>
+      <c r="J33" s="154"/>
+      <c r="K33" s="154"/>
+      <c r="L33" s="155"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="90" t="s">
@@ -44994,14 +45294,14 @@
       <c r="D34" s="86"/>
       <c r="E34" s="86"/>
       <c r="F34" s="86"/>
-      <c r="G34" s="147" t="s">
+      <c r="G34" s="153" t="s">
         <v>226</v>
       </c>
-      <c r="H34" s="148"/>
-      <c r="I34" s="148"/>
-      <c r="J34" s="148"/>
-      <c r="K34" s="148"/>
-      <c r="L34" s="149"/>
+      <c r="H34" s="154"/>
+      <c r="I34" s="154"/>
+      <c r="J34" s="154"/>
+      <c r="K34" s="154"/>
+      <c r="L34" s="155"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -45439,14 +45739,14 @@
       <c r="F27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="144" t="s">
+      <c r="G27" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="145"/>
-      <c r="I27" s="145"/>
-      <c r="J27" s="145"/>
-      <c r="K27" s="145"/>
-      <c r="L27" s="146"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="150"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="132" t="s">
@@ -45464,14 +45764,14 @@
       <c r="F28" s="86">
         <v>256</v>
       </c>
-      <c r="G28" s="147" t="s">
+      <c r="G28" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="H28" s="148"/>
-      <c r="I28" s="148"/>
-      <c r="J28" s="148"/>
-      <c r="K28" s="148"/>
-      <c r="L28" s="149"/>
+      <c r="H28" s="154"/>
+      <c r="I28" s="154"/>
+      <c r="J28" s="154"/>
+      <c r="K28" s="154"/>
+      <c r="L28" s="155"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="127" t="s">
@@ -45489,14 +45789,14 @@
       <c r="F29" s="86">
         <v>256</v>
       </c>
-      <c r="G29" s="147" t="s">
+      <c r="G29" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="H29" s="148"/>
-      <c r="I29" s="148"/>
-      <c r="J29" s="148"/>
-      <c r="K29" s="148"/>
-      <c r="L29" s="149"/>
+      <c r="H29" s="154"/>
+      <c r="I29" s="154"/>
+      <c r="J29" s="154"/>
+      <c r="K29" s="154"/>
+      <c r="L29" s="155"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="86" t="s">
@@ -45514,14 +45814,14 @@
       <c r="F30" s="86">
         <v>16</v>
       </c>
-      <c r="G30" s="147" t="s">
+      <c r="G30" s="153" t="s">
         <v>221</v>
       </c>
-      <c r="H30" s="148"/>
-      <c r="I30" s="148"/>
-      <c r="J30" s="148"/>
-      <c r="K30" s="148"/>
-      <c r="L30" s="149"/>
+      <c r="H30" s="154"/>
+      <c r="I30" s="154"/>
+      <c r="J30" s="154"/>
+      <c r="K30" s="154"/>
+      <c r="L30" s="155"/>
     </row>
     <row r="31" spans="2:17" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="91" t="s">
@@ -45539,14 +45839,14 @@
       <c r="F31" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="G31" s="143" t="s">
+      <c r="G31" s="147" t="s">
         <v>223</v>
       </c>
-      <c r="H31" s="141"/>
-      <c r="I31" s="141"/>
-      <c r="J31" s="141"/>
-      <c r="K31" s="141"/>
-      <c r="L31" s="142"/>
+      <c r="H31" s="145"/>
+      <c r="I31" s="145"/>
+      <c r="J31" s="145"/>
+      <c r="K31" s="145"/>
+      <c r="L31" s="146"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="91" t="s">
@@ -45564,14 +45864,14 @@
       <c r="F32" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="G32" s="143" t="s">
+      <c r="G32" s="147" t="s">
         <v>224</v>
       </c>
-      <c r="H32" s="141"/>
-      <c r="I32" s="141"/>
-      <c r="J32" s="141"/>
-      <c r="K32" s="141"/>
-      <c r="L32" s="142"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="145"/>
+      <c r="K32" s="145"/>
+      <c r="L32" s="146"/>
     </row>
     <row r="33" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="91" t="s">
@@ -45589,14 +45889,14 @@
       <c r="F33" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="G33" s="143" t="s">
+      <c r="G33" s="147" t="s">
         <v>225</v>
       </c>
-      <c r="H33" s="141"/>
-      <c r="I33" s="141"/>
-      <c r="J33" s="141"/>
-      <c r="K33" s="141"/>
-      <c r="L33" s="142"/>
+      <c r="H33" s="145"/>
+      <c r="I33" s="145"/>
+      <c r="J33" s="145"/>
+      <c r="K33" s="145"/>
+      <c r="L33" s="146"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="90"/>
@@ -45604,12 +45904,12 @@
       <c r="D34" s="86"/>
       <c r="E34" s="86"/>
       <c r="F34" s="86"/>
-      <c r="G34" s="147"/>
-      <c r="H34" s="148"/>
-      <c r="I34" s="148"/>
-      <c r="J34" s="148"/>
-      <c r="K34" s="148"/>
-      <c r="L34" s="149"/>
+      <c r="G34" s="153"/>
+      <c r="H34" s="154"/>
+      <c r="I34" s="154"/>
+      <c r="J34" s="154"/>
+      <c r="K34" s="154"/>
+      <c r="L34" s="155"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="90" t="s">
@@ -45619,14 +45919,14 @@
       <c r="D35" s="86"/>
       <c r="E35" s="86"/>
       <c r="F35" s="86"/>
-      <c r="G35" s="147" t="s">
+      <c r="G35" s="153" t="s">
         <v>226</v>
       </c>
-      <c r="H35" s="148"/>
-      <c r="I35" s="148"/>
-      <c r="J35" s="148"/>
-      <c r="K35" s="148"/>
-      <c r="L35" s="149"/>
+      <c r="H35" s="154"/>
+      <c r="I35" s="154"/>
+      <c r="J35" s="154"/>
+      <c r="K35" s="154"/>
+      <c r="L35" s="155"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -46065,14 +46365,14 @@
       <c r="F27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="144" t="s">
+      <c r="G27" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="145"/>
-      <c r="I27" s="145"/>
-      <c r="J27" s="145"/>
-      <c r="K27" s="145"/>
-      <c r="L27" s="146"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="150"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="86" t="s">
@@ -46090,14 +46390,14 @@
       <c r="F28" s="86">
         <v>16</v>
       </c>
-      <c r="G28" s="147" t="s">
+      <c r="G28" s="153" t="s">
         <v>221</v>
       </c>
-      <c r="H28" s="148"/>
-      <c r="I28" s="148"/>
-      <c r="J28" s="148"/>
-      <c r="K28" s="148"/>
-      <c r="L28" s="149"/>
+      <c r="H28" s="154"/>
+      <c r="I28" s="154"/>
+      <c r="J28" s="154"/>
+      <c r="K28" s="154"/>
+      <c r="L28" s="155"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="86" t="s">
@@ -46115,14 +46415,14 @@
       <c r="F29" s="86">
         <v>16</v>
       </c>
-      <c r="G29" s="147" t="s">
+      <c r="G29" s="153" t="s">
         <v>221</v>
       </c>
-      <c r="H29" s="148"/>
-      <c r="I29" s="148"/>
-      <c r="J29" s="148"/>
-      <c r="K29" s="148"/>
-      <c r="L29" s="149"/>
+      <c r="H29" s="154"/>
+      <c r="I29" s="154"/>
+      <c r="J29" s="154"/>
+      <c r="K29" s="154"/>
+      <c r="L29" s="155"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
@@ -46140,14 +46440,14 @@
       <c r="F30" s="86">
         <v>16</v>
       </c>
-      <c r="G30" s="147" t="s">
+      <c r="G30" s="153" t="s">
         <v>221</v>
       </c>
-      <c r="H30" s="148"/>
-      <c r="I30" s="148"/>
-      <c r="J30" s="148"/>
-      <c r="K30" s="148"/>
-      <c r="L30" s="149"/>
+      <c r="H30" s="154"/>
+      <c r="I30" s="154"/>
+      <c r="J30" s="154"/>
+      <c r="K30" s="154"/>
+      <c r="L30" s="155"/>
     </row>
     <row r="31" spans="2:17" ht="86.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="91" t="s">
@@ -46165,14 +46465,14 @@
       <c r="F31" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="G31" s="143" t="s">
+      <c r="G31" s="147" t="s">
         <v>232</v>
       </c>
-      <c r="H31" s="141"/>
-      <c r="I31" s="141"/>
-      <c r="J31" s="141"/>
-      <c r="K31" s="141"/>
-      <c r="L31" s="142"/>
+      <c r="H31" s="145"/>
+      <c r="I31" s="145"/>
+      <c r="J31" s="145"/>
+      <c r="K31" s="145"/>
+      <c r="L31" s="146"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="91" t="s">
@@ -46190,14 +46490,14 @@
       <c r="F32" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="G32" s="143" t="s">
+      <c r="G32" s="147" t="s">
         <v>224</v>
       </c>
-      <c r="H32" s="141"/>
-      <c r="I32" s="141"/>
-      <c r="J32" s="141"/>
-      <c r="K32" s="141"/>
-      <c r="L32" s="142"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="145"/>
+      <c r="K32" s="145"/>
+      <c r="L32" s="146"/>
     </row>
     <row r="33" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="91" t="s">
@@ -46215,14 +46515,14 @@
       <c r="F33" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="G33" s="143" t="s">
+      <c r="G33" s="147" t="s">
         <v>225</v>
       </c>
-      <c r="H33" s="141"/>
-      <c r="I33" s="141"/>
-      <c r="J33" s="141"/>
-      <c r="K33" s="141"/>
-      <c r="L33" s="142"/>
+      <c r="H33" s="145"/>
+      <c r="I33" s="145"/>
+      <c r="J33" s="145"/>
+      <c r="K33" s="145"/>
+      <c r="L33" s="146"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="90"/>
@@ -46230,12 +46530,12 @@
       <c r="D34" s="86"/>
       <c r="E34" s="86"/>
       <c r="F34" s="86"/>
-      <c r="G34" s="147"/>
-      <c r="H34" s="148"/>
-      <c r="I34" s="148"/>
-      <c r="J34" s="148"/>
-      <c r="K34" s="148"/>
-      <c r="L34" s="149"/>
+      <c r="G34" s="153"/>
+      <c r="H34" s="154"/>
+      <c r="I34" s="154"/>
+      <c r="J34" s="154"/>
+      <c r="K34" s="154"/>
+      <c r="L34" s="155"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="90" t="s">
@@ -46245,14 +46545,14 @@
       <c r="D35" s="86"/>
       <c r="E35" s="86"/>
       <c r="F35" s="86"/>
-      <c r="G35" s="147" t="s">
+      <c r="G35" s="153" t="s">
         <v>226</v>
       </c>
-      <c r="H35" s="148"/>
-      <c r="I35" s="148"/>
-      <c r="J35" s="148"/>
-      <c r="K35" s="148"/>
-      <c r="L35" s="149"/>
+      <c r="H35" s="154"/>
+      <c r="I35" s="154"/>
+      <c r="J35" s="154"/>
+      <c r="K35" s="154"/>
+      <c r="L35" s="155"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -46691,14 +46991,14 @@
       <c r="F27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="144" t="s">
+      <c r="G27" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="145"/>
-      <c r="I27" s="145"/>
-      <c r="J27" s="145"/>
-      <c r="K27" s="145"/>
-      <c r="L27" s="146"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="150"/>
     </row>
     <row r="28" spans="2:17" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="118" t="s">
@@ -46716,14 +47016,14 @@
       <c r="F28" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="G28" s="167" t="s">
+      <c r="G28" s="185" t="s">
         <v>238</v>
       </c>
-      <c r="H28" s="148"/>
-      <c r="I28" s="148"/>
-      <c r="J28" s="148"/>
-      <c r="K28" s="148"/>
-      <c r="L28" s="149"/>
+      <c r="H28" s="154"/>
+      <c r="I28" s="154"/>
+      <c r="J28" s="154"/>
+      <c r="K28" s="154"/>
+      <c r="L28" s="155"/>
     </row>
     <row r="29" spans="2:17" ht="84.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="90" t="s">
@@ -46741,14 +47041,14 @@
       <c r="F29" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="G29" s="167" t="s">
+      <c r="G29" s="185" t="s">
         <v>311</v>
       </c>
-      <c r="H29" s="148"/>
-      <c r="I29" s="148"/>
-      <c r="J29" s="148"/>
-      <c r="K29" s="148"/>
-      <c r="L29" s="149"/>
+      <c r="H29" s="154"/>
+      <c r="I29" s="154"/>
+      <c r="J29" s="154"/>
+      <c r="K29" s="154"/>
+      <c r="L29" s="155"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="90" t="s">
@@ -46758,14 +47058,14 @@
       <c r="D30" s="86"/>
       <c r="E30" s="86"/>
       <c r="F30" s="86"/>
-      <c r="G30" s="147" t="s">
+      <c r="G30" s="153" t="s">
         <v>226</v>
       </c>
-      <c r="H30" s="148"/>
-      <c r="I30" s="148"/>
-      <c r="J30" s="148"/>
-      <c r="K30" s="148"/>
-      <c r="L30" s="149"/>
+      <c r="H30" s="154"/>
+      <c r="I30" s="154"/>
+      <c r="J30" s="154"/>
+      <c r="K30" s="154"/>
+      <c r="L30" s="155"/>
     </row>
     <row r="31" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="90"/>
@@ -46773,12 +47073,12 @@
       <c r="D31" s="86"/>
       <c r="E31" s="86"/>
       <c r="F31" s="86"/>
-      <c r="G31" s="147"/>
-      <c r="H31" s="148"/>
-      <c r="I31" s="148"/>
-      <c r="J31" s="148"/>
-      <c r="K31" s="148"/>
-      <c r="L31" s="149"/>
+      <c r="G31" s="153"/>
+      <c r="H31" s="154"/>
+      <c r="I31" s="154"/>
+      <c r="J31" s="154"/>
+      <c r="K31" s="154"/>
+      <c r="L31" s="155"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="128"/>
@@ -46786,12 +47086,12 @@
       <c r="D32" s="86"/>
       <c r="E32" s="86"/>
       <c r="F32" s="86"/>
-      <c r="G32" s="140"/>
-      <c r="H32" s="141"/>
-      <c r="I32" s="141"/>
-      <c r="J32" s="141"/>
-      <c r="K32" s="141"/>
-      <c r="L32" s="142"/>
+      <c r="G32" s="144"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="145"/>
+      <c r="K32" s="145"/>
+      <c r="L32" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -47226,14 +47526,14 @@
       <c r="F27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="144" t="s">
+      <c r="G27" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="145"/>
-      <c r="I27" s="145"/>
-      <c r="J27" s="145"/>
-      <c r="K27" s="145"/>
-      <c r="L27" s="146"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="150"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="9" t="s">
@@ -47251,14 +47551,14 @@
       <c r="F28" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="G28" s="162" t="s">
+      <c r="G28" s="167" t="s">
         <v>109</v>
       </c>
-      <c r="H28" s="168"/>
-      <c r="I28" s="168"/>
-      <c r="J28" s="168"/>
-      <c r="K28" s="168"/>
-      <c r="L28" s="169"/>
+      <c r="H28" s="186"/>
+      <c r="I28" s="186"/>
+      <c r="J28" s="186"/>
+      <c r="K28" s="186"/>
+      <c r="L28" s="187"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="9" t="s">
@@ -47276,14 +47576,14 @@
       <c r="F29" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="G29" s="143" t="s">
+      <c r="G29" s="147" t="s">
         <v>105</v>
       </c>
-      <c r="H29" s="170"/>
-      <c r="I29" s="170"/>
-      <c r="J29" s="170"/>
-      <c r="K29" s="170"/>
-      <c r="L29" s="171"/>
+      <c r="H29" s="151"/>
+      <c r="I29" s="151"/>
+      <c r="J29" s="151"/>
+      <c r="K29" s="151"/>
+      <c r="L29" s="152"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="98" t="s">
@@ -47301,14 +47601,14 @@
       <c r="F30" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="G30" s="143" t="s">
+      <c r="G30" s="147" t="s">
         <v>106</v>
       </c>
-      <c r="H30" s="170"/>
-      <c r="I30" s="170"/>
-      <c r="J30" s="170"/>
-      <c r="K30" s="170"/>
-      <c r="L30" s="171"/>
+      <c r="H30" s="151"/>
+      <c r="I30" s="151"/>
+      <c r="J30" s="151"/>
+      <c r="K30" s="151"/>
+      <c r="L30" s="152"/>
     </row>
     <row r="31" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="86" t="s">
@@ -47326,14 +47626,14 @@
       <c r="F31" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="G31" s="156" t="s">
+      <c r="G31" s="162" t="s">
         <v>107</v>
       </c>
-      <c r="H31" s="157"/>
-      <c r="I31" s="157"/>
-      <c r="J31" s="157"/>
-      <c r="K31" s="157"/>
-      <c r="L31" s="158"/>
+      <c r="H31" s="163"/>
+      <c r="I31" s="163"/>
+      <c r="J31" s="163"/>
+      <c r="K31" s="163"/>
+      <c r="L31" s="164"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="9"/>
@@ -47341,12 +47641,12 @@
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
-      <c r="G32" s="140"/>
-      <c r="H32" s="141"/>
-      <c r="I32" s="141"/>
-      <c r="J32" s="141"/>
-      <c r="K32" s="141"/>
-      <c r="L32" s="142"/>
+      <c r="G32" s="144"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="145"/>
+      <c r="K32" s="145"/>
+      <c r="L32" s="146"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="97"/>
@@ -47354,12 +47654,12 @@
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
-      <c r="G33" s="140"/>
-      <c r="H33" s="141"/>
-      <c r="I33" s="141"/>
-      <c r="J33" s="141"/>
-      <c r="K33" s="141"/>
-      <c r="L33" s="142"/>
+      <c r="G33" s="144"/>
+      <c r="H33" s="145"/>
+      <c r="I33" s="145"/>
+      <c r="J33" s="145"/>
+      <c r="K33" s="145"/>
+      <c r="L33" s="146"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="9"/>
@@ -47367,12 +47667,12 @@
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="152"/>
+      <c r="G34" s="156"/>
+      <c r="H34" s="157"/>
+      <c r="I34" s="157"/>
+      <c r="J34" s="157"/>
+      <c r="K34" s="157"/>
+      <c r="L34" s="158"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="9"/>
@@ -47380,12 +47680,12 @@
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="151"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="152"/>
+      <c r="G35" s="156"/>
+      <c r="H35" s="157"/>
+      <c r="I35" s="157"/>
+      <c r="J35" s="157"/>
+      <c r="K35" s="157"/>
+      <c r="L35" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -47823,14 +48123,14 @@
       <c r="F27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="144" t="s">
+      <c r="G27" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="145"/>
-      <c r="I27" s="145"/>
-      <c r="J27" s="145"/>
-      <c r="K27" s="145"/>
-      <c r="L27" s="146"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="150"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="98" t="s">
@@ -47848,14 +48148,14 @@
       <c r="F28" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="G28" s="175" t="s">
+      <c r="G28" s="191" t="s">
         <v>314</v>
       </c>
-      <c r="H28" s="168"/>
-      <c r="I28" s="168"/>
-      <c r="J28" s="168"/>
-      <c r="K28" s="168"/>
-      <c r="L28" s="169"/>
+      <c r="H28" s="186"/>
+      <c r="I28" s="186"/>
+      <c r="J28" s="186"/>
+      <c r="K28" s="186"/>
+      <c r="L28" s="187"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="98" t="s">
@@ -47873,14 +48173,14 @@
       <c r="F29" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="G29" s="143" t="s">
+      <c r="G29" s="147" t="s">
         <v>315</v>
       </c>
-      <c r="H29" s="170"/>
-      <c r="I29" s="170"/>
-      <c r="J29" s="170"/>
-      <c r="K29" s="170"/>
-      <c r="L29" s="171"/>
+      <c r="H29" s="151"/>
+      <c r="I29" s="151"/>
+      <c r="J29" s="151"/>
+      <c r="K29" s="151"/>
+      <c r="L29" s="152"/>
     </row>
     <row r="30" spans="2:17" ht="96" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="90" t="s">
@@ -47898,14 +48198,14 @@
       <c r="F30" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="G30" s="143" t="s">
+      <c r="G30" s="147" t="s">
         <v>312</v>
       </c>
-      <c r="H30" s="141"/>
-      <c r="I30" s="141"/>
-      <c r="J30" s="141"/>
-      <c r="K30" s="141"/>
-      <c r="L30" s="142"/>
+      <c r="H30" s="145"/>
+      <c r="I30" s="145"/>
+      <c r="J30" s="145"/>
+      <c r="K30" s="145"/>
+      <c r="L30" s="146"/>
     </row>
     <row r="31" spans="2:17" ht="96" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="91" t="s">
@@ -47923,14 +48223,14 @@
       <c r="F31" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="G31" s="143" t="s">
+      <c r="G31" s="147" t="s">
         <v>313</v>
       </c>
-      <c r="H31" s="170"/>
-      <c r="I31" s="170"/>
-      <c r="J31" s="170"/>
-      <c r="K31" s="170"/>
-      <c r="L31" s="171"/>
+      <c r="H31" s="151"/>
+      <c r="I31" s="151"/>
+      <c r="J31" s="151"/>
+      <c r="K31" s="151"/>
+      <c r="L31" s="152"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="99" t="s">
@@ -47948,14 +48248,14 @@
       <c r="F32" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="G32" s="156" t="s">
+      <c r="G32" s="162" t="s">
         <v>107</v>
       </c>
-      <c r="H32" s="157"/>
-      <c r="I32" s="157"/>
-      <c r="J32" s="157"/>
-      <c r="K32" s="157"/>
-      <c r="L32" s="158"/>
+      <c r="H32" s="163"/>
+      <c r="I32" s="163"/>
+      <c r="J32" s="163"/>
+      <c r="K32" s="163"/>
+      <c r="L32" s="164"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="98"/>
@@ -47963,12 +48263,12 @@
       <c r="D33" s="98"/>
       <c r="E33" s="98"/>
       <c r="F33" s="98"/>
-      <c r="G33" s="143"/>
-      <c r="H33" s="170"/>
-      <c r="I33" s="170"/>
-      <c r="J33" s="170"/>
-      <c r="K33" s="170"/>
-      <c r="L33" s="171"/>
+      <c r="G33" s="147"/>
+      <c r="H33" s="151"/>
+      <c r="I33" s="151"/>
+      <c r="J33" s="151"/>
+      <c r="K33" s="151"/>
+      <c r="L33" s="152"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="100"/>
@@ -47976,12 +48276,12 @@
       <c r="D34" s="98"/>
       <c r="E34" s="98"/>
       <c r="F34" s="98"/>
-      <c r="G34" s="143"/>
-      <c r="H34" s="170"/>
-      <c r="I34" s="170"/>
-      <c r="J34" s="170"/>
-      <c r="K34" s="170"/>
-      <c r="L34" s="171"/>
+      <c r="G34" s="147"/>
+      <c r="H34" s="151"/>
+      <c r="I34" s="151"/>
+      <c r="J34" s="151"/>
+      <c r="K34" s="151"/>
+      <c r="L34" s="152"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="98"/>
@@ -47989,12 +48289,12 @@
       <c r="D35" s="98"/>
       <c r="E35" s="98"/>
       <c r="F35" s="98"/>
-      <c r="G35" s="172"/>
-      <c r="H35" s="173"/>
-      <c r="I35" s="173"/>
-      <c r="J35" s="173"/>
-      <c r="K35" s="173"/>
-      <c r="L35" s="174"/>
+      <c r="G35" s="188"/>
+      <c r="H35" s="189"/>
+      <c r="I35" s="189"/>
+      <c r="J35" s="189"/>
+      <c r="K35" s="189"/>
+      <c r="L35" s="190"/>
     </row>
     <row r="36" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="9"/>
@@ -48002,12 +48302,12 @@
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="151"/>
-      <c r="K36" s="151"/>
-      <c r="L36" s="152"/>
+      <c r="G36" s="156"/>
+      <c r="H36" s="157"/>
+      <c r="I36" s="157"/>
+      <c r="J36" s="157"/>
+      <c r="K36" s="157"/>
+      <c r="L36" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -49236,8 +49536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62CA94BE-2560-4552-AD81-586516C811EB}">
   <dimension ref="A2:T37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31:L31"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -49649,14 +49949,14 @@
       <c r="F27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="144" t="s">
+      <c r="G27" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="145"/>
-      <c r="I27" s="145"/>
-      <c r="J27" s="145"/>
-      <c r="K27" s="145"/>
-      <c r="L27" s="146"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="150"/>
     </row>
     <row r="28" spans="2:17" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B28" s="98" t="s">
@@ -49674,14 +49974,17 @@
       <c r="F28" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="G28" s="175" t="s">
+      <c r="G28" s="191" t="s">
         <v>278</v>
       </c>
-      <c r="H28" s="168"/>
-      <c r="I28" s="168"/>
-      <c r="J28" s="168"/>
-      <c r="K28" s="168"/>
-      <c r="L28" s="169"/>
+      <c r="H28" s="186"/>
+      <c r="I28" s="186"/>
+      <c r="J28" s="186"/>
+      <c r="K28" s="186"/>
+      <c r="L28" s="187"/>
+      <c r="O28" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="98" t="s">
@@ -49699,14 +50002,14 @@
       <c r="F29" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="G29" s="175" t="s">
+      <c r="G29" s="191" t="s">
         <v>279</v>
       </c>
-      <c r="H29" s="168"/>
-      <c r="I29" s="168"/>
-      <c r="J29" s="168"/>
-      <c r="K29" s="168"/>
-      <c r="L29" s="169"/>
+      <c r="H29" s="186"/>
+      <c r="I29" s="186"/>
+      <c r="J29" s="186"/>
+      <c r="K29" s="186"/>
+      <c r="L29" s="187"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="98" t="s">
@@ -49724,14 +50027,14 @@
       <c r="F30" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="G30" s="143" t="s">
+      <c r="G30" s="147" t="s">
         <v>113</v>
       </c>
-      <c r="H30" s="170"/>
-      <c r="I30" s="170"/>
-      <c r="J30" s="170"/>
-      <c r="K30" s="170"/>
-      <c r="L30" s="171"/>
+      <c r="H30" s="151"/>
+      <c r="I30" s="151"/>
+      <c r="J30" s="151"/>
+      <c r="K30" s="151"/>
+      <c r="L30" s="152"/>
     </row>
     <row r="31" spans="2:17" ht="96" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="90" t="s">
@@ -49749,14 +50052,14 @@
       <c r="F31" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="G31" s="143" t="s">
+      <c r="G31" s="147" t="s">
         <v>280</v>
       </c>
-      <c r="H31" s="141"/>
-      <c r="I31" s="141"/>
-      <c r="J31" s="141"/>
-      <c r="K31" s="141"/>
-      <c r="L31" s="142"/>
+      <c r="H31" s="145"/>
+      <c r="I31" s="145"/>
+      <c r="J31" s="145"/>
+      <c r="K31" s="145"/>
+      <c r="L31" s="146"/>
     </row>
     <row r="32" spans="2:17" ht="96" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="91" t="s">
@@ -49774,14 +50077,14 @@
       <c r="F32" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="G32" s="143" t="s">
+      <c r="G32" s="147" t="s">
         <v>120</v>
       </c>
-      <c r="H32" s="170"/>
-      <c r="I32" s="170"/>
-      <c r="J32" s="170"/>
-      <c r="K32" s="170"/>
-      <c r="L32" s="171"/>
+      <c r="H32" s="151"/>
+      <c r="I32" s="151"/>
+      <c r="J32" s="151"/>
+      <c r="K32" s="151"/>
+      <c r="L32" s="152"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="99" t="s">
@@ -49799,14 +50102,14 @@
       <c r="F33" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="G33" s="156" t="s">
+      <c r="G33" s="162" t="s">
         <v>107</v>
       </c>
-      <c r="H33" s="157"/>
-      <c r="I33" s="157"/>
-      <c r="J33" s="157"/>
-      <c r="K33" s="157"/>
-      <c r="L33" s="158"/>
+      <c r="H33" s="163"/>
+      <c r="I33" s="163"/>
+      <c r="J33" s="163"/>
+      <c r="K33" s="163"/>
+      <c r="L33" s="164"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="98"/>
@@ -49814,12 +50117,12 @@
       <c r="D34" s="98"/>
       <c r="E34" s="98"/>
       <c r="F34" s="98"/>
-      <c r="G34" s="143"/>
-      <c r="H34" s="170"/>
-      <c r="I34" s="170"/>
-      <c r="J34" s="170"/>
-      <c r="K34" s="170"/>
-      <c r="L34" s="171"/>
+      <c r="G34" s="147"/>
+      <c r="H34" s="151"/>
+      <c r="I34" s="151"/>
+      <c r="J34" s="151"/>
+      <c r="K34" s="151"/>
+      <c r="L34" s="152"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="100"/>
@@ -49827,12 +50130,12 @@
       <c r="D35" s="98"/>
       <c r="E35" s="98"/>
       <c r="F35" s="98"/>
-      <c r="G35" s="143"/>
-      <c r="H35" s="170"/>
-      <c r="I35" s="170"/>
-      <c r="J35" s="170"/>
-      <c r="K35" s="170"/>
-      <c r="L35" s="171"/>
+      <c r="G35" s="147"/>
+      <c r="H35" s="151"/>
+      <c r="I35" s="151"/>
+      <c r="J35" s="151"/>
+      <c r="K35" s="151"/>
+      <c r="L35" s="152"/>
     </row>
     <row r="36" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="98"/>
@@ -49840,12 +50143,12 @@
       <c r="D36" s="98"/>
       <c r="E36" s="98"/>
       <c r="F36" s="98"/>
-      <c r="G36" s="172"/>
-      <c r="H36" s="173"/>
-      <c r="I36" s="173"/>
-      <c r="J36" s="173"/>
-      <c r="K36" s="173"/>
-      <c r="L36" s="174"/>
+      <c r="G36" s="188"/>
+      <c r="H36" s="189"/>
+      <c r="I36" s="189"/>
+      <c r="J36" s="189"/>
+      <c r="K36" s="189"/>
+      <c r="L36" s="190"/>
     </row>
     <row r="37" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="9"/>
@@ -49853,26 +50156,26 @@
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
-      <c r="G37" s="150"/>
-      <c r="H37" s="151"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="151"/>
-      <c r="K37" s="151"/>
-      <c r="L37" s="152"/>
+      <c r="G37" s="156"/>
+      <c r="H37" s="157"/>
+      <c r="I37" s="157"/>
+      <c r="J37" s="157"/>
+      <c r="K37" s="157"/>
+      <c r="L37" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="G27:L27"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="G33:L33"/>
     <mergeCell ref="G35:L35"/>
     <mergeCell ref="G36:L36"/>
     <mergeCell ref="G37:L37"/>
     <mergeCell ref="G28:L28"/>
     <mergeCell ref="G32:L32"/>
     <mergeCell ref="G34:L34"/>
-    <mergeCell ref="G27:L27"/>
-    <mergeCell ref="G29:L29"/>
-    <mergeCell ref="G30:L30"/>
-    <mergeCell ref="G31:L31"/>
-    <mergeCell ref="G33:L33"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -50316,14 +50619,14 @@
       <c r="F27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="144" t="s">
+      <c r="G27" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="145"/>
-      <c r="I27" s="145"/>
-      <c r="J27" s="145"/>
-      <c r="K27" s="145"/>
-      <c r="L27" s="146"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="150"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="9"/>
@@ -50331,12 +50634,12 @@
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="152"/>
+      <c r="G28" s="156"/>
+      <c r="H28" s="157"/>
+      <c r="I28" s="157"/>
+      <c r="J28" s="157"/>
+      <c r="K28" s="157"/>
+      <c r="L28" s="158"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="9"/>
@@ -50344,12 +50647,12 @@
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="152"/>
+      <c r="G29" s="156"/>
+      <c r="H29" s="157"/>
+      <c r="I29" s="157"/>
+      <c r="J29" s="157"/>
+      <c r="K29" s="157"/>
+      <c r="L29" s="158"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="9"/>
@@ -50357,12 +50660,12 @@
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="151"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="152"/>
+      <c r="G30" s="156"/>
+      <c r="H30" s="157"/>
+      <c r="I30" s="157"/>
+      <c r="J30" s="157"/>
+      <c r="K30" s="157"/>
+      <c r="L30" s="158"/>
     </row>
     <row r="31" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="9"/>
@@ -50370,12 +50673,12 @@
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="151"/>
-      <c r="I31" s="151"/>
-      <c r="J31" s="151"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="152"/>
+      <c r="G31" s="156"/>
+      <c r="H31" s="157"/>
+      <c r="I31" s="157"/>
+      <c r="J31" s="157"/>
+      <c r="K31" s="157"/>
+      <c r="L31" s="158"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="9"/>
@@ -50383,12 +50686,12 @@
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="151"/>
-      <c r="K32" s="151"/>
-      <c r="L32" s="152"/>
+      <c r="G32" s="156"/>
+      <c r="H32" s="157"/>
+      <c r="I32" s="157"/>
+      <c r="J32" s="157"/>
+      <c r="K32" s="157"/>
+      <c r="L32" s="158"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="9"/>
@@ -50396,12 +50699,12 @@
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="151"/>
-      <c r="K33" s="151"/>
-      <c r="L33" s="152"/>
+      <c r="G33" s="156"/>
+      <c r="H33" s="157"/>
+      <c r="I33" s="157"/>
+      <c r="J33" s="157"/>
+      <c r="K33" s="157"/>
+      <c r="L33" s="158"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="9"/>
@@ -50409,12 +50712,12 @@
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="152"/>
+      <c r="G34" s="156"/>
+      <c r="H34" s="157"/>
+      <c r="I34" s="157"/>
+      <c r="J34" s="157"/>
+      <c r="K34" s="157"/>
+      <c r="L34" s="158"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="9"/>
@@ -50422,12 +50725,12 @@
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="151"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="152"/>
+      <c r="G35" s="156"/>
+      <c r="H35" s="157"/>
+      <c r="I35" s="157"/>
+      <c r="J35" s="157"/>
+      <c r="K35" s="157"/>
+      <c r="L35" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -51993,10 +52296,10 @@
         <v>18</v>
       </c>
       <c r="J7" s="31"/>
-      <c r="K7" s="191" t="s">
+      <c r="K7" s="142" t="s">
         <v>303</v>
       </c>
-      <c r="L7" s="191"/>
+      <c r="L7" s="142"/>
       <c r="N7" s="49"/>
       <c r="O7" s="50"/>
       <c r="P7" s="50"/>
@@ -52307,14 +52610,14 @@
       <c r="F27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="144" t="s">
+      <c r="G27" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="145"/>
-      <c r="I27" s="145"/>
-      <c r="J27" s="145"/>
-      <c r="K27" s="145"/>
-      <c r="L27" s="146"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="150"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="86" t="s">
@@ -52332,14 +52635,14 @@
       <c r="F28" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="G28" s="140" t="s">
+      <c r="G28" s="144" t="s">
         <v>195</v>
       </c>
-      <c r="H28" s="141"/>
-      <c r="I28" s="141"/>
-      <c r="J28" s="141"/>
-      <c r="K28" s="141"/>
-      <c r="L28" s="142"/>
+      <c r="H28" s="145"/>
+      <c r="I28" s="145"/>
+      <c r="J28" s="145"/>
+      <c r="K28" s="145"/>
+      <c r="L28" s="146"/>
     </row>
     <row r="29" spans="2:17" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="124" t="s">
@@ -52357,14 +52660,14 @@
       <c r="F29" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="G29" s="143" t="s">
+      <c r="G29" s="147" t="s">
         <v>292</v>
       </c>
-      <c r="H29" s="141"/>
-      <c r="I29" s="141"/>
-      <c r="J29" s="141"/>
-      <c r="K29" s="141"/>
-      <c r="L29" s="142"/>
+      <c r="H29" s="145"/>
+      <c r="I29" s="145"/>
+      <c r="J29" s="145"/>
+      <c r="K29" s="145"/>
+      <c r="L29" s="146"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="125" t="s">
@@ -52382,14 +52685,14 @@
       <c r="F30" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="G30" s="140" t="s">
+      <c r="G30" s="144" t="s">
         <v>195</v>
       </c>
-      <c r="H30" s="141"/>
-      <c r="I30" s="141"/>
-      <c r="J30" s="141"/>
-      <c r="K30" s="141"/>
-      <c r="L30" s="142"/>
+      <c r="H30" s="145"/>
+      <c r="I30" s="145"/>
+      <c r="J30" s="145"/>
+      <c r="K30" s="145"/>
+      <c r="L30" s="146"/>
     </row>
     <row r="31" spans="2:17" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="125" t="s">
@@ -52407,14 +52710,14 @@
       <c r="F31" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="G31" s="143" t="s">
+      <c r="G31" s="147" t="s">
         <v>197</v>
       </c>
-      <c r="H31" s="141"/>
-      <c r="I31" s="141"/>
-      <c r="J31" s="141"/>
-      <c r="K31" s="141"/>
-      <c r="L31" s="142"/>
+      <c r="H31" s="145"/>
+      <c r="I31" s="145"/>
+      <c r="J31" s="145"/>
+      <c r="K31" s="145"/>
+      <c r="L31" s="146"/>
     </row>
     <row r="32" spans="2:17" ht="81.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="126" t="s">
@@ -52432,14 +52735,14 @@
       <c r="F32" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="G32" s="143" t="s">
+      <c r="G32" s="147" t="s">
         <v>293</v>
       </c>
-      <c r="H32" s="141"/>
-      <c r="I32" s="141"/>
-      <c r="J32" s="141"/>
-      <c r="K32" s="141"/>
-      <c r="L32" s="142"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="145"/>
+      <c r="K32" s="145"/>
+      <c r="L32" s="146"/>
     </row>
     <row r="33" spans="2:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="125" t="s">
@@ -52457,14 +52760,14 @@
       <c r="F33" s="136" t="s">
         <v>307</v>
       </c>
-      <c r="G33" s="143" t="s">
+      <c r="G33" s="147" t="s">
         <v>309</v>
       </c>
-      <c r="H33" s="170"/>
-      <c r="I33" s="170"/>
-      <c r="J33" s="170"/>
-      <c r="K33" s="170"/>
-      <c r="L33" s="171"/>
+      <c r="H33" s="151"/>
+      <c r="I33" s="151"/>
+      <c r="J33" s="151"/>
+      <c r="K33" s="151"/>
+      <c r="L33" s="152"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="127" t="s">
@@ -52482,14 +52785,14 @@
       <c r="F34" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="G34" s="140" t="s">
+      <c r="G34" s="144" t="s">
         <v>308</v>
       </c>
-      <c r="H34" s="141"/>
-      <c r="I34" s="141"/>
-      <c r="J34" s="141"/>
-      <c r="K34" s="141"/>
-      <c r="L34" s="142"/>
+      <c r="H34" s="145"/>
+      <c r="I34" s="145"/>
+      <c r="J34" s="145"/>
+      <c r="K34" s="145"/>
+      <c r="L34" s="146"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="126" t="s">
@@ -52507,14 +52810,14 @@
       <c r="F35" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="G35" s="140" t="s">
+      <c r="G35" s="144" t="s">
         <v>200</v>
       </c>
-      <c r="H35" s="141"/>
-      <c r="I35" s="141"/>
-      <c r="J35" s="141"/>
-      <c r="K35" s="141"/>
-      <c r="L35" s="142"/>
+      <c r="H35" s="145"/>
+      <c r="I35" s="145"/>
+      <c r="J35" s="145"/>
+      <c r="K35" s="145"/>
+      <c r="L35" s="146"/>
     </row>
     <row r="36" spans="2:12" ht="122.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="128" t="s">
@@ -52524,14 +52827,14 @@
       <c r="D36" s="86"/>
       <c r="E36" s="86"/>
       <c r="F36" s="86"/>
-      <c r="G36" s="143" t="s">
+      <c r="G36" s="147" t="s">
         <v>310</v>
       </c>
-      <c r="H36" s="141"/>
-      <c r="I36" s="141"/>
-      <c r="J36" s="141"/>
-      <c r="K36" s="141"/>
-      <c r="L36" s="142"/>
+      <c r="H36" s="145"/>
+      <c r="I36" s="145"/>
+      <c r="J36" s="145"/>
+      <c r="K36" s="145"/>
+      <c r="L36" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -52557,7 +52860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AACA3BD-585F-4B3E-B0DE-10929AA8FC05}">
   <dimension ref="A2:T36"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
@@ -52971,14 +53274,14 @@
       <c r="F27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="144" t="s">
+      <c r="G27" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="145"/>
-      <c r="I27" s="145"/>
-      <c r="J27" s="145"/>
-      <c r="K27" s="145"/>
-      <c r="L27" s="146"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="150"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="132" t="s">
@@ -52996,14 +53299,14 @@
       <c r="F28" s="86">
         <v>256</v>
       </c>
-      <c r="G28" s="147" t="s">
+      <c r="G28" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="H28" s="148"/>
-      <c r="I28" s="148"/>
-      <c r="J28" s="148"/>
-      <c r="K28" s="148"/>
-      <c r="L28" s="149"/>
+      <c r="H28" s="154"/>
+      <c r="I28" s="154"/>
+      <c r="J28" s="154"/>
+      <c r="K28" s="154"/>
+      <c r="L28" s="155"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="90" t="s">
@@ -53021,14 +53324,14 @@
       <c r="F29" s="86" t="s">
         <v>295</v>
       </c>
-      <c r="G29" s="147" t="s">
+      <c r="G29" s="153" t="s">
         <v>204</v>
       </c>
-      <c r="H29" s="148"/>
-      <c r="I29" s="148"/>
-      <c r="J29" s="148"/>
-      <c r="K29" s="148"/>
-      <c r="L29" s="149"/>
+      <c r="H29" s="154"/>
+      <c r="I29" s="154"/>
+      <c r="J29" s="154"/>
+      <c r="K29" s="154"/>
+      <c r="L29" s="155"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="86" t="s">
@@ -53046,14 +53349,14 @@
       <c r="F30" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="G30" s="147" t="s">
+      <c r="G30" s="153" t="s">
         <v>204</v>
       </c>
-      <c r="H30" s="148"/>
-      <c r="I30" s="148"/>
-      <c r="J30" s="148"/>
-      <c r="K30" s="148"/>
-      <c r="L30" s="149"/>
+      <c r="H30" s="154"/>
+      <c r="I30" s="154"/>
+      <c r="J30" s="154"/>
+      <c r="K30" s="154"/>
+      <c r="L30" s="155"/>
     </row>
     <row r="31" spans="2:17" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="86" t="s">
@@ -53071,14 +53374,14 @@
       <c r="F31" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="G31" s="143" t="s">
+      <c r="G31" s="147" t="s">
         <v>210</v>
       </c>
-      <c r="H31" s="141"/>
-      <c r="I31" s="141"/>
-      <c r="J31" s="141"/>
-      <c r="K31" s="141"/>
-      <c r="L31" s="142"/>
+      <c r="H31" s="145"/>
+      <c r="I31" s="145"/>
+      <c r="J31" s="145"/>
+      <c r="K31" s="145"/>
+      <c r="L31" s="146"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="91" t="s">
@@ -53096,14 +53399,14 @@
       <c r="F32" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="G32" s="140" t="s">
+      <c r="G32" s="144" t="s">
         <v>212</v>
       </c>
-      <c r="H32" s="141"/>
-      <c r="I32" s="141"/>
-      <c r="J32" s="141"/>
-      <c r="K32" s="141"/>
-      <c r="L32" s="142"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="145"/>
+      <c r="K32" s="145"/>
+      <c r="L32" s="146"/>
     </row>
     <row r="33" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="91" t="s">
@@ -53121,14 +53424,14 @@
       <c r="F33" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="G33" s="143" t="s">
+      <c r="G33" s="147" t="s">
         <v>214</v>
       </c>
-      <c r="H33" s="141"/>
-      <c r="I33" s="141"/>
-      <c r="J33" s="141"/>
-      <c r="K33" s="141"/>
-      <c r="L33" s="142"/>
+      <c r="H33" s="145"/>
+      <c r="I33" s="145"/>
+      <c r="J33" s="145"/>
+      <c r="K33" s="145"/>
+      <c r="L33" s="146"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="91" t="s">
@@ -53146,14 +53449,14 @@
       <c r="F34" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="G34" s="143" t="s">
+      <c r="G34" s="147" t="s">
         <v>294</v>
       </c>
-      <c r="H34" s="141"/>
-      <c r="I34" s="141"/>
-      <c r="J34" s="141"/>
-      <c r="K34" s="141"/>
-      <c r="L34" s="142"/>
+      <c r="H34" s="145"/>
+      <c r="I34" s="145"/>
+      <c r="J34" s="145"/>
+      <c r="K34" s="145"/>
+      <c r="L34" s="146"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="90" t="s">
@@ -53171,14 +53474,14 @@
       <c r="F35" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="G35" s="147" t="s">
+      <c r="G35" s="153" t="s">
         <v>216</v>
       </c>
-      <c r="H35" s="148"/>
-      <c r="I35" s="148"/>
-      <c r="J35" s="148"/>
-      <c r="K35" s="148"/>
-      <c r="L35" s="149"/>
+      <c r="H35" s="154"/>
+      <c r="I35" s="154"/>
+      <c r="J35" s="154"/>
+      <c r="K35" s="154"/>
+      <c r="L35" s="155"/>
     </row>
     <row r="36" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="91" t="s">
@@ -53188,14 +53491,14 @@
       <c r="D36" s="86"/>
       <c r="E36" s="86"/>
       <c r="F36" s="86"/>
-      <c r="G36" s="143" t="s">
+      <c r="G36" s="147" t="s">
         <v>217</v>
       </c>
-      <c r="H36" s="141"/>
-      <c r="I36" s="141"/>
-      <c r="J36" s="141"/>
-      <c r="K36" s="141"/>
-      <c r="L36" s="142"/>
+      <c r="H36" s="145"/>
+      <c r="I36" s="145"/>
+      <c r="J36" s="145"/>
+      <c r="K36" s="145"/>
+      <c r="L36" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -53634,14 +53937,14 @@
       <c r="F27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="144" t="s">
+      <c r="G27" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="145"/>
-      <c r="I27" s="145"/>
-      <c r="J27" s="145"/>
-      <c r="K27" s="145"/>
-      <c r="L27" s="146"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="150"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="9" t="s">
@@ -53659,14 +53962,14 @@
       <c r="F28" s="9">
         <v>256</v>
       </c>
-      <c r="G28" s="153" t="s">
+      <c r="G28" s="159" t="s">
         <v>129</v>
       </c>
-      <c r="H28" s="154"/>
-      <c r="I28" s="154"/>
-      <c r="J28" s="154"/>
-      <c r="K28" s="154"/>
-      <c r="L28" s="155"/>
+      <c r="H28" s="160"/>
+      <c r="I28" s="160"/>
+      <c r="J28" s="160"/>
+      <c r="K28" s="160"/>
+      <c r="L28" s="161"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="9" t="s">
@@ -53684,14 +53987,14 @@
       <c r="F29" s="9">
         <v>16</v>
       </c>
-      <c r="G29" s="140" t="s">
+      <c r="G29" s="144" t="s">
         <v>133</v>
       </c>
-      <c r="H29" s="141"/>
-      <c r="I29" s="141"/>
-      <c r="J29" s="141"/>
-      <c r="K29" s="141"/>
-      <c r="L29" s="142"/>
+      <c r="H29" s="145"/>
+      <c r="I29" s="145"/>
+      <c r="J29" s="145"/>
+      <c r="K29" s="145"/>
+      <c r="L29" s="146"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="9" t="s">
@@ -53709,14 +54012,14 @@
       <c r="F30" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="G30" s="143" t="s">
+      <c r="G30" s="147" t="s">
         <v>136</v>
       </c>
-      <c r="H30" s="141"/>
-      <c r="I30" s="141"/>
-      <c r="J30" s="141"/>
-      <c r="K30" s="141"/>
-      <c r="L30" s="142"/>
+      <c r="H30" s="145"/>
+      <c r="I30" s="145"/>
+      <c r="J30" s="145"/>
+      <c r="K30" s="145"/>
+      <c r="L30" s="146"/>
     </row>
     <row r="31" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="86" t="s">
@@ -53734,14 +54037,14 @@
       <c r="F31" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="G31" s="156" t="s">
+      <c r="G31" s="162" t="s">
         <v>137</v>
       </c>
-      <c r="H31" s="157"/>
-      <c r="I31" s="157"/>
-      <c r="J31" s="157"/>
-      <c r="K31" s="157"/>
-      <c r="L31" s="158"/>
+      <c r="H31" s="163"/>
+      <c r="I31" s="163"/>
+      <c r="J31" s="163"/>
+      <c r="K31" s="163"/>
+      <c r="L31" s="164"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="9"/>
@@ -53749,12 +54052,12 @@
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
-      <c r="G32" s="140"/>
-      <c r="H32" s="141"/>
-      <c r="I32" s="141"/>
-      <c r="J32" s="141"/>
-      <c r="K32" s="141"/>
-      <c r="L32" s="142"/>
+      <c r="G32" s="144"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="145"/>
+      <c r="K32" s="145"/>
+      <c r="L32" s="146"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="97"/>
@@ -53762,12 +54065,12 @@
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
-      <c r="G33" s="140"/>
-      <c r="H33" s="141"/>
-      <c r="I33" s="141"/>
-      <c r="J33" s="141"/>
-      <c r="K33" s="141"/>
-      <c r="L33" s="142"/>
+      <c r="G33" s="144"/>
+      <c r="H33" s="145"/>
+      <c r="I33" s="145"/>
+      <c r="J33" s="145"/>
+      <c r="K33" s="145"/>
+      <c r="L33" s="146"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="9"/>
@@ -53775,12 +54078,12 @@
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="152"/>
+      <c r="G34" s="156"/>
+      <c r="H34" s="157"/>
+      <c r="I34" s="157"/>
+      <c r="J34" s="157"/>
+      <c r="K34" s="157"/>
+      <c r="L34" s="158"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="9"/>
@@ -53788,12 +54091,12 @@
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="151"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="152"/>
+      <c r="G35" s="156"/>
+      <c r="H35" s="157"/>
+      <c r="I35" s="157"/>
+      <c r="J35" s="157"/>
+      <c r="K35" s="157"/>
+      <c r="L35" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -54231,14 +54534,14 @@
       <c r="F27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="144" t="s">
+      <c r="G27" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="145"/>
-      <c r="I27" s="145"/>
-      <c r="J27" s="145"/>
-      <c r="K27" s="145"/>
-      <c r="L27" s="146"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="150"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="86" t="s">
@@ -54256,14 +54559,14 @@
       <c r="F28" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="G28" s="156" t="s">
+      <c r="G28" s="162" t="s">
         <v>137</v>
       </c>
-      <c r="H28" s="157"/>
-      <c r="I28" s="157"/>
-      <c r="J28" s="157"/>
-      <c r="K28" s="157"/>
-      <c r="L28" s="158"/>
+      <c r="H28" s="163"/>
+      <c r="I28" s="163"/>
+      <c r="J28" s="163"/>
+      <c r="K28" s="163"/>
+      <c r="L28" s="164"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="9"/>
@@ -54271,12 +54574,12 @@
       <c r="D29" s="86"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="152"/>
+      <c r="G29" s="156"/>
+      <c r="H29" s="157"/>
+      <c r="I29" s="157"/>
+      <c r="J29" s="157"/>
+      <c r="K29" s="157"/>
+      <c r="L29" s="158"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="9"/>
@@ -54284,12 +54587,12 @@
       <c r="D30" s="86"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="143"/>
-      <c r="H30" s="141"/>
-      <c r="I30" s="141"/>
-      <c r="J30" s="141"/>
-      <c r="K30" s="141"/>
-      <c r="L30" s="142"/>
+      <c r="G30" s="147"/>
+      <c r="H30" s="145"/>
+      <c r="I30" s="145"/>
+      <c r="J30" s="145"/>
+      <c r="K30" s="145"/>
+      <c r="L30" s="146"/>
     </row>
     <row r="31" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="9"/>
@@ -54297,12 +54600,12 @@
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="140"/>
-      <c r="H31" s="141"/>
-      <c r="I31" s="141"/>
-      <c r="J31" s="141"/>
-      <c r="K31" s="141"/>
-      <c r="L31" s="142"/>
+      <c r="G31" s="144"/>
+      <c r="H31" s="145"/>
+      <c r="I31" s="145"/>
+      <c r="J31" s="145"/>
+      <c r="K31" s="145"/>
+      <c r="L31" s="146"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="9"/>
@@ -54310,12 +54613,12 @@
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
-      <c r="G32" s="140"/>
-      <c r="H32" s="141"/>
-      <c r="I32" s="141"/>
-      <c r="J32" s="141"/>
-      <c r="K32" s="141"/>
-      <c r="L32" s="142"/>
+      <c r="G32" s="144"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="145"/>
+      <c r="K32" s="145"/>
+      <c r="L32" s="146"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="97"/>
@@ -54323,12 +54626,12 @@
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
-      <c r="G33" s="140"/>
-      <c r="H33" s="141"/>
-      <c r="I33" s="141"/>
-      <c r="J33" s="141"/>
-      <c r="K33" s="141"/>
-      <c r="L33" s="142"/>
+      <c r="G33" s="144"/>
+      <c r="H33" s="145"/>
+      <c r="I33" s="145"/>
+      <c r="J33" s="145"/>
+      <c r="K33" s="145"/>
+      <c r="L33" s="146"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="9"/>
@@ -54336,12 +54639,12 @@
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="152"/>
+      <c r="G34" s="156"/>
+      <c r="H34" s="157"/>
+      <c r="I34" s="157"/>
+      <c r="J34" s="157"/>
+      <c r="K34" s="157"/>
+      <c r="L34" s="158"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="9"/>
@@ -54349,12 +54652,12 @@
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="151"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="152"/>
+      <c r="G35" s="156"/>
+      <c r="H35" s="157"/>
+      <c r="I35" s="157"/>
+      <c r="J35" s="157"/>
+      <c r="K35" s="157"/>
+      <c r="L35" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -54792,14 +55095,14 @@
       <c r="F27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="144" t="s">
+      <c r="G27" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="145"/>
-      <c r="I27" s="145"/>
-      <c r="J27" s="145"/>
-      <c r="K27" s="145"/>
-      <c r="L27" s="146"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="150"/>
     </row>
     <row r="28" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="86" t="s">
@@ -54817,14 +55120,14 @@
       <c r="F28" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="G28" s="156" t="s">
+      <c r="G28" s="162" t="s">
         <v>137</v>
       </c>
-      <c r="H28" s="157"/>
-      <c r="I28" s="157"/>
-      <c r="J28" s="157"/>
-      <c r="K28" s="157"/>
-      <c r="L28" s="158"/>
+      <c r="H28" s="163"/>
+      <c r="I28" s="163"/>
+      <c r="J28" s="163"/>
+      <c r="K28" s="163"/>
+      <c r="L28" s="164"/>
     </row>
     <row r="29" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="9"/>
@@ -54832,12 +55135,12 @@
       <c r="D29" s="86"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="152"/>
+      <c r="G29" s="156"/>
+      <c r="H29" s="157"/>
+      <c r="I29" s="157"/>
+      <c r="J29" s="157"/>
+      <c r="K29" s="157"/>
+      <c r="L29" s="158"/>
     </row>
     <row r="30" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="9"/>
@@ -54845,12 +55148,12 @@
       <c r="D30" s="86"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="143"/>
-      <c r="H30" s="141"/>
-      <c r="I30" s="141"/>
-      <c r="J30" s="141"/>
-      <c r="K30" s="141"/>
-      <c r="L30" s="142"/>
+      <c r="G30" s="147"/>
+      <c r="H30" s="145"/>
+      <c r="I30" s="145"/>
+      <c r="J30" s="145"/>
+      <c r="K30" s="145"/>
+      <c r="L30" s="146"/>
     </row>
     <row r="31" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="9"/>
@@ -54858,12 +55161,12 @@
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="140"/>
-      <c r="H31" s="141"/>
-      <c r="I31" s="141"/>
-      <c r="J31" s="141"/>
-      <c r="K31" s="141"/>
-      <c r="L31" s="142"/>
+      <c r="G31" s="144"/>
+      <c r="H31" s="145"/>
+      <c r="I31" s="145"/>
+      <c r="J31" s="145"/>
+      <c r="K31" s="145"/>
+      <c r="L31" s="146"/>
     </row>
     <row r="32" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="9"/>
@@ -54871,12 +55174,12 @@
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
-      <c r="G32" s="140"/>
-      <c r="H32" s="141"/>
-      <c r="I32" s="141"/>
-      <c r="J32" s="141"/>
-      <c r="K32" s="141"/>
-      <c r="L32" s="142"/>
+      <c r="G32" s="144"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="145"/>
+      <c r="K32" s="145"/>
+      <c r="L32" s="146"/>
     </row>
     <row r="33" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="97"/>
@@ -54884,12 +55187,12 @@
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
-      <c r="G33" s="140"/>
-      <c r="H33" s="141"/>
-      <c r="I33" s="141"/>
-      <c r="J33" s="141"/>
-      <c r="K33" s="141"/>
-      <c r="L33" s="142"/>
+      <c r="G33" s="144"/>
+      <c r="H33" s="145"/>
+      <c r="I33" s="145"/>
+      <c r="J33" s="145"/>
+      <c r="K33" s="145"/>
+      <c r="L33" s="146"/>
     </row>
     <row r="34" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="9"/>
@@ -54897,12 +55200,12 @@
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="152"/>
+      <c r="G34" s="156"/>
+      <c r="H34" s="157"/>
+      <c r="I34" s="157"/>
+      <c r="J34" s="157"/>
+      <c r="K34" s="157"/>
+      <c r="L34" s="158"/>
     </row>
     <row r="35" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="9"/>
@@ -54910,12 +55213,12 @@
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="151"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="152"/>
+      <c r="G35" s="156"/>
+      <c r="H35" s="157"/>
+      <c r="I35" s="157"/>
+      <c r="J35" s="157"/>
+      <c r="K35" s="157"/>
+      <c r="L35" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="9">
